--- a/GPAcalculator/SEMESTER 1 MARKINGS.xlsx
+++ b/GPAcalculator/SEMESTER 1 MARKINGS.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa824ea3d90f3368/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Project\GPAcalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{390CF3DF-42BE-47DB-A4D3-3BF87203A51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D111BB3-F344-4D01-851F-F84771DBB58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DFF6C743-F59C-B24B-B33E-8C4CB8C302DE}"/>
   </bookViews>
   <sheets>
     <sheet name="TOTAL" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="130">
   <si>
     <t>SEMESTER 1 - GRADE TOTAL</t>
   </si>
@@ -57,9 +56,6 @@
     <t>CURRENT(EARNED/GRADED)</t>
   </si>
   <si>
-    <t>WITHOUT COM</t>
-  </si>
-  <si>
     <t>APS145</t>
   </si>
   <si>
@@ -430,18 +426,6 @@
   </si>
   <si>
     <t>LAB #10</t>
-  </si>
-  <si>
-    <t>Marks</t>
-  </si>
-  <si>
-    <t>IF Test #2 was</t>
-  </si>
-  <si>
-    <t>TEST #1 MARK:</t>
-  </si>
-  <si>
-    <t>IF Test #3 Was</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1207,17 +1191,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1300,12 +1279,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1372,7 +1349,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1480,38 +1456,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1843,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B6EF2D-BB0E-BD49-8BD6-7B85E3395827}">
   <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
@@ -1865,1285 +1810,1178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="Z1" s="70"/>
+      <c r="A1" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="Z1" s="67"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="Z2" s="70"/>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="160" t="s">
+      <c r="A2" s="160"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="Z2" s="67"/>
+    </row>
+    <row r="3" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A3" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="Z3" s="70"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="71" t="s">
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="Z3" s="67"/>
+    </row>
+    <row r="4" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="Y4" s="67"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="70"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="74" t="s">
+      <c r="B5" s="72">
+        <f>$B$21</f>
+        <v>0.65</v>
+      </c>
+      <c r="C5" s="72">
+        <f>$F$21</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="129">
+        <f>C5/B5</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="67"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="75">
-        <f>$B$21</f>
-        <v>0.62250000000000005</v>
-      </c>
-      <c r="C5" s="75">
-        <f>$F$21</f>
-        <v>0.54272500000000001</v>
-      </c>
-      <c r="D5" s="134">
-        <f>C5/B5</f>
-        <v>0.87184738955823293</v>
-      </c>
-      <c r="E5" s="136">
-        <f>D5</f>
-        <v>0.87184738955823293</v>
-      </c>
-      <c r="Z5" s="70"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="75">
+      <c r="B6" s="72">
         <f>$B$47</f>
         <v>0.57150000000000001</v>
       </c>
-      <c r="C6" s="75">
+      <c r="C6" s="72">
         <f>$F$47</f>
         <v>0.43510000000000004</v>
       </c>
-      <c r="D6" s="134">
+      <c r="D6" s="129">
         <f>C6/B6</f>
         <v>0.76132983377077867</v>
       </c>
-      <c r="E6" s="136"/>
-      <c r="Z6" s="70"/>
+      <c r="Y6" s="67"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="72">
+        <f>$B$32</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="72">
+        <f>$F$32</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="129">
+        <f>C7/B7</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="67"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="75">
-        <f>$B$32</f>
-        <v>0.7</v>
-      </c>
-      <c r="C7" s="75">
-        <f>$F$32</f>
-        <v>0.64499499999999999</v>
-      </c>
-      <c r="D7" s="134">
-        <f>C7/B7</f>
-        <v>0.92142142857142861</v>
-      </c>
-      <c r="E7" s="136">
-        <f>D7</f>
-        <v>0.92142142857142861</v>
-      </c>
-      <c r="Z7" s="70"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="74" t="s">
+      <c r="B8" s="72">
+        <f>$B$60</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C8" s="72">
+        <f>$F$60</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="129">
+        <f>C8/B8</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="67"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="75">
-        <f>$B$60</f>
-        <v>0.54</v>
-      </c>
-      <c r="C8" s="75">
-        <f>$F$60</f>
-        <v>0.51449999999999996</v>
-      </c>
-      <c r="D8" s="134">
-        <f>C8/B8</f>
-        <v>0.95277777777777761</v>
-      </c>
-      <c r="E8" s="136">
-        <f>D8</f>
-        <v>0.95277777777777761</v>
-      </c>
-      <c r="Z8" s="70"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="74" t="s">
+      <c r="B9" s="72">
+        <f>$B$68</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="C9" s="72">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="129">
+        <f>C9/B9</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="67"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="75">
-        <f>$B$68</f>
-        <v>0.52</v>
-      </c>
-      <c r="C9" s="75">
-        <f>$F$68</f>
-        <v>0.497</v>
-      </c>
-      <c r="D9" s="134">
-        <f>C9/B9</f>
-        <v>0.9557692307692307</v>
-      </c>
-      <c r="E9" s="136">
-        <f>D9</f>
-        <v>0.9557692307692307</v>
-      </c>
-      <c r="Z9" s="70"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="74" t="s">
+      <c r="B10" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="C10" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="130">
+        <f>SUM(D5:D9)/5</f>
+        <v>0.15226596675415574</v>
+      </c>
+      <c r="Y10" s="67"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="73"/>
+      <c r="C11" s="16"/>
+      <c r="Z11" s="67"/>
+    </row>
+    <row r="12" spans="1:26" s="67" customFormat="1"/>
+    <row r="13" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A13" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="135">
-        <f>SUM(D5:D9)/5</f>
-        <v>0.89262913208948969</v>
-      </c>
-      <c r="E10" s="21">
-        <f>SUM(E5:E9)/4</f>
-        <v>0.92545395666916752</v>
-      </c>
-      <c r="Z10" s="70"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="76"/>
-      <c r="C11" s="16"/>
-      <c r="Z11" s="70"/>
-    </row>
-    <row r="12" spans="1:26" s="70" customFormat="1"/>
-    <row r="13" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A13" s="161" t="s">
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="157"/>
+      <c r="H13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="163"/>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="J13" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="54" t="s">
+      <c r="M13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="N13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="53" t="s">
+      <c r="O13" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="53" t="s">
+      <c r="P13" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="53" t="s">
+      <c r="Q13" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="53" t="s">
+      <c r="R13" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="54" t="s">
+      <c r="T13" s="159"/>
+      <c r="U13" s="159"/>
+      <c r="V13" s="159"/>
+      <c r="W13" s="159"/>
+      <c r="X13" s="159"/>
+      <c r="Z13" s="67"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A14" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="148" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="148"/>
+      <c r="E14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="75"/>
+      <c r="J14" s="76">
+        <f>I14*0.15</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="25">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O14" s="26"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="125">
+        <f t="shared" ref="Q14:Q23" si="0">((O14*0.4)+(P14*0.6))</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="78">
+        <f t="shared" ref="R14:R23" si="1">((O14*0.4)+(P14*0.6))*(0.15/8)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="159"/>
+      <c r="T14" s="159"/>
+      <c r="U14" s="159"/>
+      <c r="V14" s="159"/>
+      <c r="W14" s="159"/>
+      <c r="X14" s="159"/>
+      <c r="Z14" s="67"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A15" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="S13" s="165" t="s">
-        <v>23</v>
-      </c>
-      <c r="T13" s="165"/>
-      <c r="U13" s="165"/>
-      <c r="V13" s="165"/>
-      <c r="W13" s="165"/>
-      <c r="X13" s="165"/>
-      <c r="Z13" s="70"/>
-    </row>
-    <row r="14" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A14" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="154" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="154"/>
-      <c r="E14" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="78">
-        <f>8/15</f>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="J14" s="79">
-        <f>I14*0.15</f>
-        <v>0.08</v>
-      </c>
-      <c r="M14" s="55" t="s">
+      <c r="B15" s="25">
+        <f>N24</f>
+        <v>0.15</v>
+      </c>
+      <c r="C15" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="27">
+      <c r="D15" s="163"/>
+      <c r="E15" s="53">
+        <v>0.15</v>
+      </c>
+      <c r="F15" s="54"/>
+      <c r="H15" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="76">
+        <f>I15*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="25">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="O14" s="28">
-        <v>1</v>
-      </c>
-      <c r="P14" s="80">
-        <f>9.5/10</f>
-        <v>0.95</v>
-      </c>
-      <c r="Q14" s="130">
-        <f>((O14*0.4)+(P14*0.6))</f>
-        <v>0.97</v>
-      </c>
-      <c r="R14" s="81">
-        <f t="shared" ref="R14:R23" si="0">((O14*0.4)+(P14*0.6))*(0.15/8)</f>
-        <v>1.8187499999999999E-2</v>
-      </c>
-      <c r="S14" s="165"/>
-      <c r="T14" s="165"/>
-      <c r="U14" s="165"/>
-      <c r="V14" s="165"/>
-      <c r="W14" s="165"/>
-      <c r="X14" s="165"/>
-      <c r="Z14" s="70"/>
-    </row>
-    <row r="15" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A15" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="27">
-        <f>N24</f>
-        <v>0.12250000000000001</v>
-      </c>
-      <c r="C15" s="168" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="169"/>
-      <c r="E15" s="56">
+      <c r="O15" s="24"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="161" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="159"/>
+      <c r="U15" s="159"/>
+      <c r="V15" s="159"/>
+      <c r="W15" s="159"/>
+      <c r="X15" s="159"/>
+      <c r="Y15" s="164" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z15" s="67"/>
+    </row>
+    <row r="16" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A16" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="81">
         <v>0.15</v>
       </c>
-      <c r="F15" s="57">
-        <f>R24</f>
-        <v>0.120225</v>
-      </c>
-      <c r="H15" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="82"/>
-      <c r="M15" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="27">
+      <c r="C16" s="138"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="57">
+        <v>0.15</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="H16" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="76">
+        <f>I16*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="25">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="O15" s="26">
-        <v>1</v>
-      </c>
-      <c r="P15" s="83">
-        <f>10/10</f>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="130">
-        <f t="shared" ref="Q15:Q23" si="1">((O15*0.4)+(P15*0.6))</f>
-        <v>1</v>
-      </c>
-      <c r="R15" s="84">
+      <c r="O16" s="24"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="125">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="161"/>
+      <c r="T16" s="159"/>
+      <c r="U16" s="159"/>
+      <c r="V16" s="159"/>
+      <c r="W16" s="159"/>
+      <c r="X16" s="159"/>
+      <c r="Y16" s="164"/>
+      <c r="Z16" s="67"/>
+    </row>
+    <row r="17" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A17" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="138"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="H17" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="45"/>
+      <c r="J17" s="84">
+        <f>SUM(J14:J16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="25">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="S15" s="167" t="s">
+      <c r="O17" s="24"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="161" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" s="159"/>
+      <c r="U17" s="159"/>
+      <c r="V17" s="159"/>
+      <c r="W17" s="159"/>
+      <c r="X17" s="159"/>
+      <c r="Y17" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="T15" s="165"/>
-      <c r="U15" s="165"/>
-      <c r="V15" s="165"/>
-      <c r="W15" s="165"/>
-      <c r="X15" s="165"/>
-      <c r="Y15" s="170" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z15" s="70"/>
-    </row>
-    <row r="16" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A16" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="85">
-        <v>0.15</v>
-      </c>
-      <c r="C16" s="144"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="60">
-        <v>0.15</v>
-      </c>
-      <c r="F16" s="61">
-        <f>J17</f>
-        <v>0.08</v>
-      </c>
-      <c r="H16" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="86">
-        <v>0</v>
-      </c>
-      <c r="J16" s="87"/>
-      <c r="M16" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" s="27">
+      <c r="Z17" s="67"/>
+    </row>
+    <row r="18" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A18" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="81"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="57">
+        <v>0.35</v>
+      </c>
+      <c r="F18" s="58"/>
+      <c r="M18" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="25">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="O16" s="26">
-        <v>1</v>
-      </c>
-      <c r="P16" s="83">
-        <f>9.7/10</f>
-        <v>0.97</v>
-      </c>
-      <c r="Q16" s="130">
+      <c r="O18" s="24"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="80">
         <f t="shared" si="1"/>
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="R16" s="84">
+        <v>0</v>
+      </c>
+      <c r="S18" s="161"/>
+      <c r="T18" s="159"/>
+      <c r="U18" s="159"/>
+      <c r="V18" s="159"/>
+      <c r="W18" s="159"/>
+      <c r="X18" s="159"/>
+      <c r="Y18" s="164"/>
+      <c r="Z18" s="67"/>
+    </row>
+    <row r="19" spans="1:26" ht="26.1" customHeight="1" thickBot="1">
+      <c r="A19" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="86">
+        <v>0.05</v>
+      </c>
+      <c r="C19" s="138"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="87">
+        <v>0.05</v>
+      </c>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="141" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="25">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O19" s="24"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="125">
         <f t="shared" si="0"/>
-        <v>1.8412499999999998E-2</v>
-      </c>
-      <c r="S16" s="167"/>
-      <c r="T16" s="165"/>
-      <c r="U16" s="165"/>
-      <c r="V16" s="165"/>
-      <c r="W16" s="165"/>
-      <c r="X16" s="165"/>
-      <c r="Y16" s="170"/>
-      <c r="Z16" s="70"/>
-    </row>
-    <row r="17" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A17" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="137" t="s">
+        <v>45</v>
+      </c>
+      <c r="T19" s="133"/>
+      <c r="U19" s="133"/>
+      <c r="V19" s="133"/>
+      <c r="W19" s="133"/>
+      <c r="X19" s="133"/>
+      <c r="Y19" s="164"/>
+      <c r="Z19" s="67"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A20" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="90">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="138"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="62"/>
+      <c r="H20" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="25">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O20" s="24"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="137"/>
+      <c r="T20" s="133"/>
+      <c r="U20" s="133"/>
+      <c r="V20" s="133"/>
+      <c r="W20" s="133"/>
+      <c r="X20" s="133"/>
+      <c r="Y20" s="164"/>
+      <c r="Z20" s="67"/>
+    </row>
+    <row r="21" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A21" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="85">
-        <v>0.2</v>
-      </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="60">
-        <v>0.2</v>
-      </c>
-      <c r="F17" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="H17" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="89">
-        <f>SUM(J14:J16)</f>
-        <v>0.08</v>
-      </c>
-      <c r="M17" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" s="27">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="O17" s="26">
-        <v>0.85</v>
-      </c>
-      <c r="P17" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="130">
-        <f t="shared" si="1"/>
-        <v>0.94</v>
-      </c>
-      <c r="R17" s="84">
-        <f t="shared" si="0"/>
-        <v>1.7624999999999998E-2</v>
-      </c>
-      <c r="S17" s="167" t="s">
-        <v>40</v>
-      </c>
-      <c r="T17" s="165"/>
-      <c r="U17" s="165"/>
-      <c r="V17" s="165"/>
-      <c r="W17" s="165"/>
-      <c r="X17" s="165"/>
-      <c r="Y17" s="170" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z17" s="70"/>
-    </row>
-    <row r="18" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A18" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="60">
-        <v>0.35</v>
-      </c>
-      <c r="F18" s="61"/>
-      <c r="M18" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="27">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="O18" s="26">
-        <v>0.7</v>
-      </c>
-      <c r="P18" s="83">
-        <v>0.82</v>
-      </c>
-      <c r="Q18" s="130">
-        <f t="shared" si="1"/>
-        <v>0.77199999999999991</v>
-      </c>
-      <c r="R18" s="84">
-        <f t="shared" si="0"/>
-        <v>1.4474999999999998E-2</v>
-      </c>
-      <c r="S18" s="167"/>
-      <c r="T18" s="165"/>
-      <c r="U18" s="165"/>
-      <c r="V18" s="165"/>
-      <c r="W18" s="165"/>
-      <c r="X18" s="165"/>
-      <c r="Y18" s="170"/>
-      <c r="Z18" s="70"/>
-    </row>
-    <row r="19" spans="1:26" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A19" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="91">
-        <v>0.05</v>
-      </c>
-      <c r="C19" s="144"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="92">
-        <v>0.05</v>
-      </c>
-      <c r="F19" s="93">
-        <f>0.85*0.05</f>
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="G19" s="94"/>
-      <c r="H19" s="147" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="149"/>
-      <c r="M19" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="N19" s="27">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="O19" s="26">
-        <v>0.8</v>
-      </c>
-      <c r="P19" s="83">
-        <f>5/6</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="Q19" s="130">
-        <f t="shared" si="1"/>
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="R19" s="84">
-        <f t="shared" si="0"/>
-        <v>1.5375E-2</v>
-      </c>
-      <c r="S19" s="143" t="s">
-        <v>46</v>
-      </c>
-      <c r="T19" s="139"/>
-      <c r="U19" s="139"/>
-      <c r="V19" s="139"/>
-      <c r="W19" s="139"/>
-      <c r="X19" s="139"/>
-      <c r="Y19" s="170"/>
-      <c r="Z19" s="70"/>
-    </row>
-    <row r="20" spans="1:26" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A20" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="95">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="64">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="65">
-        <v>0.1</v>
-      </c>
-      <c r="H20" s="137" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="N20" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="O20" s="26">
-        <v>1</v>
-      </c>
-      <c r="P20" s="83">
-        <v>0.88</v>
-      </c>
-      <c r="Q20" s="130">
-        <f t="shared" si="1"/>
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="R20" s="84">
-        <f t="shared" si="0"/>
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="S20" s="143"/>
-      <c r="T20" s="139"/>
-      <c r="U20" s="139"/>
-      <c r="V20" s="139"/>
-      <c r="W20" s="139"/>
-      <c r="X20" s="139"/>
-      <c r="Y20" s="170"/>
-      <c r="Z20" s="70"/>
-    </row>
-    <row r="21" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A21" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="86">
+      <c r="B21" s="82">
         <f>SUM(B15:B20)</f>
-        <v>0.62250000000000005</v>
-      </c>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="67">
+        <v>0.65</v>
+      </c>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="64">
         <f>SUM(E15:E20)</f>
         <v>1</v>
       </c>
-      <c r="F21" s="69">
+      <c r="F21" s="66">
         <f>SUM(F15:F20)</f>
-        <v>0.54272500000000001</v>
+        <v>0</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="147" t="s">
+      <c r="H21" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="149"/>
-      <c r="M21" s="58" t="s">
+      <c r="N21" s="25">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O21" s="24"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="25">
-        <v>0</v>
-      </c>
-      <c r="O21" s="26"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="130">
+      <c r="T21" s="133"/>
+      <c r="U21" s="133"/>
+      <c r="V21" s="133"/>
+      <c r="W21" s="133"/>
+      <c r="X21" s="133"/>
+      <c r="Y21" s="164" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z21" s="67"/>
+    </row>
+    <row r="22" spans="1:26" ht="16.2" thickBot="1">
+      <c r="M22" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="25">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O22" s="24"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R21" s="84">
+      <c r="S22" s="137"/>
+      <c r="T22" s="133"/>
+      <c r="U22" s="133"/>
+      <c r="V22" s="133"/>
+      <c r="W22" s="133"/>
+      <c r="X22" s="133"/>
+      <c r="Y22" s="164"/>
+      <c r="Z22" s="67"/>
+    </row>
+    <row r="23" spans="1:26" ht="16.2" thickBot="1">
+      <c r="E23" s="91"/>
+      <c r="M23" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" s="25">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O23" s="27"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S21" s="143" t="s">
-        <v>52</v>
-      </c>
-      <c r="T21" s="139"/>
-      <c r="U21" s="139"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="139"/>
-      <c r="X21" s="139"/>
-      <c r="Y21" s="170" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z21" s="70"/>
-    </row>
-    <row r="22" spans="1:26" ht="16.2" thickBot="1">
-      <c r="M22" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="N22" s="25">
-        <v>0</v>
-      </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="130">
+      <c r="R23" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R22" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="143"/>
-      <c r="T22" s="139"/>
-      <c r="U22" s="139"/>
-      <c r="V22" s="139"/>
-      <c r="W22" s="139"/>
-      <c r="X22" s="139"/>
-      <c r="Y22" s="170"/>
-      <c r="Z22" s="70"/>
-    </row>
-    <row r="23" spans="1:26" ht="16.2" thickBot="1">
-      <c r="E23" s="96"/>
-      <c r="M23" s="62" t="s">
+      <c r="S23" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="N23" s="29">
-        <v>0</v>
-      </c>
-      <c r="O23" s="30"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="130">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="T23" s="139"/>
-      <c r="U23" s="139"/>
-      <c r="V23" s="139"/>
-      <c r="W23" s="139"/>
-      <c r="X23" s="139"/>
-      <c r="Y23" s="170" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z23" s="70"/>
+      <c r="T23" s="133"/>
+      <c r="U23" s="133"/>
+      <c r="V23" s="133"/>
+      <c r="W23" s="133"/>
+      <c r="X23" s="133"/>
+      <c r="Y23" s="164" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z23" s="67"/>
     </row>
     <row r="24" spans="1:26" ht="16.2" thickBot="1">
       <c r="E24" s="12"/>
-      <c r="M24" s="99" t="s">
-        <v>38</v>
-      </c>
-      <c r="N24" s="100">
+      <c r="M24" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="95">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(N14:N23),-8))</f>
-        <v>0.12250000000000001</v>
-      </c>
-      <c r="O24" s="101"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="102">
+        <v>0.15</v>
+      </c>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="126"/>
+      <c r="R24" s="97">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(R14:R23),-8))</f>
-        <v>0.120225</v>
-      </c>
-      <c r="S24" s="143"/>
-      <c r="T24" s="139"/>
-      <c r="U24" s="139"/>
-      <c r="V24" s="139"/>
-      <c r="W24" s="139"/>
-      <c r="X24" s="139"/>
-      <c r="Y24" s="170"/>
-      <c r="Z24" s="70"/>
-    </row>
-    <row r="25" spans="1:26" s="70" customFormat="1" ht="16.2" thickBot="1">
-      <c r="F25" s="103"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="137"/>
+      <c r="T24" s="133"/>
+      <c r="U24" s="133"/>
+      <c r="V24" s="133"/>
+      <c r="W24" s="133"/>
+      <c r="X24" s="133"/>
+      <c r="Y24" s="164"/>
+      <c r="Z24" s="67"/>
+    </row>
+    <row r="25" spans="1:26" s="67" customFormat="1" ht="16.2" thickBot="1">
+      <c r="F25" s="98"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="161" t="s">
+      <c r="A26" s="155" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="162"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="41" t="s">
+      <c r="I26" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="42" t="s">
+      <c r="J26" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="M26" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="N26" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="O26" s="43" t="s">
-        <v>16</v>
+      <c r="N26" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="O26" s="40" t="s">
+        <v>15</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q26" s="33"/>
-      <c r="Z26" s="70"/>
+        <v>25</v>
+      </c>
+      <c r="Q26" s="30"/>
+      <c r="Z26" s="67"/>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="105"/>
-      <c r="H27" s="77" t="s">
-        <v>60</v>
+        <v>23</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="100"/>
+      <c r="H27" s="74" t="s">
+        <v>59</v>
       </c>
       <c r="I27" s="12">
         <v>0.05</v>
       </c>
-      <c r="J27" s="12">
-        <v>0.65</v>
-      </c>
-      <c r="K27" s="106">
+      <c r="J27" s="12"/>
+      <c r="K27" s="101">
         <f t="shared" ref="K27:K36" si="2">0.05*J27</f>
-        <v>3.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N27" s="17">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O27" s="14">
-        <v>0.8</v>
-      </c>
+      <c r="O27" s="14"/>
       <c r="P27" s="10">
         <f t="shared" ref="P27:P36" si="3">(0.3/8)*O27</f>
-        <v>0.03</v>
-      </c>
-      <c r="Q27" s="132"/>
-      <c r="Z27" s="70"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="127"/>
+      <c r="Z27" s="67"/>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="34">
+        <v>61</v>
+      </c>
+      <c r="B28" s="31">
         <f>N37</f>
         <v>0.3</v>
       </c>
-      <c r="C28" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="150"/>
+      <c r="C28" s="144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="144"/>
       <c r="E28" s="4">
         <v>0.3</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="42">
         <f>P37</f>
-        <v>0.24499499999999999</v>
-      </c>
-      <c r="G28" s="105"/>
-      <c r="H28" s="77" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="G28" s="100"/>
+      <c r="H28" s="74" t="s">
+        <v>62</v>
       </c>
       <c r="I28" s="12">
         <v>0.05</v>
       </c>
-      <c r="J28" s="12">
-        <v>1</v>
-      </c>
-      <c r="K28" s="106">
+      <c r="J28" s="12"/>
+      <c r="K28" s="101">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N28" s="17">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O28" s="14">
-        <v>0.4</v>
-      </c>
+      <c r="O28" s="14"/>
       <c r="P28" s="10">
         <f t="shared" si="3"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Q28" s="132"/>
-      <c r="Z28" s="70"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="127"/>
+      <c r="Z28" s="67"/>
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="17">
         <f>I37</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="C29" s="155" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="155"/>
+      <c r="C29" s="149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="149"/>
       <c r="E29" s="5">
         <v>0.4</v>
       </c>
-      <c r="F29" s="46">
+      <c r="F29" s="43">
         <f>K37</f>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="G29" s="105"/>
-      <c r="H29" s="77" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="G29" s="100"/>
+      <c r="H29" s="74" t="s">
+        <v>65</v>
       </c>
       <c r="I29" s="12">
         <v>0.05</v>
       </c>
-      <c r="J29" s="12">
-        <v>1</v>
-      </c>
-      <c r="K29" s="106">
+      <c r="J29" s="12"/>
+      <c r="K29" s="101">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N29" s="17">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O29" s="14">
-        <v>0.93330000000000002</v>
-      </c>
+      <c r="O29" s="14"/>
       <c r="P29" s="10">
         <f t="shared" si="3"/>
-        <v>3.4998750000000002E-2</v>
-      </c>
-      <c r="Q29" s="132"/>
-      <c r="Z29" s="70"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="127"/>
+      <c r="Z29" s="67"/>
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+        <v>67</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="5">
         <v>0.05</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="77" t="s">
-        <v>69</v>
+      <c r="F30" s="43"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="74" t="s">
+        <v>68</v>
       </c>
       <c r="I30" s="12">
         <v>0.05</v>
       </c>
-      <c r="J30" s="12">
-        <v>1</v>
-      </c>
-      <c r="K30" s="106">
+      <c r="J30" s="12"/>
+      <c r="K30" s="101">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N30" s="17">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O30" s="14">
-        <v>0.93330000000000002</v>
-      </c>
+      <c r="O30" s="14"/>
       <c r="P30" s="10">
         <f t="shared" si="3"/>
-        <v>3.4998750000000002E-2</v>
-      </c>
-      <c r="Q30" s="132"/>
-      <c r="Z30" s="70"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="127"/>
+      <c r="Z30" s="67"/>
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+        <v>70</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="6">
         <v>0.25</v>
       </c>
-      <c r="F31" s="47"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="77" t="s">
-        <v>72</v>
+      <c r="F31" s="44"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="74" t="s">
+        <v>71</v>
       </c>
       <c r="I31" s="12">
         <v>0.05</v>
       </c>
-      <c r="J31" s="12">
-        <v>1</v>
-      </c>
-      <c r="K31" s="106">
+      <c r="J31" s="12"/>
+      <c r="K31" s="101">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N31" s="17">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O31" s="14">
-        <f>13/15</f>
-        <v>0.8666666666666667</v>
-      </c>
+      <c r="O31" s="14"/>
       <c r="P31" s="10">
         <f t="shared" si="3"/>
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="Q31" s="132"/>
-      <c r="Z31" s="70"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="127"/>
+      <c r="Z31" s="67"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="38">
+      <c r="A32" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="35">
         <f>SUM(B28:B31)</f>
-        <v>0.7</v>
-      </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49">
+        <v>1</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46">
         <f>SUM(F28:F31)</f>
-        <v>0.64499499999999999</v>
-      </c>
-      <c r="H32" s="77" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="H32" s="74" t="s">
+        <v>73</v>
       </c>
       <c r="I32" s="12">
         <v>0.05</v>
       </c>
-      <c r="J32" s="12">
-        <v>1</v>
-      </c>
-      <c r="K32" s="106">
+      <c r="J32" s="12"/>
+      <c r="K32" s="101">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N32" s="17">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O32" s="14">
-        <f>14/15</f>
-        <v>0.93333333333333335</v>
-      </c>
+      <c r="O32" s="14"/>
       <c r="P32" s="10">
         <f t="shared" si="3"/>
-        <v>3.4999999999999996E-2</v>
-      </c>
-      <c r="Q32" s="132"/>
-      <c r="Z32" s="70"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="127"/>
+      <c r="Z32" s="67"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="H33" s="77" t="s">
-        <v>76</v>
+      <c r="H33" s="74" t="s">
+        <v>75</v>
       </c>
       <c r="I33" s="12">
         <v>0.05</v>
       </c>
-      <c r="J33" s="12">
-        <v>1</v>
-      </c>
-      <c r="K33" s="106">
+      <c r="J33" s="12"/>
+      <c r="K33" s="101">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N33" s="17">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O33" s="7">
-        <v>0.66659999999999997</v>
-      </c>
+      <c r="O33" s="14"/>
       <c r="P33" s="10">
         <f>(0.3/8)*O33</f>
-        <v>2.4997499999999999E-2</v>
-      </c>
-      <c r="Q33" s="132"/>
-      <c r="Z33" s="70"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="127"/>
+      <c r="Z33" s="67"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="H34" s="77" t="s">
-        <v>78</v>
+      <c r="H34" s="74" t="s">
+        <v>77</v>
       </c>
       <c r="I34" s="12">
         <v>0.05</v>
       </c>
-      <c r="J34" s="12">
-        <v>1</v>
-      </c>
-      <c r="K34" s="106">
+      <c r="J34" s="12"/>
+      <c r="K34" s="101">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N34" s="17">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O34" s="7">
-        <v>1</v>
-      </c>
+      <c r="O34" s="14"/>
       <c r="P34" s="10">
         <f>(0.3/8)*O34</f>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="Q34" s="132"/>
-      <c r="Z34" s="70"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="127"/>
+      <c r="Z34" s="67"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="H35" s="77" t="s">
-        <v>80</v>
+      <c r="H35" s="74" t="s">
+        <v>79</v>
       </c>
       <c r="I35" s="12">
         <v>0.05</v>
       </c>
-      <c r="J35" s="12">
-        <v>1</v>
-      </c>
-      <c r="K35" s="106">
+      <c r="J35" s="12"/>
+      <c r="K35" s="101">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N35" s="17">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O35" s="7">
-        <v>0</v>
-      </c>
+      <c r="O35" s="7"/>
       <c r="P35" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="132"/>
-      <c r="Z35" s="70"/>
+      <c r="Q35" s="127"/>
+      <c r="Z35" s="67"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="H36" s="66" t="s">
-        <v>82</v>
+      <c r="H36" s="63" t="s">
+        <v>81</v>
       </c>
       <c r="I36" s="12">
         <v>0.05</v>
       </c>
-      <c r="J36" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="K36" s="106">
+      <c r="J36" s="33"/>
+      <c r="K36" s="101">
         <f t="shared" si="2"/>
-        <v>1.0000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N36" s="24">
+        <v>82</v>
+      </c>
+      <c r="N36" s="23">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O36" s="68"/>
+      <c r="O36" s="65"/>
       <c r="P36" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="132"/>
-      <c r="Z36" s="70"/>
+      <c r="Q36" s="127"/>
+      <c r="Z36" s="67"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="H37" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="49">
+      <c r="H37" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="46">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(I27:I36),-8))</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="J37" s="48"/>
-      <c r="K37" s="49">
+      <c r="J37" s="45"/>
+      <c r="K37" s="46">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(K27:K36),-8))</f>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="M37" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="N37" s="49">
+        <v>0</v>
+      </c>
+      <c r="M37" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="N37" s="46">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(N27:N36),-8))</f>
         <v>0.3</v>
       </c>
-      <c r="O37" s="48"/>
-      <c r="P37" s="49">
+      <c r="O37" s="45"/>
+      <c r="P37" s="46">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(P27:P36),-8))</f>
-        <v>0.24499499999999999</v>
-      </c>
-      <c r="Q37" s="107"/>
-      <c r="Z37" s="70"/>
-    </row>
-    <row r="38" spans="1:26" s="70" customFormat="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="102"/>
+      <c r="Z37" s="67"/>
+    </row>
+    <row r="38" spans="1:26" s="67" customFormat="1"/>
     <row r="39" spans="1:26">
-      <c r="A39" s="161" t="s">
+      <c r="A39" s="155" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="156"/>
+      <c r="C39" s="156"/>
+      <c r="D39" s="156"/>
+      <c r="Z39" s="67"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="145" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="145"/>
+      <c r="E40" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="162"/>
-      <c r="C39" s="162"/>
-      <c r="D39" s="162"/>
-      <c r="Z39" s="70"/>
-    </row>
-    <row r="40" spans="1:26">
-      <c r="A40" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="151" t="s">
+      <c r="H40" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="151"/>
-      <c r="E40" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="H40" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="I40" s="109" t="s">
-        <v>19</v>
-      </c>
-      <c r="J40" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="K40" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z40" s="70"/>
+      <c r="K40" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z40" s="67"/>
     </row>
     <row r="41" spans="1:26">
       <c r="A41" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="34">
+        <v>86</v>
+      </c>
+      <c r="B41" s="31">
         <v>0.1</v>
       </c>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="150"/>
       <c r="E41" s="4">
         <v>0.1</v>
       </c>
       <c r="F41" s="18">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H41" s="111" t="s">
-        <v>88</v>
-      </c>
-      <c r="I41" s="112">
+      <c r="H41" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="I41" s="107">
         <v>2.01E-2</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="21">
         <v>1</v>
       </c>
       <c r="K41" s="13">
         <f t="shared" ref="K41:K46" si="4">I41*J41</f>
         <v>2.01E-2</v>
       </c>
-      <c r="Z41" s="70"/>
+      <c r="Z41" s="67"/>
     </row>
     <row r="42" spans="1:26" ht="31.2">
       <c r="A42" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="35">
+        <v>88</v>
+      </c>
+      <c r="B42" s="32">
         <v>0.15</v>
       </c>
-      <c r="C42" s="147"/>
-      <c r="D42" s="147"/>
+      <c r="C42" s="141"/>
+      <c r="D42" s="141"/>
       <c r="E42" s="5">
         <v>0.15</v>
       </c>
       <c r="F42" s="11">
         <v>0.115</v>
       </c>
-      <c r="H42" s="113" t="s">
-        <v>90</v>
-      </c>
-      <c r="I42" s="114">
+      <c r="H42" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="109">
         <v>0.02</v>
       </c>
       <c r="J42" s="20">
@@ -3153,17 +2991,17 @@
         <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="Z42" s="70"/>
+      <c r="Z42" s="67"/>
     </row>
     <row r="43" spans="1:26">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="17">
         <v>0.15</v>
       </c>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="141"/>
       <c r="E43" s="5">
         <v>0.15</v>
       </c>
@@ -3171,10 +3009,10 @@
         <f>B43*(9/15)</f>
         <v>0.09</v>
       </c>
-      <c r="H43" s="113" t="s">
-        <v>92</v>
-      </c>
-      <c r="I43" s="114">
+      <c r="H43" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" s="109">
         <v>0.03</v>
       </c>
       <c r="J43" s="20">
@@ -3184,23 +3022,23 @@
         <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
-      <c r="Z43" s="70"/>
+      <c r="Z43" s="67"/>
     </row>
     <row r="44" spans="1:26">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" s="17"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="147"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="141"/>
       <c r="E44" s="5">
         <v>0.15</v>
       </c>
       <c r="F44" s="11"/>
-      <c r="H44" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="I44" s="114">
+      <c r="H44" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="I44" s="109">
         <v>0.03</v>
       </c>
       <c r="J44" s="20">
@@ -3210,18 +3048,18 @@
         <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
-      <c r="Z44" s="70"/>
+      <c r="Z44" s="67"/>
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="17">
         <f>I49</f>
         <v>0.17149999999999999</v>
       </c>
-      <c r="C45" s="147"/>
-      <c r="D45" s="147"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="141"/>
       <c r="E45" s="5">
         <v>0.2</v>
       </c>
@@ -3229,10 +3067,10 @@
         <f>K49</f>
         <v>0.1651</v>
       </c>
-      <c r="H45" s="113" t="s">
-        <v>95</v>
-      </c>
-      <c r="I45" s="114">
+      <c r="H45" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="109">
         <v>0.03</v>
       </c>
       <c r="J45" s="20">
@@ -3243,23 +3081,23 @@
         <f t="shared" si="4"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Z45" s="70"/>
+      <c r="Z45" s="67"/>
     </row>
     <row r="46" spans="1:26">
       <c r="A46" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="160"/>
-      <c r="D46" s="160"/>
+        <v>95</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="154"/>
       <c r="E46" s="6">
         <v>0.25</v>
       </c>
       <c r="F46" s="19"/>
-      <c r="H46" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" s="114">
+      <c r="H46" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" s="109">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="J46" s="20">
@@ -3270,27 +3108,27 @@
         <f t="shared" si="4"/>
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="Z46" s="70"/>
+      <c r="Z46" s="67"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="38">
+      <c r="A47" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="35">
         <f>SUM(B41:B46)</f>
         <v>0.57150000000000001</v>
       </c>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="39">
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="36">
         <f>SUM(F41:F46)</f>
         <v>0.43510000000000004</v>
       </c>
-      <c r="H47" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="I47" s="114">
+      <c r="H47" s="108" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47" s="109">
         <v>2.0400000000000001E-2</v>
       </c>
       <c r="J47" s="20">
@@ -3300,22 +3138,22 @@
         <f>I47*J47</f>
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="Z47" s="70"/>
+      <c r="Z47" s="67"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="H48" s="115" t="s">
-        <v>99</v>
-      </c>
-      <c r="I48" s="116">
-        <v>0</v>
-      </c>
-      <c r="J48" s="23"/>
+      <c r="H48" s="110" t="s">
+        <v>98</v>
+      </c>
+      <c r="I48" s="111">
+        <v>0</v>
+      </c>
+      <c r="J48" s="22"/>
       <c r="K48" s="13"/>
-      <c r="Z48" s="70"/>
+      <c r="Z48" s="67"/>
     </row>
     <row r="49" spans="1:26">
       <c r="H49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I49" s="14">
         <f>SUM(I41:I48)</f>
@@ -3325,864 +3163,819 @@
         <f>SUM(K41:K48)</f>
         <v>0.1651</v>
       </c>
-      <c r="Z49" s="70"/>
-    </row>
-    <row r="50" spans="1:26" s="70" customFormat="1"/>
-    <row r="51" spans="1:26" ht="22.8">
-      <c r="A51" s="161" t="s">
+      <c r="Z49" s="67"/>
+    </row>
+    <row r="50" spans="1:26" s="67" customFormat="1"/>
+    <row r="51" spans="1:26" ht="23.4" thickBot="1">
+      <c r="A51" s="155" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="156"/>
+      <c r="C51" s="156"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="157"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N51" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="O51" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="P51" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51" s="91"/>
+      <c r="S51" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="162"/>
-      <c r="C51" s="162"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="163"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="8" t="s">
+      <c r="Z51" s="67"/>
+    </row>
+    <row r="52" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A52" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I51" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="J51" s="53" t="s">
+      <c r="C52" s="148" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="148"/>
+      <c r="E52" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K51" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N51" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="O51" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="P51" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q51" s="96"/>
-      <c r="S51" s="31" t="s">
+      <c r="F52" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="91"/>
+      <c r="H52" s="103" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" s="112">
+        <v>0.02</v>
+      </c>
+      <c r="J52" s="112"/>
+      <c r="K52" s="114">
+        <f>J52*I52</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="Z51" s="70"/>
-    </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="154" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="154"/>
-      <c r="E52" s="53" t="s">
+      <c r="N52" s="112">
+        <v>0.02</v>
+      </c>
+      <c r="O52" s="113"/>
+      <c r="P52" s="114">
+        <f>O52*0.02</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="132" t="s">
+        <v>102</v>
+      </c>
+      <c r="S52" s="133"/>
+      <c r="T52" s="133"/>
+      <c r="U52" s="133"/>
+      <c r="V52" s="133"/>
+      <c r="W52" s="133"/>
+      <c r="X52" s="133"/>
+      <c r="Z52" s="67"/>
+    </row>
+    <row r="53" spans="1:26" ht="23.1" customHeight="1">
+      <c r="A53" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" s="96"/>
-      <c r="H52" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="I52" s="117">
-        <v>0.02</v>
-      </c>
-      <c r="J52" s="118">
-        <v>1</v>
-      </c>
-      <c r="K52" s="119">
-        <f>J52*I52</f>
-        <v>0.02</v>
-      </c>
-      <c r="M52" s="108" t="s">
-        <v>102</v>
-      </c>
-      <c r="N52" s="117">
-        <v>0.02</v>
-      </c>
-      <c r="O52" s="118">
-        <v>1</v>
-      </c>
-      <c r="P52" s="119">
-        <f>O52*0.02</f>
-        <v>0.02</v>
-      </c>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="138" t="s">
+      <c r="B53" s="53">
+        <f>I58</f>
+        <v>0.1</v>
+      </c>
+      <c r="C53" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="S52" s="139"/>
-      <c r="T52" s="139"/>
-      <c r="U52" s="139"/>
-      <c r="V52" s="139"/>
-      <c r="W52" s="139"/>
-      <c r="X52" s="139"/>
-      <c r="Z52" s="70"/>
-    </row>
-    <row r="53" spans="1:26" ht="23.1" customHeight="1">
-      <c r="A53" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="56">
-        <f>I58</f>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="C53" s="164" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="164"/>
-      <c r="E53" s="56">
+      <c r="D53" s="158"/>
+      <c r="E53" s="53">
         <v>0.1</v>
       </c>
-      <c r="F53" s="57">
+      <c r="F53" s="54">
         <f>K58</f>
-        <v>9.0000000000000011E-2</v>
+        <v>0</v>
       </c>
       <c r="G53" s="7"/>
-      <c r="H53" s="77" t="s">
-        <v>31</v>
+      <c r="H53" s="74" t="s">
+        <v>30</v>
       </c>
       <c r="I53" s="1">
         <v>0.02</v>
       </c>
-      <c r="J53" s="7">
-        <v>1</v>
-      </c>
-      <c r="K53" s="79">
+      <c r="J53" s="7"/>
+      <c r="K53" s="76">
         <f t="shared" ref="K53:K56" si="5">J53*I53</f>
-        <v>0.02</v>
-      </c>
-      <c r="M53" s="77" t="s">
-        <v>105</v>
+        <v>0</v>
+      </c>
+      <c r="M53" s="74" t="s">
+        <v>104</v>
       </c>
       <c r="N53" s="1">
         <v>0.02</v>
       </c>
-      <c r="O53" s="7">
-        <v>1</v>
-      </c>
-      <c r="P53" s="79">
+      <c r="O53" s="7"/>
+      <c r="P53" s="76">
         <f>O53*0.02</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="7"/>
-      <c r="R53" s="138"/>
-      <c r="S53" s="139"/>
-      <c r="T53" s="139"/>
-      <c r="U53" s="139"/>
-      <c r="V53" s="139"/>
-      <c r="W53" s="139"/>
-      <c r="X53" s="139"/>
-      <c r="Z53" s="70"/>
+      <c r="R53" s="132"/>
+      <c r="S53" s="133"/>
+      <c r="T53" s="133"/>
+      <c r="U53" s="133"/>
+      <c r="V53" s="133"/>
+      <c r="W53" s="133"/>
+      <c r="X53" s="133"/>
+      <c r="Z53" s="67"/>
     </row>
     <row r="54" spans="1:26" ht="23.1" customHeight="1">
-      <c r="A54" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="59"/>
-      <c r="C54" s="157"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="60">
+      <c r="A54" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="56"/>
+      <c r="C54" s="151"/>
+      <c r="D54" s="151"/>
+      <c r="E54" s="57">
         <v>0.01</v>
       </c>
-      <c r="F54" s="61"/>
+      <c r="F54" s="58"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="77" t="s">
-        <v>36</v>
+      <c r="H54" s="74" t="s">
+        <v>35</v>
       </c>
       <c r="I54" s="1">
         <v>0.02</v>
       </c>
-      <c r="J54" s="7">
-        <v>1</v>
-      </c>
-      <c r="K54" s="79">
+      <c r="J54" s="7"/>
+      <c r="K54" s="76">
         <f t="shared" si="5"/>
-        <v>0.02</v>
-      </c>
-      <c r="M54" s="77" t="s">
-        <v>107</v>
+        <v>0</v>
+      </c>
+      <c r="M54" s="74" t="s">
+        <v>106</v>
       </c>
       <c r="N54" s="1">
         <v>0.02</v>
       </c>
-      <c r="O54" s="7">
-        <v>1</v>
-      </c>
-      <c r="P54" s="79">
+      <c r="O54" s="7"/>
+      <c r="P54" s="76">
         <f t="shared" ref="P54:P56" si="6">O54*0.02</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="7"/>
-      <c r="R54" s="140" t="s">
+      <c r="R54" s="134" t="s">
+        <v>107</v>
+      </c>
+      <c r="S54" s="135"/>
+      <c r="T54" s="135"/>
+      <c r="U54" s="135"/>
+      <c r="V54" s="135"/>
+      <c r="W54" s="135"/>
+      <c r="X54" s="135"/>
+      <c r="Z54" s="67"/>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="S54" s="141"/>
-      <c r="T54" s="141"/>
-      <c r="U54" s="141"/>
-      <c r="V54" s="141"/>
-      <c r="W54" s="141"/>
-      <c r="X54" s="141"/>
-      <c r="Z54" s="70"/>
-    </row>
-    <row r="55" spans="1:26">
-      <c r="A55" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" s="59"/>
-      <c r="C55" s="157"/>
-      <c r="D55" s="157"/>
-      <c r="E55" s="60">
+      <c r="B55" s="56"/>
+      <c r="C55" s="151"/>
+      <c r="D55" s="151"/>
+      <c r="E55" s="57">
         <v>0.01</v>
       </c>
-      <c r="F55" s="61"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="77" t="s">
-        <v>39</v>
+      <c r="H55" s="74" t="s">
+        <v>38</v>
       </c>
       <c r="I55" s="1">
         <v>0.02</v>
       </c>
-      <c r="J55" s="7">
-        <v>1</v>
-      </c>
-      <c r="K55" s="79">
+      <c r="J55" s="7"/>
+      <c r="K55" s="76">
         <f t="shared" si="5"/>
-        <v>0.02</v>
-      </c>
-      <c r="M55" s="77" t="s">
-        <v>110</v>
+        <v>0</v>
+      </c>
+      <c r="M55" s="74" t="s">
+        <v>109</v>
       </c>
       <c r="N55" s="1">
         <v>0.02</v>
       </c>
-      <c r="O55" s="7">
-        <v>1</v>
-      </c>
-      <c r="P55" s="79">
+      <c r="O55" s="7"/>
+      <c r="P55" s="76">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="134"/>
+      <c r="S55" s="135"/>
+      <c r="T55" s="135"/>
+      <c r="U55" s="135"/>
+      <c r="V55" s="135"/>
+      <c r="W55" s="135"/>
+      <c r="X55" s="135"/>
+      <c r="Z55" s="67"/>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="56"/>
+      <c r="C56" s="151"/>
+      <c r="D56" s="151"/>
+      <c r="E56" s="57">
+        <v>0.08</v>
+      </c>
+      <c r="F56" s="58"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" s="1">
         <v>0.02</v>
       </c>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="140"/>
-      <c r="S55" s="141"/>
-      <c r="T55" s="141"/>
-      <c r="U55" s="141"/>
-      <c r="V55" s="141"/>
-      <c r="W55" s="141"/>
-      <c r="X55" s="141"/>
-      <c r="Z55" s="70"/>
-    </row>
-    <row r="56" spans="1:26">
-      <c r="A56" s="58" t="s">
+      <c r="J56" s="7"/>
+      <c r="K56" s="76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="74" t="s">
         <v>111</v>
-      </c>
-      <c r="B56" s="59"/>
-      <c r="C56" s="157"/>
-      <c r="D56" s="157"/>
-      <c r="E56" s="60">
-        <v>0.08</v>
-      </c>
-      <c r="F56" s="61"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="J56" s="7">
-        <v>1</v>
-      </c>
-      <c r="K56" s="79">
-        <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="M56" s="77" t="s">
-        <v>112</v>
       </c>
       <c r="N56" s="1">
         <v>0.02</v>
       </c>
-      <c r="O56" s="7">
-        <v>0.95</v>
-      </c>
-      <c r="P56" s="79">
+      <c r="O56" s="7"/>
+      <c r="P56" s="76">
         <f t="shared" si="6"/>
-        <v>1.9E-2</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="7"/>
-      <c r="R56" s="142"/>
-      <c r="S56" s="137"/>
-      <c r="T56" s="137"/>
-      <c r="U56" s="137"/>
-      <c r="V56" s="137"/>
-      <c r="W56" s="137"/>
-      <c r="X56" s="137"/>
-      <c r="Z56" s="70"/>
-    </row>
-    <row r="57" spans="1:26">
-      <c r="A57" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="60">
+      <c r="R56" s="136"/>
+      <c r="S56" s="131"/>
+      <c r="T56" s="131"/>
+      <c r="U56" s="131"/>
+      <c r="V56" s="131"/>
+      <c r="W56" s="131"/>
+      <c r="X56" s="131"/>
+      <c r="Z56" s="67"/>
+    </row>
+    <row r="57" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A57" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="57">
         <f>N58</f>
         <v>0.1</v>
       </c>
-      <c r="C57" s="157" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" s="157"/>
-      <c r="E57" s="60">
+      <c r="C57" s="151" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="151"/>
+      <c r="E57" s="57">
         <v>0.1</v>
       </c>
-      <c r="F57" s="61">
+      <c r="F57" s="58">
         <f>P58</f>
-        <v>9.9000000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="G57" s="7"/>
-      <c r="H57" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="I57" s="67">
-        <v>0</v>
-      </c>
-      <c r="J57" s="86"/>
-      <c r="K57" s="69">
+      <c r="H57" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J57" s="82"/>
+      <c r="K57" s="66">
         <f>J57*0.02</f>
         <v>0</v>
       </c>
-      <c r="M57" s="77" t="s">
+      <c r="M57" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="O57" s="82"/>
+      <c r="P57" s="66">
+        <f>O57*0.02</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="136"/>
+      <c r="S57" s="131"/>
+      <c r="T57" s="131"/>
+      <c r="U57" s="131"/>
+      <c r="V57" s="131"/>
+      <c r="W57" s="131"/>
+      <c r="X57" s="131"/>
+      <c r="Z57" s="67"/>
+    </row>
+    <row r="58" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A58" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="N57" s="1">
-        <v>0</v>
-      </c>
-      <c r="O57" s="86"/>
-      <c r="P57" s="69">
-        <f>O57*0.02</f>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="142"/>
-      <c r="S57" s="137"/>
-      <c r="T57" s="137"/>
-      <c r="U57" s="137"/>
-      <c r="V57" s="137"/>
-      <c r="W57" s="137"/>
-      <c r="X57" s="137"/>
-      <c r="Z57" s="70"/>
-    </row>
-    <row r="58" spans="1:26">
-      <c r="A58" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="60">
+      <c r="B58" s="57">
         <v>0.35</v>
       </c>
-      <c r="C58" s="158">
-        <f>46.5/50</f>
-        <v>0.93</v>
-      </c>
-      <c r="D58" s="158"/>
-      <c r="E58" s="60">
+      <c r="C58" s="152"/>
+      <c r="D58" s="152"/>
+      <c r="E58" s="57">
         <v>0.35</v>
       </c>
-      <c r="F58" s="61">
+      <c r="F58" s="58">
         <f>C58*E58</f>
-        <v>0.32550000000000001</v>
+        <v>0</v>
       </c>
       <c r="G58" s="7"/>
-      <c r="H58" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="I58" s="89">
+      <c r="H58" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="I58" s="84">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(I52:I57),-5))</f>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="J58" s="120"/>
-      <c r="K58" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="J58" s="115"/>
+      <c r="K58" s="84">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(K52:K57),-5))</f>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="M58" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="N58" s="89">
+        <v>0</v>
+      </c>
+      <c r="M58" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="N58" s="84">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(N52:N57),-5))</f>
         <v>0.1</v>
       </c>
-      <c r="O58" s="120"/>
-      <c r="P58" s="89">
+      <c r="O58" s="115"/>
+      <c r="P58" s="84">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(P52:P57),-5))</f>
-        <v>9.9000000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="7"/>
-      <c r="Z58" s="70"/>
+      <c r="Z58" s="67"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="B59" s="63"/>
-      <c r="C59" s="159"/>
-      <c r="D59" s="159"/>
-      <c r="E59" s="64">
+      <c r="A59" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="60"/>
+      <c r="C59" s="153"/>
+      <c r="D59" s="153"/>
+      <c r="E59" s="61">
         <v>0.35</v>
       </c>
-      <c r="F59" s="65"/>
+      <c r="F59" s="62"/>
       <c r="G59" s="7"/>
-      <c r="R59" s="137"/>
-      <c r="S59" s="137"/>
-      <c r="T59" s="137"/>
-      <c r="U59" s="137"/>
-      <c r="V59" s="137"/>
-      <c r="W59" s="137"/>
-      <c r="X59" s="137"/>
-      <c r="Z59" s="70"/>
+      <c r="R59" s="131"/>
+      <c r="S59" s="131"/>
+      <c r="T59" s="131"/>
+      <c r="U59" s="131"/>
+      <c r="V59" s="131"/>
+      <c r="W59" s="131"/>
+      <c r="X59" s="131"/>
+      <c r="Z59" s="67"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="67">
+      <c r="A60" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="64">
         <f>SUM(B53:B59)</f>
-        <v>0.54</v>
-      </c>
-      <c r="C60" s="160"/>
-      <c r="D60" s="160"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="69">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C60" s="154"/>
+      <c r="D60" s="154"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="66">
         <f>SUM(F53:F59)</f>
-        <v>0.51449999999999996</v>
+        <v>0</v>
       </c>
       <c r="G60" s="7"/>
-      <c r="R60" s="137"/>
-      <c r="S60" s="137"/>
-      <c r="T60" s="137"/>
-      <c r="U60" s="137"/>
-      <c r="V60" s="137"/>
-      <c r="W60" s="137"/>
-      <c r="X60" s="137"/>
-      <c r="Z60" s="70"/>
-    </row>
-    <row r="61" spans="1:26" s="70" customFormat="1"/>
-    <row r="62" spans="1:26">
-      <c r="A62" s="161" t="s">
+      <c r="R60" s="131"/>
+      <c r="S60" s="131"/>
+      <c r="T60" s="131"/>
+      <c r="U60" s="131"/>
+      <c r="V60" s="131"/>
+      <c r="W60" s="131"/>
+      <c r="X60" s="131"/>
+      <c r="Z60" s="67"/>
+    </row>
+    <row r="61" spans="1:26" s="67" customFormat="1" ht="16.2" thickBot="1"/>
+    <row r="62" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A62" s="155" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="156"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="156"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I62" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="M62" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="162"/>
-      <c r="C62" s="162"/>
-      <c r="D62" s="162"/>
-      <c r="E62" s="162"/>
-      <c r="F62" s="162"/>
-      <c r="G62" s="96"/>
-      <c r="H62" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I62" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="J62" s="53" t="s">
+      <c r="N62" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="O62" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="P62" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q62" s="91"/>
+      <c r="Z62" s="67"/>
+    </row>
+    <row r="63" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A63" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="148" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="148"/>
+      <c r="E63" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K62" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="M62" s="37" t="s">
+      <c r="F63" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="91"/>
+      <c r="H63" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" s="53">
+        <v>0.03</v>
+      </c>
+      <c r="J63" s="77"/>
+      <c r="K63" s="54">
+        <f t="shared" ref="K63:K69" si="7">J63*0.03</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="N62" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="O62" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="P62" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q62" s="96"/>
-      <c r="Z62" s="70"/>
-    </row>
-    <row r="63" spans="1:26">
-      <c r="A63" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="154" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="154"/>
-      <c r="E63" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="96"/>
-      <c r="H63" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="I63" s="56">
+      <c r="N63" s="112">
         <v>0.03</v>
       </c>
-      <c r="J63" s="80">
-        <v>0.8</v>
-      </c>
-      <c r="K63" s="57">
-        <f t="shared" ref="K63:K69" si="7">J63*0.03</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="M63" s="108" t="s">
+      <c r="P63" s="76">
+        <f t="shared" ref="P63:P64" si="8">O63*0.03</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="7"/>
+      <c r="Z63" s="67"/>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="N63" s="117">
+      <c r="B64" s="77">
+        <f>N73</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C64" s="158" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="158"/>
+      <c r="E64" s="53">
+        <v>0.3</v>
+      </c>
+      <c r="F64" s="54">
+        <f>P73</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="I64" s="57">
         <v>0.03</v>
       </c>
-      <c r="O63" s="118">
-        <v>1</v>
-      </c>
-      <c r="P63" s="119">
-        <f>O63*0.03</f>
-        <v>0.03</v>
-      </c>
-      <c r="Q63" s="7"/>
-      <c r="Z63" s="70"/>
-    </row>
-    <row r="64" spans="1:26">
-      <c r="A64" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="B64" s="80">
-        <f>N73</f>
-        <v>0.18</v>
-      </c>
-      <c r="C64" s="164" t="s">
+      <c r="J64" s="79"/>
+      <c r="K64" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="74" t="s">
         <v>119</v>
-      </c>
-      <c r="D64" s="164"/>
-      <c r="E64" s="56">
-        <v>0.3</v>
-      </c>
-      <c r="F64" s="57">
-        <f>P73</f>
-        <v>0.18</v>
-      </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="I64" s="60">
-        <v>0.03</v>
-      </c>
-      <c r="J64" s="83">
-        <v>0.6</v>
-      </c>
-      <c r="K64" s="61">
-        <f t="shared" si="7"/>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M64" s="77" t="s">
-        <v>120</v>
       </c>
       <c r="N64" s="1">
         <v>0.03</v>
       </c>
-      <c r="O64" s="7">
-        <v>1</v>
-      </c>
-      <c r="P64" s="79">
-        <f>O64*0.03</f>
+      <c r="O64" s="7"/>
+      <c r="P64" s="76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="7"/>
+      <c r="Z64" s="67"/>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="79">
+        <f>I70</f>
+        <v>0.15</v>
+      </c>
+      <c r="C65" s="151" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="151"/>
+      <c r="E65" s="57">
+        <v>0.15</v>
+      </c>
+      <c r="F65" s="58">
+        <f>K70</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="I65" s="57">
         <v>0.03</v>
       </c>
-      <c r="Q64" s="7"/>
-      <c r="Z64" s="70"/>
-    </row>
-    <row r="65" spans="1:26">
-      <c r="A65" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" s="83">
-        <f>I70</f>
-        <v>0.09</v>
-      </c>
-      <c r="C65" s="157" t="s">
+      <c r="J65" s="79"/>
+      <c r="K65" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="74" t="s">
         <v>121</v>
-      </c>
-      <c r="D65" s="157"/>
-      <c r="E65" s="60">
-        <v>0.15</v>
-      </c>
-      <c r="F65" s="61">
-        <f>K70</f>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="I65" s="60">
-        <v>0.03</v>
-      </c>
-      <c r="J65" s="83">
-        <v>1</v>
-      </c>
-      <c r="K65" s="61">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
-      </c>
-      <c r="M65" s="77" t="s">
-        <v>122</v>
       </c>
       <c r="N65" s="1">
         <v>0.03</v>
       </c>
-      <c r="O65" s="7">
-        <v>1</v>
-      </c>
-      <c r="P65" s="79">
+      <c r="O65" s="7"/>
+      <c r="P65" s="76">
         <f>O65*0.03</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="7"/>
+      <c r="Z65" s="67"/>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="79">
+        <v>0.25</v>
+      </c>
+      <c r="C66" s="152"/>
+      <c r="D66" s="152"/>
+      <c r="E66" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="F66" s="58">
+        <f>C66*E66</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="I66" s="57">
         <v>0.03</v>
       </c>
-      <c r="Q65" s="7"/>
-      <c r="Z65" s="70"/>
-    </row>
-    <row r="66" spans="1:26">
-      <c r="A66" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="B66" s="83">
-        <v>0.25</v>
-      </c>
-      <c r="C66" s="158">
-        <f>98/100</f>
-        <v>0.98</v>
-      </c>
-      <c r="D66" s="158"/>
-      <c r="E66" s="60">
-        <v>0.25</v>
-      </c>
-      <c r="F66" s="61">
-        <f>C66*E66</f>
-        <v>0.245</v>
-      </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="I66" s="60">
-        <v>0</v>
-      </c>
-      <c r="J66" s="83"/>
-      <c r="K66" s="61">
+      <c r="J66" s="79"/>
+      <c r="K66" s="58">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M66" s="77" t="s">
-        <v>123</v>
+      <c r="M66" s="74" t="s">
+        <v>122</v>
       </c>
       <c r="N66" s="1">
         <v>0.03</v>
       </c>
-      <c r="O66" s="7">
-        <v>1</v>
-      </c>
-      <c r="P66" s="79">
+      <c r="O66" s="7"/>
+      <c r="P66" s="76">
         <f>O66*0.03</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="7"/>
+      <c r="Z66" s="67"/>
+    </row>
+    <row r="67" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A67" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="117"/>
+      <c r="C67" s="146"/>
+      <c r="D67" s="146"/>
+      <c r="E67" s="118">
+        <v>0.3</v>
+      </c>
+      <c r="F67" s="119"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="I67" s="57">
         <v>0.03</v>
       </c>
-      <c r="Q66" s="7"/>
-      <c r="Z66" s="70"/>
-    </row>
-    <row r="67" spans="1:26">
-      <c r="A67" s="121" t="s">
-        <v>96</v>
-      </c>
-      <c r="B67" s="122"/>
-      <c r="C67" s="152"/>
-      <c r="D67" s="152"/>
-      <c r="E67" s="123">
-        <v>0.3</v>
-      </c>
-      <c r="F67" s="124"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="I67" s="60">
-        <v>0</v>
-      </c>
-      <c r="J67" s="83"/>
-      <c r="K67" s="61">
+      <c r="J67" s="79"/>
+      <c r="K67" s="58">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M67" s="77" t="s">
-        <v>124</v>
+      <c r="M67" s="74" t="s">
+        <v>123</v>
       </c>
       <c r="N67" s="1">
         <v>0.03</v>
       </c>
-      <c r="O67" s="7">
-        <v>1</v>
-      </c>
-      <c r="P67" s="79">
-        <f t="shared" ref="P67:P72" si="8">O67*0.03</f>
+      <c r="O67" s="7"/>
+      <c r="P67" s="76">
+        <f t="shared" ref="P67:P72" si="9">O67*0.03</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="7"/>
+      <c r="Z67" s="67"/>
+    </row>
+    <row r="68" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A68" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="121">
+        <f>SUM(B64:B67)</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="C68" s="147"/>
+      <c r="D68" s="147"/>
+      <c r="E68" s="122"/>
+      <c r="F68" s="123">
+        <f>SUM(F64:F67)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="I68" s="57">
         <v>0.03</v>
       </c>
-      <c r="Q67" s="7"/>
-      <c r="Z67" s="70"/>
-    </row>
-    <row r="68" spans="1:26">
-      <c r="A68" s="125" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" s="126">
-        <f>SUM(B64:B67)</f>
-        <v>0.52</v>
-      </c>
-      <c r="C68" s="153"/>
-      <c r="D68" s="153"/>
-      <c r="E68" s="127"/>
-      <c r="F68" s="128">
-        <f>SUM(F64:F67)</f>
-        <v>0.497</v>
-      </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="I68" s="60">
-        <v>0</v>
-      </c>
-      <c r="J68" s="83"/>
-      <c r="K68" s="61">
+      <c r="J68" s="79"/>
+      <c r="K68" s="58">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M68" s="77" t="s">
-        <v>125</v>
+      <c r="M68" s="74" t="s">
+        <v>124</v>
       </c>
       <c r="N68" s="1">
         <v>0.03</v>
       </c>
-      <c r="O68" s="7">
-        <v>1</v>
-      </c>
-      <c r="P68" s="79">
-        <f t="shared" si="8"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="76">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="7"/>
+      <c r="Z68" s="67"/>
+    </row>
+    <row r="69" spans="1:26" ht="16.2" thickBot="1">
+      <c r="H69" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="I69" s="57">
         <v>0.03</v>
       </c>
-      <c r="Q68" s="7"/>
-      <c r="Z68" s="70"/>
-    </row>
-    <row r="69" spans="1:26">
-      <c r="H69" s="62" t="s">
+      <c r="J69" s="92"/>
+      <c r="K69" s="62">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="I69" s="64">
-        <v>0</v>
-      </c>
-      <c r="J69" s="97"/>
-      <c r="K69" s="65">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="77" t="s">
+      <c r="N69" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O69" s="7"/>
+      <c r="P69" s="76">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="7"/>
+      <c r="Z69" s="67"/>
+    </row>
+    <row r="70" spans="1:26" ht="16.2" thickBot="1">
+      <c r="H70" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70" s="124">
+        <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(I63:I69),-5))</f>
+        <v>0.15</v>
+      </c>
+      <c r="J70" s="82"/>
+      <c r="K70" s="124">
+        <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(K63:K69),-5))</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="N69" s="1">
-        <v>0</v>
-      </c>
-      <c r="O69" s="7"/>
-      <c r="P69" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="7"/>
-      <c r="Z69" s="70"/>
-    </row>
-    <row r="70" spans="1:26">
-      <c r="H70" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="I70" s="129">
-        <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(I63:I69),-5))</f>
-        <v>0.09</v>
-      </c>
-      <c r="J70" s="86"/>
-      <c r="K70" s="129">
-        <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(K63:K69),-5))</f>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="M70" s="77" t="s">
+      <c r="N70" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O70" s="7"/>
+      <c r="P70" s="76">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="7"/>
+      <c r="Z70" s="67"/>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="M71" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="N70" s="1">
-        <v>0</v>
-      </c>
-      <c r="O70" s="7"/>
-      <c r="P70" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q70" s="7"/>
-      <c r="Z70" s="70"/>
-    </row>
-    <row r="71" spans="1:26">
-      <c r="M71" s="77" t="s">
+      <c r="N71" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O71" s="7"/>
+      <c r="P71" s="76">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="7"/>
+      <c r="Z71" s="67"/>
+    </row>
+    <row r="72" spans="1:26" ht="16.2" thickBot="1">
+      <c r="M72" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="N71" s="1">
-        <v>0</v>
-      </c>
-      <c r="O71" s="7"/>
-      <c r="P71" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q71" s="7"/>
-      <c r="Z71" s="70"/>
-    </row>
-    <row r="72" spans="1:26">
-      <c r="M72" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="N72" s="67">
-        <v>0</v>
-      </c>
-      <c r="O72" s="86"/>
-      <c r="P72" s="69">
-        <f t="shared" si="8"/>
+      <c r="N72" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O72" s="82"/>
+      <c r="P72" s="66">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q72" s="7"/>
-      <c r="Z72" s="70"/>
+      <c r="Z72" s="67"/>
     </row>
     <row r="73" spans="1:26">
       <c r="M73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N73" s="1">
         <f>SUM(N63:N72)</f>
-        <v>0.18</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="O73" s="7"/>
       <c r="P73" s="7">
         <f>SUM(P63:P72)</f>
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="7"/>
-      <c r="Z73" s="70"/>
-    </row>
-    <row r="74" spans="1:26" s="70" customFormat="1"/>
+      <c r="Z73" s="67"/>
+    </row>
+    <row r="74" spans="1:26" s="67" customFormat="1"/>
   </sheetData>
   <mergeCells count="59">
     <mergeCell ref="Y15:Y16"/>
@@ -4247,385 +4040,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C10C6D2-F5F0-CA49-9F67-7B7E955F77ED}">
-  <dimension ref="A1:P37"/>
-  <sheetViews>
-    <sheetView zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="12">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="B3" s="7">
-        <f t="shared" ref="B3:B12" si="0">$E$1+B$2+$A3</f>
-        <v>0.29000000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="B4" s="7">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="B5" s="7">
-        <f t="shared" si="0"/>
-        <v>0.31000000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="B6" s="7">
-        <f t="shared" si="0"/>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="B7" s="7">
-        <f t="shared" si="0"/>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="B8" s="7">
-        <f t="shared" si="0"/>
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B9" s="7">
-        <f t="shared" si="0"/>
-        <v>0.35000000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="B10" s="7">
-        <f t="shared" si="0"/>
-        <v>0.36000000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="B11" s="7">
-        <f t="shared" si="0"/>
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="B12" s="7">
-        <f t="shared" si="0"/>
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="B13" s="7">
-        <f t="shared" ref="B13:B22" si="1">$E$1+B$2+$A13</f>
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="B14" s="7">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="B15" s="7">
-        <f t="shared" si="1"/>
-        <v>0.41000000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="B16" s="7">
-        <f t="shared" si="1"/>
-        <v>0.42000000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="B17" s="7">
-        <f t="shared" si="1"/>
-        <v>0.43000000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="B18" s="7">
-        <f t="shared" si="1"/>
-        <v>0.44000000000000006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="B19" s="7">
-        <f t="shared" si="1"/>
-        <v>0.45000000000000007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="B20" s="7">
-        <f t="shared" si="1"/>
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="B21" s="7">
-        <f t="shared" si="1"/>
-        <v>0.47000000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="B22" s="7">
-        <f t="shared" si="1"/>
-        <v>0.48000000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="B23" s="7">
-        <f t="shared" ref="B23:B37" si="2">$E$1+B$2+$A23</f>
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="B24" s="7">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="B25" s="7">
-        <f t="shared" si="2"/>
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="B26" s="7">
-        <f t="shared" si="2"/>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="B27" s="7">
-        <f t="shared" si="2"/>
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="B28" s="7">
-        <f t="shared" si="2"/>
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="B29" s="7">
-        <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="B30" s="7">
-        <f t="shared" si="2"/>
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="B31" s="7">
-        <f t="shared" si="2"/>
-        <v>0.57000000000000006</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B32" s="7">
-        <f t="shared" si="2"/>
-        <v>0.58000000000000007</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="B33" s="7">
-        <f t="shared" si="2"/>
-        <v>0.59000000000000008</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="B34" s="7">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="B35" s="7">
-        <f t="shared" si="2"/>
-        <v>0.6100000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1">
-        <v>0.34</v>
-      </c>
-      <c r="B36" s="7">
-        <f t="shared" si="2"/>
-        <v>0.62000000000000011</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="B37" s="7">
-        <f t="shared" si="2"/>
-        <v>0.63</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B3:B37">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>0.35</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0.35</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>0.35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/GPAcalculator/SEMESTER 1 MARKINGS.xlsx
+++ b/GPAcalculator/SEMESTER 1 MARKINGS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Project\GPAcalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D111BB3-F344-4D01-851F-F84771DBB58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8FE403-38CF-4ACC-8D6F-2BF77490F0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DFF6C743-F59C-B24B-B33E-8C4CB8C302DE}"/>
   </bookViews>
@@ -1165,7 +1165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1349,15 +1349,99 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1367,88 +1451,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1788,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B6EF2D-BB0E-BD49-8BD6-7B85E3395827}">
   <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
@@ -1810,29 +1814,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
+      <c r="A1" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
       <c r="Z1" s="67"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
       <c r="Z2" s="67"/>
     </row>
     <row r="3" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
       <c r="Z3" s="67"/>
     </row>
     <row r="4" spans="1:26" ht="16.2" thickBot="1">
@@ -1963,14 +1967,14 @@
     </row>
     <row r="12" spans="1:26" s="67" customFormat="1"/>
     <row r="13" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="156"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="157"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="143"/>
       <c r="H13" s="8" t="s">
         <v>14</v>
       </c>
@@ -1998,14 +2002,14 @@
       <c r="R13" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="159" t="s">
+      <c r="S13" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="159"/>
-      <c r="U13" s="159"/>
-      <c r="V13" s="159"/>
-      <c r="W13" s="159"/>
-      <c r="X13" s="159"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="133"/>
+      <c r="V13" s="133"/>
+      <c r="W13" s="133"/>
+      <c r="X13" s="133"/>
       <c r="Z13" s="67"/>
     </row>
     <row r="14" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
@@ -2015,10 +2019,10 @@
       <c r="B14" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="148" t="s">
+      <c r="C14" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="148"/>
+      <c r="D14" s="140"/>
       <c r="E14" s="47" t="s">
         <v>16</v>
       </c>
@@ -2049,12 +2053,12 @@
         <f t="shared" ref="R14:R23" si="1">((O14*0.4)+(P14*0.6))*(0.15/8)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="159"/>
-      <c r="V14" s="159"/>
-      <c r="W14" s="159"/>
-      <c r="X14" s="159"/>
+      <c r="S14" s="133"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="133"/>
+      <c r="X14" s="133"/>
       <c r="Z14" s="67"/>
     </row>
     <row r="15" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
@@ -2065,10 +2069,10 @@
         <f>N24</f>
         <v>0.15</v>
       </c>
-      <c r="C15" s="162" t="s">
+      <c r="C15" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="163"/>
+      <c r="D15" s="145"/>
       <c r="E15" s="53">
         <v>0.15</v>
       </c>
@@ -2096,15 +2100,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S15" s="161" t="s">
+      <c r="S15" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="T15" s="159"/>
-      <c r="U15" s="159"/>
-      <c r="V15" s="159"/>
-      <c r="W15" s="159"/>
-      <c r="X15" s="159"/>
-      <c r="Y15" s="164" t="s">
+      <c r="T15" s="133"/>
+      <c r="U15" s="133"/>
+      <c r="V15" s="133"/>
+      <c r="W15" s="133"/>
+      <c r="X15" s="133"/>
+      <c r="Y15" s="131" t="s">
         <v>32</v>
       </c>
       <c r="Z15" s="67"/>
@@ -2116,8 +2120,8 @@
       <c r="B16" s="81">
         <v>0.15</v>
       </c>
-      <c r="C16" s="138"/>
-      <c r="D16" s="139"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="147"/>
       <c r="E16" s="57">
         <v>0.15</v>
       </c>
@@ -2146,13 +2150,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S16" s="161"/>
-      <c r="T16" s="159"/>
-      <c r="U16" s="159"/>
-      <c r="V16" s="159"/>
-      <c r="W16" s="159"/>
-      <c r="X16" s="159"/>
-      <c r="Y16" s="164"/>
+      <c r="S16" s="132"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="133"/>
+      <c r="V16" s="133"/>
+      <c r="W16" s="133"/>
+      <c r="X16" s="133"/>
+      <c r="Y16" s="131"/>
       <c r="Z16" s="67"/>
     </row>
     <row r="17" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
@@ -2162,8 +2166,8 @@
       <c r="B17" s="81">
         <v>0.2</v>
       </c>
-      <c r="C17" s="138"/>
-      <c r="D17" s="139"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="147"/>
       <c r="E17" s="57">
         <v>0.2</v>
       </c>
@@ -2192,15 +2196,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S17" s="161" t="s">
+      <c r="S17" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="T17" s="159"/>
-      <c r="U17" s="159"/>
-      <c r="V17" s="159"/>
-      <c r="W17" s="159"/>
-      <c r="X17" s="159"/>
-      <c r="Y17" s="164" t="s">
+      <c r="T17" s="133"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="133"/>
+      <c r="W17" s="133"/>
+      <c r="X17" s="133"/>
+      <c r="Y17" s="131" t="s">
         <v>32</v>
       </c>
       <c r="Z17" s="67"/>
@@ -2210,8 +2214,8 @@
         <v>40</v>
       </c>
       <c r="B18" s="81"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="139"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="147"/>
       <c r="E18" s="57">
         <v>0.35</v>
       </c>
@@ -2232,13 +2236,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S18" s="161"/>
-      <c r="T18" s="159"/>
-      <c r="U18" s="159"/>
-      <c r="V18" s="159"/>
-      <c r="W18" s="159"/>
-      <c r="X18" s="159"/>
-      <c r="Y18" s="164"/>
+      <c r="S18" s="132"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="133"/>
+      <c r="V18" s="133"/>
+      <c r="W18" s="133"/>
+      <c r="X18" s="133"/>
+      <c r="Y18" s="131"/>
       <c r="Z18" s="67"/>
     </row>
     <row r="19" spans="1:26" ht="26.1" customHeight="1" thickBot="1">
@@ -2248,20 +2252,20 @@
       <c r="B19" s="86">
         <v>0.05</v>
       </c>
-      <c r="C19" s="138"/>
-      <c r="D19" s="139"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="147"/>
       <c r="E19" s="87">
         <v>0.05</v>
       </c>
       <c r="F19" s="88"/>
       <c r="G19" s="89"/>
-      <c r="H19" s="141" t="s">
+      <c r="H19" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="143"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="158"/>
       <c r="M19" s="55" t="s">
         <v>44</v>
       </c>
@@ -2278,15 +2282,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S19" s="137" t="s">
+      <c r="S19" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="T19" s="133"/>
-      <c r="U19" s="133"/>
-      <c r="V19" s="133"/>
-      <c r="W19" s="133"/>
-      <c r="X19" s="133"/>
-      <c r="Y19" s="164"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="139"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="139"/>
+      <c r="X19" s="139"/>
+      <c r="Y19" s="131"/>
       <c r="Z19" s="67"/>
     </row>
     <row r="20" spans="1:26" ht="17.100000000000001" customHeight="1" thickBot="1">
@@ -2296,19 +2300,19 @@
       <c r="B20" s="90">
         <v>0.1</v>
       </c>
-      <c r="C20" s="138"/>
-      <c r="D20" s="139"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="147"/>
       <c r="E20" s="61">
         <v>0.1</v>
       </c>
       <c r="F20" s="62"/>
-      <c r="H20" s="131" t="s">
+      <c r="H20" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="142"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="157"/>
       <c r="M20" s="55" t="s">
         <v>48</v>
       </c>
@@ -2325,13 +2329,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S20" s="137"/>
-      <c r="T20" s="133"/>
-      <c r="U20" s="133"/>
-      <c r="V20" s="133"/>
-      <c r="W20" s="133"/>
-      <c r="X20" s="133"/>
-      <c r="Y20" s="164"/>
+      <c r="S20" s="138"/>
+      <c r="T20" s="139"/>
+      <c r="U20" s="139"/>
+      <c r="V20" s="139"/>
+      <c r="W20" s="139"/>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="131"/>
       <c r="Z20" s="67"/>
     </row>
     <row r="21" spans="1:26" ht="16.2" thickBot="1">
@@ -2342,8 +2346,8 @@
         <f>SUM(B15:B20)</f>
         <v>0.65</v>
       </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="64">
         <f>SUM(E15:E20)</f>
         <v>1</v>
@@ -2353,13 +2357,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="141" t="s">
+      <c r="H21" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="143"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="158"/>
       <c r="M21" s="55" t="s">
         <v>50</v>
       </c>
@@ -2376,15 +2380,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S21" s="137" t="s">
+      <c r="S21" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="T21" s="133"/>
-      <c r="U21" s="133"/>
-      <c r="V21" s="133"/>
-      <c r="W21" s="133"/>
-      <c r="X21" s="133"/>
-      <c r="Y21" s="164" t="s">
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
+      <c r="X21" s="139"/>
+      <c r="Y21" s="131" t="s">
         <v>32</v>
       </c>
       <c r="Z21" s="67"/>
@@ -2406,13 +2410,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S22" s="137"/>
-      <c r="T22" s="133"/>
-      <c r="U22" s="133"/>
-      <c r="V22" s="133"/>
-      <c r="W22" s="133"/>
-      <c r="X22" s="133"/>
-      <c r="Y22" s="164"/>
+      <c r="S22" s="138"/>
+      <c r="T22" s="139"/>
+      <c r="U22" s="139"/>
+      <c r="V22" s="139"/>
+      <c r="W22" s="139"/>
+      <c r="X22" s="139"/>
+      <c r="Y22" s="131"/>
       <c r="Z22" s="67"/>
     </row>
     <row r="23" spans="1:26" ht="16.2" thickBot="1">
@@ -2433,15 +2437,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S23" s="137" t="s">
+      <c r="S23" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="T23" s="133"/>
-      <c r="U23" s="133"/>
-      <c r="V23" s="133"/>
-      <c r="W23" s="133"/>
-      <c r="X23" s="133"/>
-      <c r="Y23" s="164" t="s">
+      <c r="T23" s="139"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="131" t="s">
         <v>32</v>
       </c>
       <c r="Z23" s="67"/>
@@ -2462,27 +2466,27 @@
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(R14:R23),-8))</f>
         <v>0</v>
       </c>
-      <c r="S24" s="137"/>
-      <c r="T24" s="133"/>
-      <c r="U24" s="133"/>
-      <c r="V24" s="133"/>
-      <c r="W24" s="133"/>
-      <c r="X24" s="133"/>
-      <c r="Y24" s="164"/>
+      <c r="S24" s="138"/>
+      <c r="T24" s="139"/>
+      <c r="U24" s="139"/>
+      <c r="V24" s="139"/>
+      <c r="W24" s="139"/>
+      <c r="X24" s="139"/>
+      <c r="Y24" s="131"/>
       <c r="Z24" s="67"/>
     </row>
     <row r="25" spans="1:26" s="67" customFormat="1" ht="16.2" thickBot="1">
       <c r="F25" s="98"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="157"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="143"/>
       <c r="G26" s="30"/>
       <c r="H26" s="38" t="s">
         <v>56</v>
@@ -2518,8 +2522,8 @@
       <c r="B27" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
       <c r="E27" s="30" t="s">
         <v>16</v>
       </c>
@@ -2560,10 +2564,10 @@
         <f>N37</f>
         <v>0.3</v>
       </c>
-      <c r="C28" s="144" t="s">
+      <c r="C28" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="144"/>
+      <c r="D28" s="159"/>
       <c r="E28" s="4">
         <v>0.3</v>
       </c>
@@ -2605,10 +2609,10 @@
         <f>I37</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="C29" s="149" t="s">
+      <c r="C29" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="149"/>
+      <c r="D29" s="152"/>
       <c r="E29" s="5">
         <v>0.4</v>
       </c>
@@ -2894,12 +2898,12 @@
     </row>
     <row r="38" spans="1:26" s="67" customFormat="1"/>
     <row r="39" spans="1:26">
-      <c r="A39" s="155" t="s">
+      <c r="A39" s="141" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="156"/>
-      <c r="C39" s="156"/>
-      <c r="D39" s="156"/>
+      <c r="B39" s="142"/>
+      <c r="C39" s="142"/>
+      <c r="D39" s="142"/>
       <c r="Z39" s="67"/>
     </row>
     <row r="40" spans="1:26">
@@ -2909,10 +2913,10 @@
       <c r="B40" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="145" t="s">
+      <c r="C40" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="145"/>
+      <c r="D40" s="137"/>
       <c r="E40" s="47" t="s">
         <v>16</v>
       </c>
@@ -2940,8 +2944,8 @@
       <c r="B41" s="31">
         <v>0.1</v>
       </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
+      <c r="C41" s="153"/>
+      <c r="D41" s="153"/>
       <c r="E41" s="4">
         <v>0.1</v>
       </c>
@@ -2970,8 +2974,8 @@
       <c r="B42" s="32">
         <v>0.15</v>
       </c>
-      <c r="C42" s="141"/>
-      <c r="D42" s="141"/>
+      <c r="C42" s="154"/>
+      <c r="D42" s="154"/>
       <c r="E42" s="5">
         <v>0.15</v>
       </c>
@@ -3000,8 +3004,8 @@
       <c r="B43" s="17">
         <v>0.15</v>
       </c>
-      <c r="C43" s="141"/>
-      <c r="D43" s="141"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="154"/>
       <c r="E43" s="5">
         <v>0.15</v>
       </c>
@@ -3029,8 +3033,8 @@
         <v>92</v>
       </c>
       <c r="B44" s="17"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="141"/>
+      <c r="C44" s="154"/>
+      <c r="D44" s="154"/>
       <c r="E44" s="5">
         <v>0.15</v>
       </c>
@@ -3058,8 +3062,8 @@
         <f>I49</f>
         <v>0.17149999999999999</v>
       </c>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
+      <c r="C45" s="154"/>
+      <c r="D45" s="154"/>
       <c r="E45" s="5">
         <v>0.2</v>
       </c>
@@ -3088,8 +3092,8 @@
         <v>95</v>
       </c>
       <c r="B46" s="23"/>
-      <c r="C46" s="154"/>
-      <c r="D46" s="154"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
       <c r="E46" s="6">
         <v>0.25</v>
       </c>
@@ -3118,8 +3122,8 @@
         <f>SUM(B41:B46)</f>
         <v>0.57150000000000001</v>
       </c>
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
       <c r="E47" s="45"/>
       <c r="F47" s="36">
         <f>SUM(F41:F46)</f>
@@ -3167,14 +3171,14 @@
     </row>
     <row r="50" spans="1:26" s="67" customFormat="1"/>
     <row r="51" spans="1:26" ht="23.4" thickBot="1">
-      <c r="A51" s="155" t="s">
+      <c r="A51" s="141" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="156"/>
-      <c r="C51" s="156"/>
-      <c r="D51" s="156"/>
-      <c r="E51" s="156"/>
-      <c r="F51" s="157"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="143"/>
       <c r="G51" s="30"/>
       <c r="H51" s="8" t="s">
         <v>17</v>
@@ -3213,10 +3217,10 @@
       <c r="B52" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="148" t="s">
+      <c r="C52" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="148"/>
+      <c r="D52" s="140"/>
       <c r="E52" s="50" t="s">
         <v>16</v>
       </c>
@@ -3247,15 +3251,15 @@
         <v>0</v>
       </c>
       <c r="Q52" s="7"/>
-      <c r="R52" s="132" t="s">
+      <c r="R52" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="S52" s="133"/>
-      <c r="T52" s="133"/>
-      <c r="U52" s="133"/>
-      <c r="V52" s="133"/>
-      <c r="W52" s="133"/>
-      <c r="X52" s="133"/>
+      <c r="S52" s="139"/>
+      <c r="T52" s="139"/>
+      <c r="U52" s="139"/>
+      <c r="V52" s="139"/>
+      <c r="W52" s="139"/>
+      <c r="X52" s="139"/>
       <c r="Z52" s="67"/>
     </row>
     <row r="53" spans="1:26" ht="23.1" customHeight="1">
@@ -3266,10 +3270,10 @@
         <f>I58</f>
         <v>0.1</v>
       </c>
-      <c r="C53" s="158" t="s">
+      <c r="C53" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="158"/>
+      <c r="D53" s="148"/>
       <c r="E53" s="53">
         <v>0.1</v>
       </c>
@@ -3301,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="Q53" s="7"/>
-      <c r="R53" s="132"/>
-      <c r="S53" s="133"/>
-      <c r="T53" s="133"/>
-      <c r="U53" s="133"/>
-      <c r="V53" s="133"/>
-      <c r="W53" s="133"/>
-      <c r="X53" s="133"/>
+      <c r="R53" s="161"/>
+      <c r="S53" s="139"/>
+      <c r="T53" s="139"/>
+      <c r="U53" s="139"/>
+      <c r="V53" s="139"/>
+      <c r="W53" s="139"/>
+      <c r="X53" s="139"/>
       <c r="Z53" s="67"/>
     </row>
     <row r="54" spans="1:26" ht="23.1" customHeight="1">
@@ -3315,8 +3319,8 @@
         <v>105</v>
       </c>
       <c r="B54" s="56"/>
-      <c r="C54" s="151"/>
-      <c r="D54" s="151"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="136"/>
       <c r="E54" s="57">
         <v>0.01</v>
       </c>
@@ -3345,15 +3349,15 @@
         <v>0</v>
       </c>
       <c r="Q54" s="7"/>
-      <c r="R54" s="134" t="s">
+      <c r="R54" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="S54" s="135"/>
-      <c r="T54" s="135"/>
-      <c r="U54" s="135"/>
-      <c r="V54" s="135"/>
-      <c r="W54" s="135"/>
-      <c r="X54" s="135"/>
+      <c r="S54" s="163"/>
+      <c r="T54" s="163"/>
+      <c r="U54" s="163"/>
+      <c r="V54" s="163"/>
+      <c r="W54" s="163"/>
+      <c r="X54" s="163"/>
       <c r="Z54" s="67"/>
     </row>
     <row r="55" spans="1:26">
@@ -3361,8 +3365,8 @@
         <v>108</v>
       </c>
       <c r="B55" s="56"/>
-      <c r="C55" s="151"/>
-      <c r="D55" s="151"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="136"/>
       <c r="E55" s="57">
         <v>0.01</v>
       </c>
@@ -3391,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="Q55" s="7"/>
-      <c r="R55" s="134"/>
-      <c r="S55" s="135"/>
-      <c r="T55" s="135"/>
-      <c r="U55" s="135"/>
-      <c r="V55" s="135"/>
-      <c r="W55" s="135"/>
-      <c r="X55" s="135"/>
+      <c r="R55" s="162"/>
+      <c r="S55" s="163"/>
+      <c r="T55" s="163"/>
+      <c r="U55" s="163"/>
+      <c r="V55" s="163"/>
+      <c r="W55" s="163"/>
+      <c r="X55" s="163"/>
       <c r="Z55" s="67"/>
     </row>
     <row r="56" spans="1:26">
@@ -3405,8 +3409,8 @@
         <v>110</v>
       </c>
       <c r="B56" s="56"/>
-      <c r="C56" s="151"/>
-      <c r="D56" s="151"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="136"/>
       <c r="E56" s="57">
         <v>0.08</v>
       </c>
@@ -3435,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="Q56" s="7"/>
-      <c r="R56" s="136"/>
-      <c r="S56" s="131"/>
-      <c r="T56" s="131"/>
-      <c r="U56" s="131"/>
-      <c r="V56" s="131"/>
-      <c r="W56" s="131"/>
-      <c r="X56" s="131"/>
+      <c r="R56" s="164"/>
+      <c r="S56" s="156"/>
+      <c r="T56" s="156"/>
+      <c r="U56" s="156"/>
+      <c r="V56" s="156"/>
+      <c r="W56" s="156"/>
+      <c r="X56" s="156"/>
       <c r="Z56" s="67"/>
     </row>
     <row r="57" spans="1:26" ht="16.2" thickBot="1">
@@ -3452,10 +3456,10 @@
         <f>N58</f>
         <v>0.1</v>
       </c>
-      <c r="C57" s="151" t="s">
+      <c r="C57" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="151"/>
+      <c r="D57" s="136"/>
       <c r="E57" s="57">
         <v>0.1</v>
       </c>
@@ -3487,13 +3491,13 @@
         <v>0</v>
       </c>
       <c r="Q57" s="7"/>
-      <c r="R57" s="136"/>
-      <c r="S57" s="131"/>
-      <c r="T57" s="131"/>
-      <c r="U57" s="131"/>
-      <c r="V57" s="131"/>
-      <c r="W57" s="131"/>
-      <c r="X57" s="131"/>
+      <c r="R57" s="164"/>
+      <c r="S57" s="156"/>
+      <c r="T57" s="156"/>
+      <c r="U57" s="156"/>
+      <c r="V57" s="156"/>
+      <c r="W57" s="156"/>
+      <c r="X57" s="156"/>
       <c r="Z57" s="67"/>
     </row>
     <row r="58" spans="1:26" ht="16.2" thickBot="1">
@@ -3503,8 +3507,8 @@
       <c r="B58" s="57">
         <v>0.35</v>
       </c>
-      <c r="C58" s="152"/>
-      <c r="D58" s="152"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="149"/>
       <c r="E58" s="57">
         <v>0.35</v>
       </c>
@@ -3545,20 +3549,20 @@
         <v>95</v>
       </c>
       <c r="B59" s="60"/>
-      <c r="C59" s="153"/>
-      <c r="D59" s="153"/>
+      <c r="C59" s="155"/>
+      <c r="D59" s="155"/>
       <c r="E59" s="61">
         <v>0.35</v>
       </c>
       <c r="F59" s="62"/>
       <c r="G59" s="7"/>
-      <c r="R59" s="131"/>
-      <c r="S59" s="131"/>
-      <c r="T59" s="131"/>
-      <c r="U59" s="131"/>
-      <c r="V59" s="131"/>
-      <c r="W59" s="131"/>
-      <c r="X59" s="131"/>
+      <c r="R59" s="156"/>
+      <c r="S59" s="156"/>
+      <c r="T59" s="156"/>
+      <c r="U59" s="156"/>
+      <c r="V59" s="156"/>
+      <c r="W59" s="156"/>
+      <c r="X59" s="156"/>
       <c r="Z59" s="67"/>
     </row>
     <row r="60" spans="1:26">
@@ -3569,33 +3573,33 @@
         <f>SUM(B53:B59)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="C60" s="154"/>
-      <c r="D60" s="154"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="135"/>
       <c r="E60" s="65"/>
       <c r="F60" s="66">
         <f>SUM(F53:F59)</f>
         <v>0</v>
       </c>
       <c r="G60" s="7"/>
-      <c r="R60" s="131"/>
-      <c r="S60" s="131"/>
-      <c r="T60" s="131"/>
-      <c r="U60" s="131"/>
-      <c r="V60" s="131"/>
-      <c r="W60" s="131"/>
-      <c r="X60" s="131"/>
+      <c r="R60" s="156"/>
+      <c r="S60" s="156"/>
+      <c r="T60" s="156"/>
+      <c r="U60" s="156"/>
+      <c r="V60" s="156"/>
+      <c r="W60" s="156"/>
+      <c r="X60" s="156"/>
       <c r="Z60" s="67"/>
     </row>
     <row r="61" spans="1:26" s="67" customFormat="1" ht="16.2" thickBot="1"/>
     <row r="62" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A62" s="155" t="s">
+      <c r="A62" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="156"/>
-      <c r="C62" s="156"/>
-      <c r="D62" s="156"/>
-      <c r="E62" s="156"/>
-      <c r="F62" s="156"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="142"/>
+      <c r="E62" s="142"/>
+      <c r="F62" s="142"/>
       <c r="G62" s="91"/>
       <c r="H62" s="8" t="s">
         <v>61</v>
@@ -3631,10 +3635,10 @@
       <c r="B63" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="148" t="s">
+      <c r="C63" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="148"/>
+      <c r="D63" s="140"/>
       <c r="E63" s="50" t="s">
         <v>16</v>
       </c>
@@ -3648,7 +3652,7 @@
       <c r="I63" s="53">
         <v>0.03</v>
       </c>
-      <c r="J63" s="77"/>
+      <c r="J63" s="165"/>
       <c r="K63" s="54">
         <f t="shared" ref="K63:K69" si="7">J63*0.03</f>
         <v>0</v>
@@ -3666,7 +3670,7 @@
       <c r="Q63" s="7"/>
       <c r="Z63" s="67"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" ht="16.2" thickBot="1">
       <c r="A64" s="52" t="s">
         <v>117</v>
       </c>
@@ -3674,10 +3678,10 @@
         <f>N73</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="C64" s="158" t="s">
+      <c r="C64" s="148" t="s">
         <v>118</v>
       </c>
-      <c r="D64" s="158"/>
+      <c r="D64" s="148"/>
       <c r="E64" s="53">
         <v>0.3</v>
       </c>
@@ -3692,7 +3696,7 @@
       <c r="I64" s="57">
         <v>0.03</v>
       </c>
-      <c r="J64" s="79"/>
+      <c r="J64" s="165"/>
       <c r="K64" s="58">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3703,7 +3707,6 @@
       <c r="N64" s="1">
         <v>0.03</v>
       </c>
-      <c r="O64" s="7"/>
       <c r="P64" s="76">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3711,7 +3714,7 @@
       <c r="Q64" s="7"/>
       <c r="Z64" s="67"/>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" ht="16.2" thickBot="1">
       <c r="A65" s="55" t="s">
         <v>61</v>
       </c>
@@ -3719,10 +3722,10 @@
         <f>I70</f>
         <v>0.15</v>
       </c>
-      <c r="C65" s="151" t="s">
+      <c r="C65" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="D65" s="151"/>
+      <c r="D65" s="136"/>
       <c r="E65" s="57">
         <v>0.15</v>
       </c>
@@ -3737,7 +3740,7 @@
       <c r="I65" s="57">
         <v>0.03</v>
       </c>
-      <c r="J65" s="79"/>
+      <c r="J65" s="165"/>
       <c r="K65" s="58">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3748,7 +3751,6 @@
       <c r="N65" s="1">
         <v>0.03</v>
       </c>
-      <c r="O65" s="7"/>
       <c r="P65" s="76">
         <f>O65*0.03</f>
         <v>0</v>
@@ -3756,15 +3758,15 @@
       <c r="Q65" s="7"/>
       <c r="Z65" s="67"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" ht="16.2" thickBot="1">
       <c r="A66" s="55" t="s">
         <v>113</v>
       </c>
       <c r="B66" s="79">
         <v>0.25</v>
       </c>
-      <c r="C66" s="152"/>
-      <c r="D66" s="152"/>
+      <c r="C66" s="166"/>
+      <c r="D66" s="166"/>
       <c r="E66" s="57">
         <v>0.25</v>
       </c>
@@ -3779,7 +3781,7 @@
       <c r="I66" s="57">
         <v>0.03</v>
       </c>
-      <c r="J66" s="79"/>
+      <c r="J66" s="165"/>
       <c r="K66" s="58">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3790,7 +3792,6 @@
       <c r="N66" s="1">
         <v>0.03</v>
       </c>
-      <c r="O66" s="7"/>
       <c r="P66" s="76">
         <f>O66*0.03</f>
         <v>0</v>
@@ -3803,8 +3804,8 @@
         <v>95</v>
       </c>
       <c r="B67" s="117"/>
-      <c r="C67" s="146"/>
-      <c r="D67" s="146"/>
+      <c r="C67" s="150"/>
+      <c r="D67" s="150"/>
       <c r="E67" s="118">
         <v>0.3</v>
       </c>
@@ -3816,7 +3817,7 @@
       <c r="I67" s="57">
         <v>0.03</v>
       </c>
-      <c r="J67" s="79"/>
+      <c r="J67" s="165"/>
       <c r="K67" s="58">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3827,7 +3828,6 @@
       <c r="N67" s="1">
         <v>0.03</v>
       </c>
-      <c r="O67" s="7"/>
       <c r="P67" s="76">
         <f t="shared" ref="P67:P72" si="9">O67*0.03</f>
         <v>0</v>
@@ -3843,8 +3843,8 @@
         <f>SUM(B64:B67)</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="C68" s="147"/>
-      <c r="D68" s="147"/>
+      <c r="C68" s="151"/>
+      <c r="D68" s="151"/>
       <c r="E68" s="122"/>
       <c r="F68" s="123">
         <f>SUM(F64:F67)</f>
@@ -3857,7 +3857,7 @@
       <c r="I68" s="57">
         <v>0.03</v>
       </c>
-      <c r="J68" s="79"/>
+      <c r="J68" s="165"/>
       <c r="K68" s="58">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3868,7 +3868,6 @@
       <c r="N68" s="1">
         <v>0.03</v>
       </c>
-      <c r="O68" s="7"/>
       <c r="P68" s="76">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3883,7 +3882,7 @@
       <c r="I69" s="57">
         <v>0.03</v>
       </c>
-      <c r="J69" s="92"/>
+      <c r="J69" s="165"/>
       <c r="K69" s="62">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3894,7 +3893,6 @@
       <c r="N69" s="1">
         <v>0.03</v>
       </c>
-      <c r="O69" s="7"/>
       <c r="P69" s="76">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3921,7 +3919,6 @@
       <c r="N70" s="1">
         <v>0.03</v>
       </c>
-      <c r="O70" s="7"/>
       <c r="P70" s="76">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3936,7 +3933,6 @@
       <c r="N71" s="1">
         <v>0.03</v>
       </c>
-      <c r="O71" s="7"/>
       <c r="P71" s="76">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3951,7 +3947,6 @@
       <c r="N72" s="1">
         <v>0.03</v>
       </c>
-      <c r="O72" s="82"/>
       <c r="P72" s="66">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3978,12 +3973,43 @@
     <row r="74" spans="1:26" s="67" customFormat="1"/>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="S15:X16"/>
-    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="R59:X60"/>
+    <mergeCell ref="R52:X53"/>
+    <mergeCell ref="R54:X55"/>
+    <mergeCell ref="R56:X57"/>
+    <mergeCell ref="S23:X24"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
     <mergeCell ref="S13:X14"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:C3"/>
@@ -4000,43 +4026,12 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="R59:X60"/>
-    <mergeCell ref="R52:X53"/>
-    <mergeCell ref="R54:X55"/>
-    <mergeCell ref="R56:X57"/>
-    <mergeCell ref="S23:X24"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="S15:X16"/>
+    <mergeCell ref="Y17:Y18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GPAcalculator/SEMESTER 1 MARKINGS.xlsx
+++ b/GPAcalculator/SEMESTER 1 MARKINGS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Project\GPAcalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8FE403-38CF-4ACC-8D6F-2BF77490F0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3C5237-331E-4E20-8DAE-4496BF508A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DFF6C743-F59C-B24B-B33E-8C4CB8C302DE}"/>
+    <workbookView xWindow="-28920" yWindow="675" windowWidth="29040" windowHeight="15720" xr2:uid="{DFF6C743-F59C-B24B-B33E-8C4CB8C302DE}"/>
   </bookViews>
   <sheets>
     <sheet name="TOTAL" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="128">
   <si>
     <t>SEMESTER 1 - GRADE TOTAL</t>
   </si>
@@ -93,12 +93,6 @@
   </si>
   <si>
     <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>MARK(INDV40%)</t>
-  </si>
-  <si>
-    <t>MARK(GR60%)</t>
   </si>
   <si>
     <t>TOTAL GRADE</t>
@@ -503,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -936,19 +930,6 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top/>
@@ -1165,7 +1146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1194,10 +1175,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1280,7 +1258,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1302,12 +1279,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1328,31 +1301,38 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1370,13 +1350,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1388,37 +1368,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1427,16 +1407,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1450,10 +1430,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1792,16 +1768,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B6EF2D-BB0E-BD49-8BD6-7B85E3395827}">
   <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23:V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="15.09765625" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="3" max="3" width="20.296875" customWidth="1"/>
+    <col min="4" max="4" width="22.59765625" customWidth="1"/>
     <col min="5" max="5" width="14.3984375" customWidth="1"/>
     <col min="6" max="6" width="24.8984375" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
@@ -1814,736 +1790,696 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="Z1" s="67"/>
+      <c r="A1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="Z1" s="64"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="Z2" s="67"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="Z2" s="64"/>
     </row>
     <row r="3" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="Z3" s="67"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="Z3" s="64"/>
     </row>
     <row r="4" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="67"/>
+      <c r="Y4" s="64"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="72">
+      <c r="B5" s="69">
         <f>$B$21</f>
         <v>0.65</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="69">
         <f>$F$21</f>
         <v>0</v>
       </c>
-      <c r="D5" s="129">
+      <c r="D5" s="121">
         <f>C5/B5</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="67"/>
+      <c r="Y5" s="64"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="72">
+      <c r="B6" s="69">
         <f>$B$47</f>
         <v>0.57150000000000001</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="69">
         <f>$F$47</f>
         <v>0.43510000000000004</v>
       </c>
-      <c r="D6" s="129">
+      <c r="D6" s="121">
         <f>C6/B6</f>
         <v>0.76132983377077867</v>
       </c>
-      <c r="Y6" s="67"/>
+      <c r="Y6" s="64"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="69">
         <f>$B$32</f>
         <v>1</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="69">
         <f>$F$32</f>
         <v>0</v>
       </c>
-      <c r="D7" s="129">
+      <c r="D7" s="121">
         <f>C7/B7</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="67"/>
+      <c r="Y7" s="64"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="69">
         <f>$B$60</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="69">
         <f>$F$60</f>
         <v>0</v>
       </c>
-      <c r="D8" s="129">
+      <c r="D8" s="121">
         <f>C8/B8</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="67"/>
+      <c r="Y8" s="64"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="72">
+      <c r="B9" s="69">
         <f>$B$68</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="69">
         <f>$F$68</f>
         <v>0</v>
       </c>
-      <c r="D9" s="129">
+      <c r="D9" s="121">
         <f>C9/B9</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="67"/>
+      <c r="Y9" s="64"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="130">
+      <c r="D10" s="122">
         <f>SUM(D5:D9)/5</f>
         <v>0.15226596675415574</v>
       </c>
-      <c r="Y10" s="67"/>
+      <c r="Y10" s="64"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="73"/>
+      <c r="A11" s="70"/>
       <c r="C11" s="16"/>
-      <c r="Z11" s="67"/>
-    </row>
-    <row r="12" spans="1:26" s="67" customFormat="1"/>
+      <c r="Z11" s="64"/>
+    </row>
+    <row r="12" spans="1:26" s="64" customFormat="1" ht="16.2" thickBot="1"/>
     <row r="13" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="142"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="143"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="138"/>
       <c r="H13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="50" t="s">
+      <c r="I13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="51" t="s">
+      <c r="J13" s="48" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="50" t="s">
+      <c r="N13" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="50" t="s">
+      <c r="O13" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="50" t="s">
+      <c r="P13" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="50" t="s">
+      <c r="R13" s="128"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="X13" s="64"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A14" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="51" t="s">
+      <c r="B14" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="135"/>
+      <c r="E14" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="T13" s="133"/>
-      <c r="U13" s="133"/>
-      <c r="V13" s="133"/>
-      <c r="W13" s="133"/>
-      <c r="X13" s="133"/>
-      <c r="Z13" s="67"/>
-    </row>
-    <row r="14" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A14" s="49" t="s">
+      <c r="F14" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="140" t="s">
+      <c r="H14" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="140"/>
-      <c r="E14" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="48" t="s">
+      <c r="I14" s="72"/>
+      <c r="J14" s="73">
+        <f>I14*0.15</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="75"/>
-      <c r="J14" s="76">
-        <f>I14*0.15</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="25">
+      <c r="N14" s="24">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="125">
-        <f t="shared" ref="Q14:Q23" si="0">((O14*0.4)+(P14*0.6))</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="78">
-        <f t="shared" ref="R14:R23" si="1">((O14*0.4)+(P14*0.6))*(0.15/8)</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="133"/>
-      <c r="T14" s="133"/>
-      <c r="U14" s="133"/>
-      <c r="V14" s="133"/>
-      <c r="W14" s="133"/>
-      <c r="X14" s="133"/>
-      <c r="Z14" s="67"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="75">
+        <f>(O14)*(0.15/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="128"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="128"/>
+      <c r="U14" s="128"/>
+      <c r="V14" s="128"/>
+      <c r="X14" s="64"/>
     </row>
     <row r="15" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <f>N24</f>
         <v>0.15</v>
       </c>
-      <c r="C15" s="144" t="s">
+      <c r="C15" s="139" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="140"/>
+      <c r="E15" s="50">
+        <v>0.15</v>
+      </c>
+      <c r="F15" s="51">
+        <f>P24</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="73">
+        <f>I15*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="145"/>
-      <c r="E15" s="53">
+      <c r="N15" s="24">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O15" s="117"/>
+      <c r="P15" s="75">
+        <f t="shared" ref="P15:P24" si="0">(O15)*(0.15/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="128"/>
+      <c r="S15" s="128"/>
+      <c r="T15" s="128"/>
+      <c r="U15" s="128"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="126" t="s">
+        <v>30</v>
+      </c>
+      <c r="X15" s="64"/>
+    </row>
+    <row r="16" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A16" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="77">
         <v>0.15</v>
       </c>
-      <c r="F15" s="54"/>
-      <c r="H15" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="76">
-        <f>I15*0.2</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="55" t="s">
+      <c r="C16" s="141"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="F16" s="55">
+        <f>J14</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="73">
+        <f>I16*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="24">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O16" s="117"/>
+      <c r="P16" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="128"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="128"/>
+      <c r="U16" s="128"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="126"/>
+      <c r="X16" s="64"/>
+    </row>
+    <row r="17" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A17" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="77">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="141"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="55">
+        <f t="shared" ref="F17:F18" si="1">J15</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="42"/>
+      <c r="J17" s="80">
+        <f>SUM(J14:J16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="24">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O17" s="117"/>
+      <c r="P17" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="25">
+      <c r="X17" s="64"/>
+    </row>
+    <row r="18" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A18" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="77"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="54">
+        <v>0.35</v>
+      </c>
+      <c r="F18" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="24">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="O15" s="24"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="125">
+      <c r="O18" s="117"/>
+      <c r="P18" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R15" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="T15" s="133"/>
-      <c r="U15" s="133"/>
-      <c r="V15" s="133"/>
-      <c r="W15" s="133"/>
-      <c r="X15" s="133"/>
-      <c r="Y15" s="131" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z15" s="67"/>
-    </row>
-    <row r="16" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A16" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="81">
-        <v>0.15</v>
-      </c>
-      <c r="C16" s="146"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="57">
-        <v>0.15</v>
-      </c>
-      <c r="F16" s="58"/>
-      <c r="H16" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="76">
-        <f>I16*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="55" t="s">
+      <c r="Q18" s="127"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="128"/>
+      <c r="U18" s="128"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="126"/>
+      <c r="X18" s="64"/>
+    </row>
+    <row r="19" spans="1:26" ht="26.1" customHeight="1" thickBot="1">
+      <c r="A19" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="82">
+        <v>0.05</v>
+      </c>
+      <c r="C19" s="141"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="83">
+        <v>0.05</v>
+      </c>
+      <c r="F19" s="84">
+        <f>C19*0.05</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="148" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="24">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O19" s="117"/>
+      <c r="P19" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="133" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="134"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="134"/>
+      <c r="V19" s="134"/>
+      <c r="W19" s="126"/>
+      <c r="X19" s="64"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A20" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="141"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="84">
+        <f>C20*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="151" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="24">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O20" s="117"/>
+      <c r="P20" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="133"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
+      <c r="W20" s="126"/>
+      <c r="X20" s="64"/>
+    </row>
+    <row r="21" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A21" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="25">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="O16" s="24"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="132"/>
-      <c r="T16" s="133"/>
-      <c r="U16" s="133"/>
-      <c r="V16" s="133"/>
-      <c r="W16" s="133"/>
-      <c r="X16" s="133"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="67"/>
-    </row>
-    <row r="17" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A17" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="81">
-        <v>0.2</v>
-      </c>
-      <c r="C17" s="146"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="57">
-        <v>0.2</v>
-      </c>
-      <c r="F17" s="58"/>
-      <c r="H17" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="84">
-        <f>SUM(J14:J16)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" s="25">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="O17" s="24"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="132" t="s">
-        <v>39</v>
-      </c>
-      <c r="T17" s="133"/>
-      <c r="U17" s="133"/>
-      <c r="V17" s="133"/>
-      <c r="W17" s="133"/>
-      <c r="X17" s="133"/>
-      <c r="Y17" s="131" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z17" s="67"/>
-    </row>
-    <row r="18" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A18" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="57">
-        <v>0.35</v>
-      </c>
-      <c r="F18" s="58"/>
-      <c r="M18" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="25">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="O18" s="24"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="132"/>
-      <c r="T18" s="133"/>
-      <c r="U18" s="133"/>
-      <c r="V18" s="133"/>
-      <c r="W18" s="133"/>
-      <c r="X18" s="133"/>
-      <c r="Y18" s="131"/>
-      <c r="Z18" s="67"/>
-    </row>
-    <row r="19" spans="1:26" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A19" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="86">
-        <v>0.05</v>
-      </c>
-      <c r="C19" s="146"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="87">
-        <v>0.05</v>
-      </c>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="154" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="25">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="O19" s="24"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="138" t="s">
-        <v>45</v>
-      </c>
-      <c r="T19" s="139"/>
-      <c r="U19" s="139"/>
-      <c r="V19" s="139"/>
-      <c r="W19" s="139"/>
-      <c r="X19" s="139"/>
-      <c r="Y19" s="131"/>
-      <c r="Z19" s="67"/>
-    </row>
-    <row r="20" spans="1:26" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A20" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="90">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="146"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="62"/>
-      <c r="H20" s="156" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" s="25">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="O20" s="24"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="138"/>
-      <c r="T20" s="139"/>
-      <c r="U20" s="139"/>
-      <c r="V20" s="139"/>
-      <c r="W20" s="139"/>
-      <c r="X20" s="139"/>
-      <c r="Y20" s="131"/>
-      <c r="Z20" s="67"/>
-    </row>
-    <row r="21" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A21" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="82">
+      <c r="B21" s="78">
         <f>SUM(B15:B20)</f>
         <v>0.65</v>
       </c>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="64">
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="61">
         <f>SUM(E15:E20)</f>
         <v>1</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="63">
         <f>SUM(F15:F20)</f>
         <v>0</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="154" t="s">
+      <c r="H21" s="148" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="24">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O21" s="117"/>
+      <c r="P21" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="55" t="s">
+      <c r="R21" s="134"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="134"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="134"/>
+      <c r="W21" s="126" t="s">
+        <v>30</v>
+      </c>
+      <c r="X21" s="64"/>
+    </row>
+    <row r="22" spans="1:26" ht="16.2" thickBot="1">
+      <c r="M22" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N22" s="24">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="O21" s="24"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="125">
+      <c r="O22" s="117"/>
+      <c r="P22" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R21" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="138" t="s">
+      <c r="Q22" s="133"/>
+      <c r="R22" s="134"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="134"/>
+      <c r="U22" s="134"/>
+      <c r="V22" s="134"/>
+      <c r="W22" s="126"/>
+      <c r="X22" s="64"/>
+    </row>
+    <row r="23" spans="1:26" ht="16.2" thickBot="1">
+      <c r="E23" s="87"/>
+      <c r="M23" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="T21" s="139"/>
-      <c r="U21" s="139"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="139"/>
-      <c r="X21" s="139"/>
-      <c r="Y21" s="131" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z21" s="67"/>
-    </row>
-    <row r="22" spans="1:26" ht="16.2" thickBot="1">
-      <c r="M22" s="55" t="s">
+      <c r="N23" s="24">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O23" s="117"/>
+      <c r="P23" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="N22" s="25">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="O22" s="24"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="138"/>
-      <c r="T22" s="139"/>
-      <c r="U22" s="139"/>
-      <c r="V22" s="139"/>
-      <c r="W22" s="139"/>
-      <c r="X22" s="139"/>
-      <c r="Y22" s="131"/>
-      <c r="Z22" s="67"/>
-    </row>
-    <row r="23" spans="1:26" ht="16.2" thickBot="1">
-      <c r="E23" s="91"/>
-      <c r="M23" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="N23" s="25">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="O23" s="27"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="138" t="s">
-        <v>54</v>
-      </c>
-      <c r="T23" s="139"/>
-      <c r="U23" s="139"/>
-      <c r="V23" s="139"/>
-      <c r="W23" s="139"/>
-      <c r="X23" s="139"/>
-      <c r="Y23" s="131" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z23" s="67"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="134"/>
+      <c r="V23" s="134"/>
+      <c r="W23" s="126" t="s">
+        <v>30</v>
+      </c>
+      <c r="X23" s="64"/>
     </row>
     <row r="24" spans="1:26" ht="16.2" thickBot="1">
       <c r="E24" s="12"/>
-      <c r="M24" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="N24" s="95">
+      <c r="M24" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="89">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(N14:N23),-8))</f>
         <v>0.15</v>
       </c>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="97">
-        <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(R14:R23),-8))</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="138"/>
-      <c r="T24" s="139"/>
-      <c r="U24" s="139"/>
-      <c r="V24" s="139"/>
-      <c r="W24" s="139"/>
-      <c r="X24" s="139"/>
-      <c r="Y24" s="131"/>
-      <c r="Z24" s="67"/>
-    </row>
-    <row r="25" spans="1:26" s="67" customFormat="1" ht="16.2" thickBot="1">
-      <c r="F25" s="98"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="43">
+        <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(P14:P23),-8))</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="133"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="134"/>
+      <c r="W24" s="126"/>
+      <c r="X24" s="64"/>
+    </row>
+    <row r="25" spans="1:26" s="64" customFormat="1" ht="16.2" thickBot="1">
+      <c r="F25" s="90"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="141" t="s">
+      <c r="A26" s="136" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="142"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="38" t="s">
+      <c r="J26" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" s="40" t="s">
+      <c r="N26" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="99" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="N26" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="O26" s="40" t="s">
-        <v>15</v>
-      </c>
       <c r="P26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q26" s="30"/>
-      <c r="Z26" s="67"/>
+        <v>23</v>
+      </c>
+      <c r="Q26" s="27"/>
+      <c r="Z26" s="64"/>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="100"/>
-      <c r="H27" s="74" t="s">
-        <v>59</v>
+      <c r="G27" s="92"/>
+      <c r="H27" s="71" t="s">
+        <v>57</v>
       </c>
       <c r="I27" s="12">
         <v>0.05</v>
       </c>
       <c r="J27" s="12"/>
-      <c r="K27" s="101">
+      <c r="K27" s="93">
         <f t="shared" ref="K27:K36" si="2">0.05*J27</f>
         <v>0</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N27" s="17">
         <v>3.7499999999999999E-2</v>
@@ -2553,42 +2489,42 @@
         <f t="shared" ref="P27:P36" si="3">(0.3/8)*O27</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="127"/>
-      <c r="Z27" s="67"/>
+      <c r="Q27" s="119"/>
+      <c r="Z27" s="64"/>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="31">
+        <v>59</v>
+      </c>
+      <c r="B28" s="28">
         <f>N37</f>
         <v>0.3</v>
       </c>
-      <c r="C28" s="159" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="159"/>
+      <c r="C28" s="154" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="154"/>
       <c r="E28" s="4">
         <v>0.3</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="39">
         <f>P37</f>
         <v>0</v>
       </c>
-      <c r="G28" s="100"/>
-      <c r="H28" s="74" t="s">
-        <v>62</v>
+      <c r="G28" s="92"/>
+      <c r="H28" s="71" t="s">
+        <v>60</v>
       </c>
       <c r="I28" s="12">
         <v>0.05</v>
       </c>
       <c r="J28" s="12"/>
-      <c r="K28" s="101">
+      <c r="K28" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N28" s="17">
         <v>3.7499999999999999E-2</v>
@@ -2598,42 +2534,42 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="127"/>
-      <c r="Z28" s="67"/>
+      <c r="Q28" s="119"/>
+      <c r="Z28" s="64"/>
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" s="17">
         <f>I37</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="C29" s="152" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="152"/>
+      <c r="C29" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="146"/>
       <c r="E29" s="5">
         <v>0.4</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="40">
         <f>K37</f>
         <v>0</v>
       </c>
-      <c r="G29" s="100"/>
-      <c r="H29" s="74" t="s">
-        <v>65</v>
+      <c r="G29" s="92"/>
+      <c r="H29" s="71" t="s">
+        <v>63</v>
       </c>
       <c r="I29" s="12">
         <v>0.05</v>
       </c>
       <c r="J29" s="12"/>
-      <c r="K29" s="101">
+      <c r="K29" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N29" s="17">
         <v>3.7499999999999999E-2</v>
@@ -2643,36 +2579,36 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="127"/>
-      <c r="Z29" s="67"/>
+      <c r="Q29" s="119"/>
+      <c r="Z29" s="64"/>
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B30" s="17">
         <v>0.05</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="5">
         <v>0.05</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="74" t="s">
-        <v>68</v>
+      <c r="F30" s="40"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="71" t="s">
+        <v>66</v>
       </c>
       <c r="I30" s="12">
         <v>0.05</v>
       </c>
       <c r="J30" s="12"/>
-      <c r="K30" s="101">
+      <c r="K30" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N30" s="17">
         <v>3.7499999999999999E-2</v>
@@ -2682,36 +2618,36 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="127"/>
-      <c r="Z30" s="67"/>
+      <c r="Q30" s="119"/>
+      <c r="Z30" s="64"/>
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B31" s="6">
         <v>0.25</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="6">
         <v>0.25</v>
       </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="74" t="s">
-        <v>71</v>
+      <c r="F31" s="41"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="71" t="s">
+        <v>69</v>
       </c>
       <c r="I31" s="12">
         <v>0.05</v>
       </c>
       <c r="J31" s="12"/>
-      <c r="K31" s="101">
+      <c r="K31" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N31" s="17">
         <v>3.7499999999999999E-2</v>
@@ -2721,37 +2657,37 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="127"/>
-      <c r="Z31" s="67"/>
+      <c r="Q31" s="119"/>
+      <c r="Z31" s="64"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="35">
+      <c r="A32" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="32">
         <f>SUM(B28:B31)</f>
         <v>1</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46">
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43">
         <f>SUM(F28:F31)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="74" t="s">
-        <v>73</v>
+      <c r="H32" s="71" t="s">
+        <v>71</v>
       </c>
       <c r="I32" s="12">
         <v>0.05</v>
       </c>
       <c r="J32" s="12"/>
-      <c r="K32" s="101">
+      <c r="K32" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N32" s="17">
         <v>3.7499999999999999E-2</v>
@@ -2761,23 +2697,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="127"/>
-      <c r="Z32" s="67"/>
+      <c r="Q32" s="119"/>
+      <c r="Z32" s="64"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="H33" s="74" t="s">
-        <v>75</v>
+      <c r="H33" s="71" t="s">
+        <v>73</v>
       </c>
       <c r="I33" s="12">
         <v>0.05</v>
       </c>
       <c r="J33" s="12"/>
-      <c r="K33" s="101">
+      <c r="K33" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N33" s="17">
         <v>3.7499999999999999E-2</v>
@@ -2787,23 +2723,23 @@
         <f>(0.3/8)*O33</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="127"/>
-      <c r="Z33" s="67"/>
+      <c r="Q33" s="119"/>
+      <c r="Z33" s="64"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="H34" s="74" t="s">
-        <v>77</v>
+      <c r="H34" s="71" t="s">
+        <v>75</v>
       </c>
       <c r="I34" s="12">
         <v>0.05</v>
       </c>
       <c r="J34" s="12"/>
-      <c r="K34" s="101">
+      <c r="K34" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N34" s="17">
         <v>3.7499999999999999E-2</v>
@@ -2813,23 +2749,23 @@
         <f>(0.3/8)*O34</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="127"/>
-      <c r="Z34" s="67"/>
+      <c r="Q34" s="119"/>
+      <c r="Z34" s="64"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="H35" s="74" t="s">
-        <v>79</v>
+      <c r="H35" s="71" t="s">
+        <v>77</v>
       </c>
       <c r="I35" s="12">
         <v>0.05</v>
       </c>
       <c r="J35" s="12"/>
-      <c r="K35" s="101">
+      <c r="K35" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N35" s="17">
         <v>3.7499999999999999E-2</v>
@@ -2839,123 +2775,123 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="127"/>
-      <c r="Z35" s="67"/>
+      <c r="Q35" s="119"/>
+      <c r="Z35" s="64"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="H36" s="63" t="s">
-        <v>81</v>
+      <c r="H36" s="60" t="s">
+        <v>79</v>
       </c>
       <c r="I36" s="12">
         <v>0.05</v>
       </c>
-      <c r="J36" s="33"/>
-      <c r="K36" s="101">
+      <c r="J36" s="30"/>
+      <c r="K36" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N36" s="23">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O36" s="65"/>
+      <c r="O36" s="62"/>
       <c r="P36" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="127"/>
-      <c r="Z36" s="67"/>
+      <c r="Q36" s="119"/>
+      <c r="Z36" s="64"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="H37" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="I37" s="46">
+      <c r="H37" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="43">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(I27:I36),-8))</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="J37" s="45"/>
-      <c r="K37" s="46">
+      <c r="J37" s="42"/>
+      <c r="K37" s="43">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(K27:K36),-8))</f>
         <v>0</v>
       </c>
-      <c r="M37" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="N37" s="46">
+      <c r="M37" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="43">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(N27:N36),-8))</f>
         <v>0.3</v>
       </c>
-      <c r="O37" s="45"/>
-      <c r="P37" s="46">
+      <c r="O37" s="42"/>
+      <c r="P37" s="43">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(P27:P36),-8))</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="102"/>
-      <c r="Z37" s="67"/>
-    </row>
-    <row r="38" spans="1:26" s="67" customFormat="1"/>
+      <c r="Q37" s="94"/>
+      <c r="Z37" s="64"/>
+    </row>
+    <row r="38" spans="1:26" s="64" customFormat="1"/>
     <row r="39" spans="1:26">
-      <c r="A39" s="141" t="s">
+      <c r="A39" s="136" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="137"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
+      <c r="Z39" s="64"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="132" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="132"/>
+      <c r="E40" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="142"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="142"/>
-      <c r="Z39" s="67"/>
-    </row>
-    <row r="40" spans="1:26">
-      <c r="A40" s="34" t="s">
+      <c r="I40" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="137" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="137"/>
-      <c r="E40" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="H40" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="I40" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z40" s="67"/>
+      <c r="K40" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z40" s="64"/>
     </row>
     <row r="41" spans="1:26">
       <c r="A41" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="31">
+        <v>84</v>
+      </c>
+      <c r="B41" s="28">
         <v>0.1</v>
       </c>
-      <c r="C41" s="153"/>
-      <c r="D41" s="153"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
       <c r="E41" s="4">
         <v>0.1</v>
       </c>
       <c r="F41" s="18">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H41" s="106" t="s">
-        <v>87</v>
-      </c>
-      <c r="I41" s="107">
+      <c r="H41" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="99">
         <v>2.01E-2</v>
       </c>
       <c r="J41" s="21">
@@ -2965,27 +2901,27 @@
         <f t="shared" ref="K41:K46" si="4">I41*J41</f>
         <v>2.01E-2</v>
       </c>
-      <c r="Z41" s="67"/>
+      <c r="Z41" s="64"/>
     </row>
     <row r="42" spans="1:26" ht="31.2">
       <c r="A42" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="32">
+        <v>86</v>
+      </c>
+      <c r="B42" s="29">
         <v>0.15</v>
       </c>
-      <c r="C42" s="154"/>
-      <c r="D42" s="154"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
       <c r="E42" s="5">
         <v>0.15</v>
       </c>
       <c r="F42" s="11">
         <v>0.115</v>
       </c>
-      <c r="H42" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="I42" s="109">
+      <c r="H42" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="I42" s="101">
         <v>0.02</v>
       </c>
       <c r="J42" s="20">
@@ -2995,17 +2931,17 @@
         <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="Z42" s="67"/>
+      <c r="Z42" s="64"/>
     </row>
     <row r="43" spans="1:26">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B43" s="17">
         <v>0.15</v>
       </c>
-      <c r="C43" s="154"/>
-      <c r="D43" s="154"/>
+      <c r="C43" s="148"/>
+      <c r="D43" s="148"/>
       <c r="E43" s="5">
         <v>0.15</v>
       </c>
@@ -3013,10 +2949,10 @@
         <f>B43*(9/15)</f>
         <v>0.09</v>
       </c>
-      <c r="H43" s="108" t="s">
-        <v>91</v>
-      </c>
-      <c r="I43" s="109">
+      <c r="H43" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="I43" s="101">
         <v>0.03</v>
       </c>
       <c r="J43" s="20">
@@ -3026,23 +2962,23 @@
         <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
-      <c r="Z43" s="67"/>
+      <c r="Z43" s="64"/>
     </row>
     <row r="44" spans="1:26">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44" s="17"/>
-      <c r="C44" s="154"/>
-      <c r="D44" s="154"/>
+      <c r="C44" s="148"/>
+      <c r="D44" s="148"/>
       <c r="E44" s="5">
         <v>0.15</v>
       </c>
       <c r="F44" s="11"/>
-      <c r="H44" s="108" t="s">
-        <v>93</v>
-      </c>
-      <c r="I44" s="109">
+      <c r="H44" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" s="101">
         <v>0.03</v>
       </c>
       <c r="J44" s="20">
@@ -3052,18 +2988,18 @@
         <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
-      <c r="Z44" s="67"/>
+      <c r="Z44" s="64"/>
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B45" s="17">
         <f>I49</f>
         <v>0.17149999999999999</v>
       </c>
-      <c r="C45" s="154"/>
-      <c r="D45" s="154"/>
+      <c r="C45" s="148"/>
+      <c r="D45" s="148"/>
       <c r="E45" s="5">
         <v>0.2</v>
       </c>
@@ -3071,10 +3007,10 @@
         <f>K49</f>
         <v>0.1651</v>
       </c>
-      <c r="H45" s="108" t="s">
-        <v>94</v>
-      </c>
-      <c r="I45" s="109">
+      <c r="H45" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="I45" s="101">
         <v>0.03</v>
       </c>
       <c r="J45" s="20">
@@ -3085,23 +3021,23 @@
         <f t="shared" si="4"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Z45" s="67"/>
+      <c r="Z45" s="64"/>
     </row>
     <row r="46" spans="1:26">
       <c r="A46" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B46" s="23"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="135"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
       <c r="E46" s="6">
         <v>0.25</v>
       </c>
       <c r="F46" s="19"/>
-      <c r="H46" s="108" t="s">
-        <v>96</v>
-      </c>
-      <c r="I46" s="109">
+      <c r="H46" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="101">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="J46" s="20">
@@ -3112,27 +3048,27 @@
         <f t="shared" si="4"/>
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="Z46" s="67"/>
+      <c r="Z46" s="64"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="35">
+      <c r="A47" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="32">
         <f>SUM(B41:B46)</f>
         <v>0.57150000000000001</v>
       </c>
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="36">
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="33">
         <f>SUM(F41:F46)</f>
         <v>0.43510000000000004</v>
       </c>
-      <c r="H47" s="108" t="s">
-        <v>97</v>
-      </c>
-      <c r="I47" s="109">
+      <c r="H47" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="I47" s="101">
         <v>2.0400000000000001E-2</v>
       </c>
       <c r="J47" s="20">
@@ -3142,22 +3078,22 @@
         <f>I47*J47</f>
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="Z47" s="67"/>
+      <c r="Z47" s="64"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="H48" s="110" t="s">
-        <v>98</v>
-      </c>
-      <c r="I48" s="111">
+      <c r="H48" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="I48" s="103">
         <v>0</v>
       </c>
       <c r="J48" s="22"/>
       <c r="K48" s="13"/>
-      <c r="Z48" s="67"/>
+      <c r="Z48" s="64"/>
     </row>
     <row r="49" spans="1:26">
       <c r="H49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I49" s="14">
         <f>SUM(I41:I48)</f>
@@ -3167,796 +3103,808 @@
         <f>SUM(K41:K48)</f>
         <v>0.1651</v>
       </c>
-      <c r="Z49" s="67"/>
-    </row>
-    <row r="50" spans="1:26" s="67" customFormat="1"/>
+      <c r="Z49" s="64"/>
+    </row>
+    <row r="50" spans="1:26" s="64" customFormat="1"/>
     <row r="51" spans="1:26" ht="23.4" thickBot="1">
-      <c r="A51" s="141" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="142"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="143"/>
-      <c r="G51" s="30"/>
+      <c r="A51" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="137"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="J51" s="50" t="s">
+      <c r="I51" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K51" s="51" t="s">
+      <c r="K51" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N51" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="O51" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="P51" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q51" s="87"/>
+      <c r="S51" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z51" s="64"/>
+    </row>
+    <row r="52" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A52" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="135"/>
+      <c r="E52" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="87"/>
+      <c r="H52" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="M51" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="N51" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="O51" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="P51" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q51" s="91"/>
-      <c r="S51" s="28" t="s">
+      <c r="I52" s="104">
+        <v>0.02</v>
+      </c>
+      <c r="J52" s="104"/>
+      <c r="K52" s="106">
+        <f>J52*I52</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="N52" s="104">
+        <v>0.02</v>
+      </c>
+      <c r="O52" s="105"/>
+      <c r="P52" s="106">
+        <f>O52*0.02</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="Z51" s="67"/>
-    </row>
-    <row r="52" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A52" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="140" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="140"/>
-      <c r="E52" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" s="91"/>
-      <c r="H52" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="I52" s="112">
-        <v>0.02</v>
-      </c>
-      <c r="J52" s="112"/>
-      <c r="K52" s="114">
-        <f>J52*I52</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="N52" s="112">
-        <v>0.02</v>
-      </c>
-      <c r="O52" s="113"/>
-      <c r="P52" s="114">
-        <f>O52*0.02</f>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="161" t="s">
-        <v>102</v>
-      </c>
-      <c r="S52" s="139"/>
-      <c r="T52" s="139"/>
-      <c r="U52" s="139"/>
-      <c r="V52" s="139"/>
-      <c r="W52" s="139"/>
-      <c r="X52" s="139"/>
-      <c r="Z52" s="67"/>
+      <c r="S52" s="134"/>
+      <c r="T52" s="134"/>
+      <c r="U52" s="134"/>
+      <c r="V52" s="134"/>
+      <c r="W52" s="134"/>
+      <c r="X52" s="134"/>
+      <c r="Z52" s="64"/>
     </row>
     <row r="53" spans="1:26" ht="23.1" customHeight="1">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="53">
+      <c r="B53" s="50">
         <f>I58</f>
         <v>0.1</v>
       </c>
-      <c r="C53" s="148" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="148"/>
-      <c r="E53" s="53">
+      <c r="C53" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="143"/>
+      <c r="E53" s="50">
         <v>0.1</v>
       </c>
-      <c r="F53" s="54">
+      <c r="F53" s="51">
         <f>K58</f>
         <v>0</v>
       </c>
       <c r="G53" s="7"/>
-      <c r="H53" s="74" t="s">
-        <v>30</v>
+      <c r="H53" s="71" t="s">
+        <v>28</v>
       </c>
       <c r="I53" s="1">
         <v>0.02</v>
       </c>
       <c r="J53" s="7"/>
-      <c r="K53" s="76">
+      <c r="K53" s="73">
         <f t="shared" ref="K53:K56" si="5">J53*I53</f>
         <v>0</v>
       </c>
-      <c r="M53" s="74" t="s">
-        <v>104</v>
+      <c r="M53" s="71" t="s">
+        <v>102</v>
       </c>
       <c r="N53" s="1">
         <v>0.02</v>
       </c>
       <c r="O53" s="7"/>
-      <c r="P53" s="76">
+      <c r="P53" s="73">
         <f>O53*0.02</f>
         <v>0</v>
       </c>
       <c r="Q53" s="7"/>
-      <c r="R53" s="161"/>
-      <c r="S53" s="139"/>
-      <c r="T53" s="139"/>
-      <c r="U53" s="139"/>
-      <c r="V53" s="139"/>
-      <c r="W53" s="139"/>
-      <c r="X53" s="139"/>
-      <c r="Z53" s="67"/>
+      <c r="R53" s="156"/>
+      <c r="S53" s="134"/>
+      <c r="T53" s="134"/>
+      <c r="U53" s="134"/>
+      <c r="V53" s="134"/>
+      <c r="W53" s="134"/>
+      <c r="X53" s="134"/>
+      <c r="Z53" s="64"/>
     </row>
     <row r="54" spans="1:26" ht="23.1" customHeight="1">
-      <c r="A54" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="136"/>
-      <c r="E54" s="57">
+      <c r="A54" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="53"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="54">
         <v>0.01</v>
       </c>
-      <c r="F54" s="58"/>
+      <c r="F54" s="55">
+        <f>C54*E54</f>
+        <v>0</v>
+      </c>
       <c r="G54" s="7"/>
-      <c r="H54" s="74" t="s">
-        <v>35</v>
+      <c r="H54" s="71" t="s">
+        <v>33</v>
       </c>
       <c r="I54" s="1">
         <v>0.02</v>
       </c>
       <c r="J54" s="7"/>
-      <c r="K54" s="76">
+      <c r="K54" s="73">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M54" s="74" t="s">
-        <v>106</v>
+      <c r="M54" s="71" t="s">
+        <v>104</v>
       </c>
       <c r="N54" s="1">
         <v>0.02</v>
       </c>
       <c r="O54" s="7"/>
-      <c r="P54" s="76">
+      <c r="P54" s="73">
         <f t="shared" ref="P54:P56" si="6">O54*0.02</f>
         <v>0</v>
       </c>
       <c r="Q54" s="7"/>
-      <c r="R54" s="162" t="s">
-        <v>107</v>
-      </c>
-      <c r="S54" s="163"/>
-      <c r="T54" s="163"/>
-      <c r="U54" s="163"/>
-      <c r="V54" s="163"/>
-      <c r="W54" s="163"/>
-      <c r="X54" s="163"/>
-      <c r="Z54" s="67"/>
+      <c r="R54" s="157" t="s">
+        <v>105</v>
+      </c>
+      <c r="S54" s="158"/>
+      <c r="T54" s="158"/>
+      <c r="U54" s="158"/>
+      <c r="V54" s="158"/>
+      <c r="W54" s="158"/>
+      <c r="X54" s="158"/>
+      <c r="Z54" s="64"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="56"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="57">
+      <c r="A55" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="53"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="54">
         <v>0.01</v>
       </c>
-      <c r="F55" s="58"/>
+      <c r="F55" s="55">
+        <f>C55*E55</f>
+        <v>0</v>
+      </c>
       <c r="G55" s="7"/>
-      <c r="H55" s="74" t="s">
-        <v>38</v>
+      <c r="H55" s="71" t="s">
+        <v>36</v>
       </c>
       <c r="I55" s="1">
         <v>0.02</v>
       </c>
       <c r="J55" s="7"/>
-      <c r="K55" s="76">
+      <c r="K55" s="73">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M55" s="74" t="s">
-        <v>109</v>
+      <c r="M55" s="71" t="s">
+        <v>107</v>
       </c>
       <c r="N55" s="1">
         <v>0.02</v>
       </c>
       <c r="O55" s="7"/>
-      <c r="P55" s="76">
+      <c r="P55" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q55" s="7"/>
-      <c r="R55" s="162"/>
-      <c r="S55" s="163"/>
-      <c r="T55" s="163"/>
-      <c r="U55" s="163"/>
-      <c r="V55" s="163"/>
-      <c r="W55" s="163"/>
-      <c r="X55" s="163"/>
-      <c r="Z55" s="67"/>
+      <c r="R55" s="157"/>
+      <c r="S55" s="158"/>
+      <c r="T55" s="158"/>
+      <c r="U55" s="158"/>
+      <c r="V55" s="158"/>
+      <c r="W55" s="158"/>
+      <c r="X55" s="158"/>
+      <c r="Z55" s="64"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="56"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="57">
+      <c r="A56" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="54">
         <v>0.08</v>
       </c>
-      <c r="F56" s="58"/>
+      <c r="F56" s="55">
+        <f>C56*0.06+D56*0.02</f>
+        <v>0</v>
+      </c>
       <c r="G56" s="7"/>
-      <c r="H56" s="74" t="s">
-        <v>41</v>
+      <c r="H56" s="71" t="s">
+        <v>39</v>
       </c>
       <c r="I56" s="1">
         <v>0.02</v>
       </c>
       <c r="J56" s="7"/>
-      <c r="K56" s="76">
+      <c r="K56" s="73">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M56" s="74" t="s">
-        <v>111</v>
+      <c r="M56" s="71" t="s">
+        <v>109</v>
       </c>
       <c r="N56" s="1">
         <v>0.02</v>
       </c>
       <c r="O56" s="7"/>
-      <c r="P56" s="76">
+      <c r="P56" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q56" s="7"/>
-      <c r="R56" s="164"/>
-      <c r="S56" s="156"/>
-      <c r="T56" s="156"/>
-      <c r="U56" s="156"/>
-      <c r="V56" s="156"/>
-      <c r="W56" s="156"/>
-      <c r="X56" s="156"/>
-      <c r="Z56" s="67"/>
+      <c r="R56" s="159"/>
+      <c r="S56" s="151"/>
+      <c r="T56" s="151"/>
+      <c r="U56" s="151"/>
+      <c r="V56" s="151"/>
+      <c r="W56" s="151"/>
+      <c r="X56" s="151"/>
+      <c r="Z56" s="64"/>
     </row>
     <row r="57" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A57" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="57">
+      <c r="A57" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="54">
         <f>N58</f>
         <v>0.1</v>
       </c>
-      <c r="C57" s="136" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="136"/>
-      <c r="E57" s="57">
+      <c r="C57" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="131"/>
+      <c r="E57" s="54">
         <v>0.1</v>
       </c>
-      <c r="F57" s="58">
+      <c r="F57" s="55">
         <f>P58</f>
         <v>0</v>
       </c>
       <c r="G57" s="7"/>
-      <c r="H57" s="63" t="s">
-        <v>44</v>
+      <c r="H57" s="60" t="s">
+        <v>42</v>
       </c>
       <c r="I57" s="1">
         <v>0.02</v>
       </c>
-      <c r="J57" s="82"/>
-      <c r="K57" s="66">
+      <c r="J57" s="78"/>
+      <c r="K57" s="63">
         <f>J57*0.02</f>
         <v>0</v>
       </c>
-      <c r="M57" s="74" t="s">
-        <v>112</v>
+      <c r="M57" s="71" t="s">
+        <v>110</v>
       </c>
       <c r="N57" s="1">
         <v>0.02</v>
       </c>
-      <c r="O57" s="82"/>
-      <c r="P57" s="66">
+      <c r="O57" s="78"/>
+      <c r="P57" s="63">
         <f>O57*0.02</f>
         <v>0</v>
       </c>
       <c r="Q57" s="7"/>
-      <c r="R57" s="164"/>
-      <c r="S57" s="156"/>
-      <c r="T57" s="156"/>
-      <c r="U57" s="156"/>
-      <c r="V57" s="156"/>
-      <c r="W57" s="156"/>
-      <c r="X57" s="156"/>
-      <c r="Z57" s="67"/>
+      <c r="R57" s="159"/>
+      <c r="S57" s="151"/>
+      <c r="T57" s="151"/>
+      <c r="U57" s="151"/>
+      <c r="V57" s="151"/>
+      <c r="W57" s="151"/>
+      <c r="X57" s="151"/>
+      <c r="Z57" s="64"/>
     </row>
     <row r="58" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A58" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="57">
+      <c r="A58" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="54">
         <v>0.35</v>
       </c>
       <c r="C58" s="149"/>
       <c r="D58" s="149"/>
-      <c r="E58" s="57">
+      <c r="E58" s="54">
         <v>0.35</v>
       </c>
-      <c r="F58" s="58">
+      <c r="F58" s="55">
         <f>C58*E58</f>
         <v>0</v>
       </c>
       <c r="G58" s="7"/>
-      <c r="H58" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="I58" s="84">
+      <c r="H58" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" s="80">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(I52:I57),-5))</f>
         <v>0.1</v>
       </c>
-      <c r="J58" s="115"/>
-      <c r="K58" s="84">
+      <c r="J58" s="107"/>
+      <c r="K58" s="80">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(K52:K57),-5))</f>
         <v>0</v>
       </c>
-      <c r="M58" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="N58" s="84">
+      <c r="M58" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="N58" s="80">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(N52:N57),-5))</f>
         <v>0.1</v>
       </c>
-      <c r="O58" s="115"/>
-      <c r="P58" s="84">
+      <c r="O58" s="107"/>
+      <c r="P58" s="80">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(P52:P57),-5))</f>
         <v>0</v>
       </c>
       <c r="Q58" s="7"/>
-      <c r="Z58" s="67"/>
+      <c r="Z58" s="64"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="B59" s="60"/>
-      <c r="C59" s="155"/>
-      <c r="D59" s="155"/>
-      <c r="E59" s="61">
+      <c r="A59" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="57"/>
+      <c r="C59" s="150"/>
+      <c r="D59" s="150"/>
+      <c r="E59" s="58">
         <v>0.35</v>
       </c>
-      <c r="F59" s="62"/>
+      <c r="F59" s="59">
+        <f>C59*E59</f>
+        <v>0</v>
+      </c>
       <c r="G59" s="7"/>
-      <c r="R59" s="156"/>
-      <c r="S59" s="156"/>
-      <c r="T59" s="156"/>
-      <c r="U59" s="156"/>
-      <c r="V59" s="156"/>
-      <c r="W59" s="156"/>
-      <c r="X59" s="156"/>
-      <c r="Z59" s="67"/>
+      <c r="R59" s="151"/>
+      <c r="S59" s="151"/>
+      <c r="T59" s="151"/>
+      <c r="U59" s="151"/>
+      <c r="V59" s="151"/>
+      <c r="W59" s="151"/>
+      <c r="X59" s="151"/>
+      <c r="Z59" s="64"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="64">
+      <c r="A60" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="61">
         <f>SUM(B53:B59)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="C60" s="135"/>
-      <c r="D60" s="135"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="66">
+      <c r="C60" s="130"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="63">
         <f>SUM(F53:F59)</f>
         <v>0</v>
       </c>
       <c r="G60" s="7"/>
-      <c r="R60" s="156"/>
-      <c r="S60" s="156"/>
-      <c r="T60" s="156"/>
-      <c r="U60" s="156"/>
-      <c r="V60" s="156"/>
-      <c r="W60" s="156"/>
-      <c r="X60" s="156"/>
-      <c r="Z60" s="67"/>
-    </row>
-    <row r="61" spans="1:26" s="67" customFormat="1" ht="16.2" thickBot="1"/>
+      <c r="R60" s="151"/>
+      <c r="S60" s="151"/>
+      <c r="T60" s="151"/>
+      <c r="U60" s="151"/>
+      <c r="V60" s="151"/>
+      <c r="W60" s="151"/>
+      <c r="X60" s="151"/>
+      <c r="Z60" s="64"/>
+    </row>
+    <row r="61" spans="1:26" s="64" customFormat="1" ht="16.2" thickBot="1"/>
     <row r="62" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A62" s="141" t="s">
+      <c r="A62" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="G62" s="87"/>
+      <c r="H62" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I62" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="N62" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="O62" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="P62" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q62" s="87"/>
+      <c r="Z62" s="64"/>
+    </row>
+    <row r="63" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A63" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="135"/>
+      <c r="E63" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="87"/>
+      <c r="H63" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I63" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="J63" s="123"/>
+      <c r="K63" s="51">
+        <f t="shared" ref="K63:K69" si="7">J63*0.03</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="142"/>
-      <c r="C62" s="142"/>
-      <c r="D62" s="142"/>
-      <c r="E62" s="142"/>
-      <c r="F62" s="142"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I62" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J62" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="K62" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="M62" s="34" t="s">
+      <c r="N63" s="104">
+        <v>0.03</v>
+      </c>
+      <c r="P63" s="73">
+        <f t="shared" ref="P63:P64" si="8">O63*0.03</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="7"/>
+      <c r="Z63" s="64"/>
+    </row>
+    <row r="64" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A64" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="N62" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="O62" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="P62" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q62" s="91"/>
-      <c r="Z62" s="67"/>
-    </row>
-    <row r="63" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A63" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="140" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="140"/>
-      <c r="E63" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" s="91"/>
-      <c r="H63" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I63" s="53">
-        <v>0.03</v>
-      </c>
-      <c r="J63" s="165"/>
-      <c r="K63" s="54">
-        <f t="shared" ref="K63:K69" si="7">J63*0.03</f>
-        <v>0</v>
-      </c>
-      <c r="M63" s="103" t="s">
-        <v>116</v>
-      </c>
-      <c r="N63" s="112">
-        <v>0.03</v>
-      </c>
-      <c r="P63" s="76">
-        <f t="shared" ref="P63:P64" si="8">O63*0.03</f>
-        <v>0</v>
-      </c>
-      <c r="Q63" s="7"/>
-      <c r="Z63" s="67"/>
-    </row>
-    <row r="64" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A64" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" s="77">
+      <c r="B64" s="74">
         <f>N73</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="C64" s="148" t="s">
-        <v>118</v>
-      </c>
-      <c r="D64" s="148"/>
-      <c r="E64" s="53">
+      <c r="C64" s="143" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="143"/>
+      <c r="E64" s="50">
         <v>0.3</v>
       </c>
-      <c r="F64" s="54">
+      <c r="F64" s="51">
         <f>P73</f>
         <v>0</v>
       </c>
       <c r="G64" s="7"/>
-      <c r="H64" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="I64" s="57">
+      <c r="H64" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="I64" s="54">
         <v>0.03</v>
       </c>
-      <c r="J64" s="165"/>
-      <c r="K64" s="58">
+      <c r="J64" s="123"/>
+      <c r="K64" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M64" s="74" t="s">
-        <v>119</v>
+      <c r="M64" s="71" t="s">
+        <v>117</v>
       </c>
       <c r="N64" s="1">
         <v>0.03</v>
       </c>
-      <c r="P64" s="76">
+      <c r="P64" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q64" s="7"/>
-      <c r="Z64" s="67"/>
+      <c r="Z64" s="64"/>
     </row>
     <row r="65" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A65" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="79">
+      <c r="A65" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="76">
         <f>I70</f>
         <v>0.15</v>
       </c>
-      <c r="C65" s="136" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65" s="136"/>
-      <c r="E65" s="57">
+      <c r="C65" s="131" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="131"/>
+      <c r="E65" s="54">
         <v>0.15</v>
       </c>
-      <c r="F65" s="58">
+      <c r="F65" s="55">
         <f>K70</f>
         <v>0</v>
       </c>
       <c r="G65" s="7"/>
-      <c r="H65" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="I65" s="57">
+      <c r="H65" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="I65" s="54">
         <v>0.03</v>
       </c>
-      <c r="J65" s="165"/>
-      <c r="K65" s="58">
+      <c r="J65" s="123"/>
+      <c r="K65" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M65" s="74" t="s">
-        <v>121</v>
+      <c r="M65" s="71" t="s">
+        <v>119</v>
       </c>
       <c r="N65" s="1">
         <v>0.03</v>
       </c>
-      <c r="P65" s="76">
+      <c r="P65" s="73">
         <f>O65*0.03</f>
         <v>0</v>
       </c>
       <c r="Q65" s="7"/>
-      <c r="Z65" s="67"/>
+      <c r="Z65" s="64"/>
     </row>
     <row r="66" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A66" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" s="79">
+      <c r="A66" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="76">
         <v>0.25</v>
       </c>
-      <c r="C66" s="166"/>
-      <c r="D66" s="166"/>
-      <c r="E66" s="57">
+      <c r="C66" s="131"/>
+      <c r="D66" s="131"/>
+      <c r="E66" s="54">
         <v>0.25</v>
       </c>
-      <c r="F66" s="58">
+      <c r="F66" s="55">
         <f>C66*E66</f>
         <v>0</v>
       </c>
       <c r="G66" s="7"/>
-      <c r="H66" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="I66" s="57">
+      <c r="H66" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="I66" s="54">
         <v>0.03</v>
       </c>
-      <c r="J66" s="165"/>
-      <c r="K66" s="58">
+      <c r="J66" s="123"/>
+      <c r="K66" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M66" s="74" t="s">
-        <v>122</v>
+      <c r="M66" s="71" t="s">
+        <v>120</v>
       </c>
       <c r="N66" s="1">
         <v>0.03</v>
       </c>
-      <c r="P66" s="76">
+      <c r="P66" s="73">
         <f>O66*0.03</f>
         <v>0</v>
       </c>
       <c r="Q66" s="7"/>
-      <c r="Z66" s="67"/>
+      <c r="Z66" s="64"/>
     </row>
     <row r="67" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A67" s="116" t="s">
-        <v>95</v>
-      </c>
-      <c r="B67" s="117"/>
-      <c r="C67" s="150"/>
-      <c r="D67" s="150"/>
-      <c r="E67" s="118">
+      <c r="A67" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="109"/>
+      <c r="C67" s="144"/>
+      <c r="D67" s="144"/>
+      <c r="E67" s="110">
         <v>0.3</v>
       </c>
-      <c r="F67" s="119"/>
+      <c r="F67" s="111"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="I67" s="57">
+      <c r="H67" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="I67" s="54">
         <v>0.03</v>
       </c>
-      <c r="J67" s="165"/>
-      <c r="K67" s="58">
+      <c r="J67" s="123"/>
+      <c r="K67" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M67" s="74" t="s">
-        <v>123</v>
+      <c r="M67" s="71" t="s">
+        <v>121</v>
       </c>
       <c r="N67" s="1">
         <v>0.03</v>
       </c>
-      <c r="P67" s="76">
+      <c r="P67" s="73">
         <f t="shared" ref="P67:P72" si="9">O67*0.03</f>
         <v>0</v>
       </c>
       <c r="Q67" s="7"/>
-      <c r="Z67" s="67"/>
+      <c r="Z67" s="64"/>
     </row>
     <row r="68" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A68" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="B68" s="121">
+      <c r="A68" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="113">
         <f>SUM(B64:B67)</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="C68" s="151"/>
-      <c r="D68" s="151"/>
-      <c r="E68" s="122"/>
-      <c r="F68" s="123">
+      <c r="C68" s="145"/>
+      <c r="D68" s="145"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="115">
         <f>SUM(F64:F67)</f>
         <v>0</v>
       </c>
       <c r="G68" s="7"/>
-      <c r="H68" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="I68" s="57">
+      <c r="H68" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="I68" s="54">
         <v>0.03</v>
       </c>
-      <c r="J68" s="165"/>
-      <c r="K68" s="58">
+      <c r="J68" s="123"/>
+      <c r="K68" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M68" s="74" t="s">
-        <v>124</v>
+      <c r="M68" s="71" t="s">
+        <v>122</v>
       </c>
       <c r="N68" s="1">
         <v>0.03</v>
       </c>
-      <c r="P68" s="76">
+      <c r="P68" s="73">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q68" s="7"/>
-      <c r="Z68" s="67"/>
+      <c r="Z68" s="64"/>
     </row>
     <row r="69" spans="1:26" ht="16.2" thickBot="1">
-      <c r="H69" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="I69" s="57">
+      <c r="H69" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="I69" s="54">
         <v>0.03</v>
       </c>
-      <c r="J69" s="165"/>
-      <c r="K69" s="62">
+      <c r="J69" s="123"/>
+      <c r="K69" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M69" s="74" t="s">
-        <v>126</v>
+      <c r="M69" s="71" t="s">
+        <v>124</v>
       </c>
       <c r="N69" s="1">
         <v>0.03</v>
       </c>
-      <c r="P69" s="76">
+      <c r="P69" s="73">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q69" s="7"/>
-      <c r="Z69" s="67"/>
+      <c r="Z69" s="64"/>
     </row>
     <row r="70" spans="1:26" ht="16.2" thickBot="1">
-      <c r="H70" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="I70" s="124">
+      <c r="H70" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" s="116">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(I63:I69),-5))</f>
         <v>0.15</v>
       </c>
-      <c r="J70" s="82"/>
-      <c r="K70" s="124">
+      <c r="J70" s="78"/>
+      <c r="K70" s="116">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(K63:K69),-5))</f>
         <v>0</v>
       </c>
-      <c r="M70" s="74" t="s">
-        <v>127</v>
+      <c r="M70" s="71" t="s">
+        <v>125</v>
       </c>
       <c r="N70" s="1">
         <v>0.03</v>
       </c>
-      <c r="P70" s="76">
+      <c r="P70" s="73">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q70" s="7"/>
-      <c r="Z70" s="67"/>
+      <c r="Z70" s="64"/>
     </row>
     <row r="71" spans="1:26">
-      <c r="M71" s="74" t="s">
-        <v>128</v>
+      <c r="M71" s="71" t="s">
+        <v>126</v>
       </c>
       <c r="N71" s="1">
         <v>0.03</v>
       </c>
-      <c r="P71" s="76">
+      <c r="P71" s="73">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q71" s="7"/>
-      <c r="Z71" s="67"/>
+      <c r="Z71" s="64"/>
     </row>
     <row r="72" spans="1:26" ht="16.2" thickBot="1">
-      <c r="M72" s="63" t="s">
-        <v>129</v>
+      <c r="M72" s="60" t="s">
+        <v>127</v>
       </c>
       <c r="N72" s="1">
         <v>0.03</v>
       </c>
-      <c r="P72" s="66">
+      <c r="P72" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q72" s="7"/>
-      <c r="Z72" s="67"/>
+      <c r="Z72" s="64"/>
     </row>
     <row r="73" spans="1:26">
       <c r="M73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N73" s="1">
         <f>SUM(N63:N72)</f>
@@ -3968,29 +3916,17 @@
         <v>0</v>
       </c>
       <c r="Q73" s="7"/>
-      <c r="Z73" s="67"/>
-    </row>
-    <row r="74" spans="1:26" s="67" customFormat="1"/>
+      <c r="Z73" s="64"/>
+    </row>
+    <row r="74" spans="1:26" s="64" customFormat="1"/>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="58">
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="R59:X60"/>
     <mergeCell ref="R52:X53"/>
     <mergeCell ref="R54:X55"/>
     <mergeCell ref="R56:X57"/>
-    <mergeCell ref="S23:X24"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="Q23:V24"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C40:D40"/>
@@ -4005,19 +3941,20 @@
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A51:F51"/>
     <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="S13:X14"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="Q13:V14"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="S21:X22"/>
-    <mergeCell ref="S19:X20"/>
-    <mergeCell ref="S17:X18"/>
+    <mergeCell ref="Q21:V22"/>
+    <mergeCell ref="Q19:V20"/>
+    <mergeCell ref="Q17:V18"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A26:F26"/>
@@ -4026,12 +3963,22 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="S15:X16"/>
-    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="Q15:V16"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GPAcalculator/SEMESTER 1 MARKINGS.xlsx
+++ b/GPAcalculator/SEMESTER 1 MARKINGS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Project\GPAcalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3C5237-331E-4E20-8DAE-4496BF508A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66421BF1-6FBD-43CF-9AA2-AF7431FA1BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="675" windowWidth="29040" windowHeight="15720" xr2:uid="{DFF6C743-F59C-B24B-B33E-8C4CB8C302DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="120">
   <si>
     <t>SEMESTER 1 - GRADE TOTAL</t>
   </si>
@@ -59,9 +59,6 @@
     <t>APS145</t>
   </si>
   <si>
-    <t>COM101</t>
-  </si>
-  <si>
     <t>CPR101</t>
   </si>
   <si>
@@ -281,9 +278,6 @@
     <t>QUIZ 11</t>
   </si>
   <si>
-    <t>COM101 - GRADING BREAKDOWN</t>
-  </si>
-  <si>
     <t>CURRENT</t>
   </si>
   <si>
@@ -293,42 +287,18 @@
     <t>SUMMARY</t>
   </si>
   <si>
-    <t>ONLINE READINESS TEST (2%)</t>
-  </si>
-  <si>
     <t>ACADEMIC ARGUMENT (WEEK 7)</t>
   </si>
   <si>
-    <t>GETTING TO KNOW YOU (2%)</t>
-  </si>
-  <si>
     <t>TRANSFER ASSIGN #1</t>
   </si>
   <si>
-    <t>DISCUSSION WEEK 03 (3%)</t>
-  </si>
-  <si>
     <t>TRANSFER ASSIGN #2</t>
   </si>
   <si>
-    <t>DISCUSSION WEEK 05 (3%)</t>
-  </si>
-  <si>
-    <t>DISCUSSION WEEK 06 (3%)</t>
-  </si>
-  <si>
     <t>FINAL</t>
   </si>
   <si>
-    <t>APA TUTORIAL (2%)</t>
-  </si>
-  <si>
-    <t>ACADEMIC INTEGRITY TUT (2%)</t>
-  </si>
-  <si>
-    <t>DISCUSSION WEEK 12 (3%)</t>
-  </si>
-  <si>
     <t>IPC144 - GRADING BREAKDOWN</t>
   </si>
   <si>
@@ -420,6 +390,12 @@
   </si>
   <si>
     <t>LAB #10</t>
+  </si>
+  <si>
+    <t>COM111</t>
+  </si>
+  <si>
+    <t>COM111 - GRADING BREAKDOWN</t>
   </si>
 </sst>
 </file>
@@ -497,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -663,105 +639,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1146,7 +1023,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1162,20 +1039,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1218,17 +1090,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1249,38 +1121,38 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1289,50 +1161,60 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1344,19 +1226,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1368,25 +1247,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1395,28 +1268,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1431,6 +1295,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1768,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B6EF2D-BB0E-BD49-8BD6-7B85E3395827}">
   <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23:V24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
@@ -1790,984 +1656,990 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="Z1" s="64"/>
+      <c r="A1" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="Z1" s="59"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="129"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="Z2" s="64"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="Z2" s="59"/>
     </row>
     <row r="3" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="Z3" s="64"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="Z3" s="59"/>
     </row>
     <row r="4" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="64"/>
+      <c r="Z4" s="59"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="64">
         <f>$B$21</f>
         <v>0.65</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="64">
         <f>$F$21</f>
         <v>0</v>
       </c>
-      <c r="D5" s="121">
+      <c r="D5" s="108">
         <f>C5/B5</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="64"/>
+      <c r="Z5" s="59"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="64">
+        <f>$B$47</f>
+        <v>0.75</v>
+      </c>
+      <c r="C6" s="64">
+        <f>$F$47</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="108">
+        <f>C6/B6</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="59"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="69">
-        <f>$B$47</f>
-        <v>0.57150000000000001</v>
-      </c>
-      <c r="C6" s="69">
-        <f>$F$47</f>
-        <v>0.43510000000000004</v>
-      </c>
-      <c r="D6" s="121">
-        <f>C6/B6</f>
-        <v>0.76132983377077867</v>
-      </c>
-      <c r="Y6" s="64"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="69">
+      <c r="B7" s="64">
         <f>$B$32</f>
         <v>1</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="64">
         <f>$F$32</f>
         <v>0</v>
       </c>
-      <c r="D7" s="121">
+      <c r="D7" s="108">
         <f>C7/B7</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="64"/>
+      <c r="Z7" s="59"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="64">
+        <f>$B$60</f>
+        <v>0.65</v>
+      </c>
+      <c r="C8" s="64">
+        <f>$F$60</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="108">
+        <f>C8/B8</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="59"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="69">
-        <f>$B$60</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C8" s="69">
-        <f>$F$60</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="121">
-        <f>C8/B8</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="64"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="69">
+      <c r="B9" s="64">
         <f>$B$68</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="64">
         <f>$F$68</f>
         <v>0</v>
       </c>
-      <c r="D9" s="121">
+      <c r="D9" s="108">
         <f>C9/B9</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="64"/>
+      <c r="Z9" s="59"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="C10" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="109">
+        <f>SUM(D5:D9)/5</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="59"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="65"/>
+      <c r="C11" s="15"/>
+      <c r="Z11" s="59"/>
+    </row>
+    <row r="12" spans="1:26" s="59" customFormat="1" ht="16.2" thickBot="1"/>
+    <row r="13" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A13" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="122">
-        <f>SUM(D5:D9)/5</f>
-        <v>0.15226596675415574</v>
-      </c>
-      <c r="Y10" s="64"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="70"/>
-      <c r="C11" s="16"/>
-      <c r="Z11" s="64"/>
-    </row>
-    <row r="12" spans="1:26" s="64" customFormat="1" ht="16.2" thickBot="1"/>
-    <row r="13" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A13" s="136" t="s">
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
+      <c r="H13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="138"/>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="J13" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="48" t="s">
+      <c r="M13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="N13" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="47" t="s">
+      <c r="O13" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="47" t="s">
+      <c r="P13" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="48" t="s">
+      <c r="R13" s="121"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="Z13" s="59"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A14" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="127"/>
+      <c r="E14" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="67"/>
+      <c r="J14" s="68">
+        <f>I14*0.15</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="19">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O14" s="104"/>
+      <c r="P14" s="70">
+        <f>(O14)*(0.15/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="121"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="121"/>
+      <c r="U14" s="121"/>
+      <c r="V14" s="121"/>
+      <c r="Z14" s="59"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A15" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="128" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
-      <c r="X13" s="64"/>
-    </row>
-    <row r="14" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A14" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="135" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="135"/>
-      <c r="E14" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="72"/>
-      <c r="J14" s="73">
-        <f>I14*0.15</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="24">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="O14" s="117"/>
-      <c r="P14" s="75">
-        <f>(O14)*(0.15/8)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="128"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
-      <c r="X14" s="64"/>
-    </row>
-    <row r="15" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A15" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="24">
+      <c r="B15" s="19">
         <f>N24</f>
         <v>0.15</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="131" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="132"/>
+      <c r="E15" s="45">
+        <v>0.15</v>
+      </c>
+      <c r="F15" s="46">
+        <f>P24</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="140"/>
-      <c r="E15" s="50">
+      <c r="J15" s="68">
+        <f>I15*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="19">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O15" s="104"/>
+      <c r="P15" s="70">
+        <f t="shared" ref="P15:P23" si="0">(O15)*(0.15/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="121"/>
+      <c r="S15" s="121"/>
+      <c r="T15" s="121"/>
+      <c r="U15" s="121"/>
+      <c r="V15" s="121"/>
+      <c r="W15" s="119" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z15" s="59"/>
+    </row>
+    <row r="16" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A16" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="72">
         <v>0.15</v>
       </c>
-      <c r="F15" s="51">
-        <f>P24</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="73">
-        <f>I15*0.2</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="24">
+      <c r="C16" s="111"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="49">
+        <v>0.15</v>
+      </c>
+      <c r="F16" s="50">
+        <f>J14</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="68">
+        <f>I16*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="19">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="O15" s="117"/>
-      <c r="P15" s="75">
-        <f t="shared" ref="P15:P24" si="0">(O15)*(0.15/8)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="127" t="s">
+      <c r="O16" s="104"/>
+      <c r="P16" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="121"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="121"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="121"/>
+      <c r="W16" s="119"/>
+      <c r="Z16" s="59"/>
+    </row>
+    <row r="17" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A17" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="72">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="50">
+        <f t="shared" ref="F17:F18" si="1">J15</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="75">
+        <f>SUM(J14:J16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="19">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O17" s="104"/>
+      <c r="P17" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="120" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="121"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="121"/>
+      <c r="W17" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="R15" s="128"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="X15" s="64"/>
-    </row>
-    <row r="16" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A16" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="77">
-        <v>0.15</v>
-      </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="54">
-        <v>0.15</v>
-      </c>
-      <c r="F16" s="55">
-        <f>J14</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="73">
-        <f>I16*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="24">
+      <c r="Z17" s="59"/>
+    </row>
+    <row r="18" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
+      <c r="A18" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="49">
+        <v>0.35</v>
+      </c>
+      <c r="F18" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="19">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="O16" s="117"/>
-      <c r="P16" s="75">
+      <c r="O18" s="104"/>
+      <c r="P18" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="126"/>
-      <c r="X16" s="64"/>
-    </row>
-    <row r="17" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A17" s="52" t="s">
+      <c r="Q18" s="120"/>
+      <c r="R18" s="121"/>
+      <c r="S18" s="121"/>
+      <c r="T18" s="121"/>
+      <c r="U18" s="121"/>
+      <c r="V18" s="121"/>
+      <c r="W18" s="119"/>
+      <c r="Z18" s="59"/>
+    </row>
+    <row r="19" spans="1:26" ht="26.1" customHeight="1" thickBot="1">
+      <c r="A19" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="77">
+        <v>0.05</v>
+      </c>
+      <c r="C19" s="147"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="78">
+        <v>0.05</v>
+      </c>
+      <c r="F19" s="79">
+        <f>C19*0.05</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="80"/>
+      <c r="H19" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="19">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O19" s="104"/>
+      <c r="P19" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" s="126"/>
+      <c r="S19" s="126"/>
+      <c r="T19" s="126"/>
+      <c r="U19" s="126"/>
+      <c r="V19" s="126"/>
+      <c r="W19" s="119"/>
+      <c r="Z19" s="59"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A20" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="111"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="79">
+        <f>C20*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="113" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="19">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O20" s="104"/>
+      <c r="P20" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="126"/>
+      <c r="S20" s="126"/>
+      <c r="T20" s="126"/>
+      <c r="U20" s="126"/>
+      <c r="V20" s="126"/>
+      <c r="W20" s="119"/>
+      <c r="Z20" s="59"/>
+    </row>
+    <row r="21" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A21" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="77">
-        <v>0.2</v>
-      </c>
-      <c r="C17" s="141"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="54">
-        <v>0.2</v>
-      </c>
-      <c r="F17" s="55">
-        <f t="shared" ref="F17:F18" si="1">J15</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="80">
-        <f>SUM(J14:J16)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" s="24">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="O17" s="117"/>
-      <c r="P17" s="75">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="127" t="s">
-        <v>37</v>
-      </c>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="X17" s="64"/>
-    </row>
-    <row r="18" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A18" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="54">
-        <v>0.35</v>
-      </c>
-      <c r="F18" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="24">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="O18" s="117"/>
-      <c r="P18" s="75">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="126"/>
-      <c r="X18" s="64"/>
-    </row>
-    <row r="19" spans="1:26" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A19" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="82">
-        <v>0.05</v>
-      </c>
-      <c r="C19" s="141"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="83">
-        <v>0.05</v>
-      </c>
-      <c r="F19" s="84">
-        <f>C19*0.05</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="85"/>
-      <c r="H19" s="148" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="N19" s="24">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="O19" s="117"/>
-      <c r="P19" s="75">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="133" t="s">
-        <v>43</v>
-      </c>
-      <c r="R19" s="134"/>
-      <c r="S19" s="134"/>
-      <c r="T19" s="134"/>
-      <c r="U19" s="134"/>
-      <c r="V19" s="134"/>
-      <c r="W19" s="126"/>
-      <c r="X19" s="64"/>
-    </row>
-    <row r="20" spans="1:26" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A20" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="86">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="84">
-        <f>C20*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="151" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="N20" s="24">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="O20" s="117"/>
-      <c r="P20" s="75">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="133"/>
-      <c r="R20" s="134"/>
-      <c r="S20" s="134"/>
-      <c r="T20" s="134"/>
-      <c r="U20" s="134"/>
-      <c r="V20" s="134"/>
-      <c r="W20" s="126"/>
-      <c r="X20" s="64"/>
-    </row>
-    <row r="21" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A21" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="78">
+      <c r="B21" s="73">
         <f>SUM(B15:B20)</f>
         <v>0.65</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="61">
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="56">
         <f>SUM(E15:E20)</f>
         <v>1</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="58">
         <f>SUM(F15:F20)</f>
         <v>0</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="148" t="s">
+      <c r="H21" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="148"/>
-      <c r="J21" s="148"/>
-      <c r="K21" s="148"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="52" t="s">
+      <c r="N21" s="19">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="O21" s="104"/>
+      <c r="P21" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="24">
+      <c r="R21" s="126"/>
+      <c r="S21" s="126"/>
+      <c r="T21" s="126"/>
+      <c r="U21" s="126"/>
+      <c r="V21" s="126"/>
+      <c r="W21" s="119" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z21" s="59"/>
+    </row>
+    <row r="22" spans="1:26" ht="16.2" thickBot="1">
+      <c r="M22" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="19">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="O21" s="117"/>
-      <c r="P21" s="75">
+      <c r="O22" s="104"/>
+      <c r="P22" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="133" t="s">
-        <v>49</v>
-      </c>
-      <c r="R21" s="134"/>
-      <c r="S21" s="134"/>
-      <c r="T21" s="134"/>
-      <c r="U21" s="134"/>
-      <c r="V21" s="134"/>
-      <c r="W21" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="X21" s="64"/>
-    </row>
-    <row r="22" spans="1:26" ht="16.2" thickBot="1">
-      <c r="M22" s="52" t="s">
+      <c r="Q22" s="125"/>
+      <c r="R22" s="126"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="126"/>
+      <c r="U22" s="126"/>
+      <c r="V22" s="126"/>
+      <c r="W22" s="119"/>
+      <c r="Z22" s="59"/>
+    </row>
+    <row r="23" spans="1:26" ht="16.2" thickBot="1">
+      <c r="E23" s="82"/>
+      <c r="M23" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="N22" s="24">
+      <c r="N23" s="19">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="O22" s="117"/>
-      <c r="P22" s="75">
+      <c r="O23" s="104"/>
+      <c r="P23" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="133"/>
-      <c r="R22" s="134"/>
-      <c r="S22" s="134"/>
-      <c r="T22" s="134"/>
-      <c r="U22" s="134"/>
-      <c r="V22" s="134"/>
-      <c r="W22" s="126"/>
-      <c r="X22" s="64"/>
-    </row>
-    <row r="23" spans="1:26" ht="16.2" thickBot="1">
-      <c r="E23" s="87"/>
-      <c r="M23" s="56" t="s">
+      <c r="Q23" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="24">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="O23" s="117"/>
-      <c r="P23" s="75">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="133" t="s">
-        <v>52</v>
-      </c>
-      <c r="R23" s="134"/>
-      <c r="S23" s="134"/>
-      <c r="T23" s="134"/>
-      <c r="U23" s="134"/>
-      <c r="V23" s="134"/>
-      <c r="W23" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="X23" s="64"/>
+      <c r="R23" s="126"/>
+      <c r="S23" s="126"/>
+      <c r="T23" s="126"/>
+      <c r="U23" s="126"/>
+      <c r="V23" s="126"/>
+      <c r="W23" s="119" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z23" s="59"/>
     </row>
     <row r="24" spans="1:26" ht="16.2" thickBot="1">
       <c r="E24" s="12"/>
-      <c r="M24" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="N24" s="89">
+      <c r="M24" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" s="84">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(N14:N23),-8))</f>
         <v>0.15</v>
       </c>
-      <c r="O24" s="118"/>
-      <c r="P24" s="43">
+      <c r="O24" s="105"/>
+      <c r="P24" s="38">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(P14:P23),-8))</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="133"/>
-      <c r="R24" s="134"/>
-      <c r="S24" s="134"/>
-      <c r="T24" s="134"/>
-      <c r="U24" s="134"/>
-      <c r="V24" s="134"/>
-      <c r="W24" s="126"/>
-      <c r="X24" s="64"/>
-    </row>
-    <row r="25" spans="1:26" s="64" customFormat="1" ht="16.2" thickBot="1">
-      <c r="F25" s="90"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="126"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="126"/>
+      <c r="V24" s="126"/>
+      <c r="W24" s="119"/>
+      <c r="Z24" s="59"/>
+    </row>
+    <row r="25" spans="1:26" s="59" customFormat="1" ht="16.2" thickBot="1">
+      <c r="F25" s="85"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="136" t="s">
+      <c r="A26" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="35" t="s">
+      <c r="I26" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="36" t="s">
+      <c r="J26" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="O26" s="37" t="s">
-        <v>15</v>
+      <c r="N26" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q26" s="27"/>
-      <c r="Z26" s="64"/>
+        <v>22</v>
+      </c>
+      <c r="Q26" s="22"/>
+      <c r="Z26" s="59"/>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="92"/>
-      <c r="H27" s="71" t="s">
-        <v>57</v>
+        <v>20</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="87"/>
+      <c r="H27" s="66" t="s">
+        <v>56</v>
       </c>
       <c r="I27" s="12">
         <v>0.05</v>
       </c>
       <c r="J27" s="12"/>
-      <c r="K27" s="93">
+      <c r="K27" s="88">
         <f t="shared" ref="K27:K36" si="2">0.05*J27</f>
         <v>0</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N27" s="17">
+        <v>57</v>
+      </c>
+      <c r="N27" s="16">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O27" s="14"/>
+      <c r="O27" s="13"/>
       <c r="P27" s="10">
         <f t="shared" ref="P27:P36" si="3">(0.3/8)*O27</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="119"/>
-      <c r="Z27" s="64"/>
+      <c r="Q27" s="106"/>
+      <c r="Z27" s="59"/>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="28">
+        <v>58</v>
+      </c>
+      <c r="B28" s="23">
         <f>N37</f>
         <v>0.3</v>
       </c>
-      <c r="C28" s="154" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="154"/>
+      <c r="C28" s="117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="117"/>
       <c r="E28" s="4">
         <v>0.3</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="34">
         <f>P37</f>
         <v>0</v>
       </c>
-      <c r="G28" s="92"/>
-      <c r="H28" s="71" t="s">
-        <v>60</v>
+      <c r="G28" s="87"/>
+      <c r="H28" s="66" t="s">
+        <v>59</v>
       </c>
       <c r="I28" s="12">
         <v>0.05</v>
       </c>
       <c r="J28" s="12"/>
-      <c r="K28" s="93">
+      <c r="K28" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N28" s="17">
+        <v>60</v>
+      </c>
+      <c r="N28" s="16">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O28" s="14"/>
+      <c r="O28" s="13"/>
       <c r="P28" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="119"/>
-      <c r="Z28" s="64"/>
+      <c r="Q28" s="106"/>
+      <c r="Z28" s="59"/>
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="17">
+        <v>61</v>
+      </c>
+      <c r="B29" s="16">
         <f>I37</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="C29" s="146" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="146"/>
+      <c r="C29" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="136"/>
       <c r="E29" s="5">
         <v>0.4</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="35">
         <f>K37</f>
         <v>0</v>
       </c>
-      <c r="G29" s="92"/>
-      <c r="H29" s="71" t="s">
-        <v>63</v>
+      <c r="G29" s="87"/>
+      <c r="H29" s="66" t="s">
+        <v>62</v>
       </c>
       <c r="I29" s="12">
         <v>0.05</v>
       </c>
       <c r="J29" s="12"/>
-      <c r="K29" s="93">
+      <c r="K29" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N29" s="17">
+        <v>63</v>
+      </c>
+      <c r="N29" s="16">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O29" s="14"/>
+      <c r="O29" s="13"/>
       <c r="P29" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="119"/>
-      <c r="Z29" s="64"/>
+      <c r="Q29" s="106"/>
+      <c r="Z29" s="59"/>
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="17">
+        <v>64</v>
+      </c>
+      <c r="B30" s="16">
         <v>0.05</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="5">
         <v>0.05</v>
       </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="71" t="s">
-        <v>66</v>
+      <c r="F30" s="35">
+        <f>D30*E30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="87"/>
+      <c r="H30" s="66" t="s">
+        <v>65</v>
       </c>
       <c r="I30" s="12">
         <v>0.05</v>
       </c>
       <c r="J30" s="12"/>
-      <c r="K30" s="93">
+      <c r="K30" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N30" s="17">
+        <v>66</v>
+      </c>
+      <c r="N30" s="16">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O30" s="14"/>
+      <c r="O30" s="13"/>
       <c r="P30" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="119"/>
-      <c r="Z30" s="64"/>
+      <c r="Q30" s="106"/>
+      <c r="Z30" s="59"/>
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="6">
         <v>0.25</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="6">
         <v>0.25</v>
       </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="71" t="s">
-        <v>69</v>
+      <c r="F31" s="36">
+        <f>D31*E31</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="89"/>
+      <c r="H31" s="66" t="s">
+        <v>68</v>
       </c>
       <c r="I31" s="12">
         <v>0.05</v>
       </c>
       <c r="J31" s="12"/>
-      <c r="K31" s="93">
+      <c r="K31" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N31" s="17">
+        <v>69</v>
+      </c>
+      <c r="N31" s="16">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O31" s="14"/>
+      <c r="O31" s="13"/>
       <c r="P31" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="119"/>
-      <c r="Z31" s="64"/>
+      <c r="Q31" s="106"/>
+      <c r="Z31" s="59"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="32">
+      <c r="A32" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="27">
         <f>SUM(B28:B31)</f>
         <v>1</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43">
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38">
         <f>SUM(F28:F31)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="71" t="s">
-        <v>71</v>
+      <c r="H32" s="66" t="s">
+        <v>70</v>
       </c>
       <c r="I32" s="12">
         <v>0.05</v>
       </c>
       <c r="J32" s="12"/>
-      <c r="K32" s="93">
+      <c r="K32" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N32" s="17">
+        <v>71</v>
+      </c>
+      <c r="N32" s="16">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O32" s="14"/>
+      <c r="O32" s="13"/>
       <c r="P32" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="119"/>
-      <c r="Z32" s="64"/>
+      <c r="Q32" s="106"/>
+      <c r="Z32" s="59"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="H33" s="71" t="s">
-        <v>73</v>
+      <c r="H33" s="66" t="s">
+        <v>72</v>
       </c>
       <c r="I33" s="12">
         <v>0.05</v>
       </c>
       <c r="J33" s="12"/>
-      <c r="K33" s="93">
+      <c r="K33" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N33" s="17">
+        <v>73</v>
+      </c>
+      <c r="N33" s="16">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O33" s="14"/>
+      <c r="O33" s="13"/>
       <c r="P33" s="10">
         <f>(0.3/8)*O33</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="119"/>
-      <c r="Z33" s="64"/>
+      <c r="Q33" s="106"/>
+      <c r="Z33" s="59"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="H34" s="71" t="s">
-        <v>75</v>
+      <c r="H34" s="66" t="s">
+        <v>74</v>
       </c>
       <c r="I34" s="12">
         <v>0.05</v>
       </c>
       <c r="J34" s="12"/>
-      <c r="K34" s="93">
+      <c r="K34" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N34" s="17">
+        <v>75</v>
+      </c>
+      <c r="N34" s="16">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O34" s="14"/>
+      <c r="O34" s="13"/>
       <c r="P34" s="10">
         <f>(0.3/8)*O34</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="119"/>
-      <c r="Z34" s="64"/>
+      <c r="Q34" s="106"/>
+      <c r="Z34" s="59"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="H35" s="71" t="s">
-        <v>77</v>
+      <c r="H35" s="66" t="s">
+        <v>76</v>
       </c>
       <c r="I35" s="12">
         <v>0.05</v>
       </c>
       <c r="J35" s="12"/>
-      <c r="K35" s="93">
+      <c r="K35" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N35" s="17">
+        <v>77</v>
+      </c>
+      <c r="N35" s="16">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="O35" s="7"/>
@@ -2775,1136 +2647,1028 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="119"/>
-      <c r="Z35" s="64"/>
+      <c r="Q35" s="106"/>
+      <c r="Z35" s="59"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="H36" s="60" t="s">
-        <v>79</v>
+      <c r="H36" s="55" t="s">
+        <v>78</v>
       </c>
       <c r="I36" s="12">
         <v>0.05</v>
       </c>
-      <c r="J36" s="30"/>
-      <c r="K36" s="93">
+      <c r="J36" s="25"/>
+      <c r="K36" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N36" s="23">
+        <v>79</v>
+      </c>
+      <c r="N36" s="18">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="O36" s="62"/>
+      <c r="O36" s="57"/>
       <c r="P36" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="119"/>
-      <c r="Z36" s="64"/>
+      <c r="Q36" s="106"/>
+      <c r="Z36" s="59"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="H37" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="I37" s="43">
+      <c r="H37" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="38">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(I27:I36),-8))</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="J37" s="42"/>
-      <c r="K37" s="43">
+      <c r="J37" s="37"/>
+      <c r="K37" s="38">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(K27:K36),-8))</f>
         <v>0</v>
       </c>
-      <c r="M37" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="N37" s="43">
+      <c r="M37" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" s="38">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(N27:N36),-8))</f>
         <v>0.3</v>
       </c>
-      <c r="O37" s="42"/>
-      <c r="P37" s="43">
+      <c r="O37" s="37"/>
+      <c r="P37" s="38">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(P27:P36),-8))</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="94"/>
-      <c r="Z37" s="64"/>
-    </row>
-    <row r="38" spans="1:26" s="64" customFormat="1"/>
-    <row r="39" spans="1:26">
-      <c r="A39" s="136" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="137"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
-      <c r="Z39" s="64"/>
-    </row>
-    <row r="40" spans="1:26">
-      <c r="A40" s="31" t="s">
+      <c r="Q37" s="89"/>
+      <c r="Z37" s="59"/>
+    </row>
+    <row r="38" spans="1:26" s="59" customFormat="1"/>
+    <row r="39" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A39" s="128" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="Z39" s="59"/>
+    </row>
+    <row r="40" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A40" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="132" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="132"/>
-      <c r="E40" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="H40" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="I40" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z40" s="64"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z40" s="59"/>
     </row>
     <row r="41" spans="1:26">
       <c r="A41" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="28">
+        <v>82</v>
+      </c>
+      <c r="B41" s="23">
         <v>0.1</v>
       </c>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
       <c r="E41" s="4">
         <v>0.1</v>
       </c>
-      <c r="F41" s="18">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H41" s="98" t="s">
-        <v>85</v>
-      </c>
-      <c r="I41" s="99">
-        <v>2.01E-2</v>
-      </c>
-      <c r="J41" s="21">
-        <v>1</v>
-      </c>
-      <c r="K41" s="13">
-        <f t="shared" ref="K41:K46" si="4">I41*J41</f>
-        <v>2.01E-2</v>
-      </c>
-      <c r="Z41" s="64"/>
+      <c r="F41" s="11">
+        <f>C41*E41</f>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="59"/>
     </row>
     <row r="42" spans="1:26" ht="31.2">
-      <c r="A42" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="29">
+      <c r="A42" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="24">
         <v>0.15</v>
       </c>
-      <c r="C42" s="148"/>
-      <c r="D42" s="148"/>
       <c r="E42" s="5">
         <v>0.15</v>
       </c>
       <c r="F42" s="11">
-        <v>0.115</v>
-      </c>
-      <c r="H42" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="I42" s="101">
-        <v>0.02</v>
-      </c>
-      <c r="J42" s="20">
-        <v>1</v>
-      </c>
-      <c r="K42" s="13">
-        <f t="shared" si="4"/>
-        <v>0.02</v>
-      </c>
-      <c r="Z42" s="64"/>
+        <f>C42*0.05+D42*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="59"/>
     </row>
     <row r="43" spans="1:26">
       <c r="A43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="17">
+        <v>84</v>
+      </c>
+      <c r="B43" s="16">
         <v>0.15</v>
       </c>
-      <c r="C43" s="148"/>
-      <c r="D43" s="148"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
       <c r="E43" s="5">
         <v>0.15</v>
       </c>
       <c r="F43" s="11">
-        <f>B43*(9/15)</f>
-        <v>0.09</v>
-      </c>
-      <c r="H43" s="100" t="s">
-        <v>89</v>
-      </c>
-      <c r="I43" s="101">
-        <v>0.03</v>
-      </c>
-      <c r="J43" s="20">
-        <v>1</v>
-      </c>
-      <c r="K43" s="13">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
-      </c>
-      <c r="Z43" s="64"/>
+        <f>C43*E43</f>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="59"/>
     </row>
     <row r="44" spans="1:26">
       <c r="A44" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="148"/>
-      <c r="D44" s="148"/>
+        <v>85</v>
+      </c>
+      <c r="B44" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
       <c r="E44" s="5">
         <v>0.15</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="H44" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="I44" s="101">
-        <v>0.03</v>
-      </c>
-      <c r="J44" s="20">
-        <v>1</v>
-      </c>
-      <c r="K44" s="13">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
-      </c>
-      <c r="Z44" s="64"/>
+      <c r="F44" s="11">
+        <f>C44*E44</f>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="59"/>
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="17">
-        <f>I49</f>
-        <v>0.17149999999999999</v>
-      </c>
-      <c r="C45" s="148"/>
-      <c r="D45" s="148"/>
+        <v>81</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.2</v>
+      </c>
       <c r="E45" s="5">
         <v>0.2</v>
       </c>
       <c r="F45" s="11">
-        <f>K49</f>
-        <v>0.1651</v>
-      </c>
-      <c r="H45" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="I45" s="101">
-        <v>0.03</v>
-      </c>
-      <c r="J45" s="20">
-        <f>2.5/3</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="K45" s="13">
-        <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="Z45" s="64"/>
-    </row>
-    <row r="46" spans="1:26">
+        <f>C45*0.05+D45*0.15</f>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="59"/>
+    </row>
+    <row r="46" spans="1:26" ht="16.2" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
+        <v>86</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="123"/>
       <c r="E46" s="6">
         <v>0.25</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="H46" s="100" t="s">
-        <v>94</v>
-      </c>
-      <c r="I46" s="101">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="J46" s="20">
-        <f>1.96/2.1</f>
-        <v>0.93333333333333324</v>
-      </c>
-      <c r="K46" s="13">
-        <f t="shared" si="4"/>
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="Z46" s="64"/>
-    </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="32">
+      <c r="F46" s="17">
+        <f>C46*E46</f>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="59"/>
+    </row>
+    <row r="47" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A47" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="27">
         <f>SUM(B41:B46)</f>
-        <v>0.57150000000000001</v>
-      </c>
-      <c r="C47" s="132"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="28">
         <f>SUM(F41:F46)</f>
-        <v>0.43510000000000004</v>
-      </c>
-      <c r="H47" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="I47" s="101">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="J47" s="20">
-        <v>1</v>
-      </c>
-      <c r="K47" s="13">
-        <f>I47*J47</f>
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="Z47" s="64"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="59"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="H48" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="I48" s="103">
-        <v>0</v>
-      </c>
-      <c r="J48" s="22"/>
-      <c r="K48" s="13"/>
-      <c r="Z48" s="64"/>
+      <c r="Z48" s="59"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="H49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I49" s="14">
-        <f>SUM(I41:I48)</f>
-        <v>0.17149999999999999</v>
-      </c>
-      <c r="K49" s="14">
-        <f>SUM(K41:K48)</f>
-        <v>0.1651</v>
-      </c>
-      <c r="Z49" s="64"/>
-    </row>
-    <row r="50" spans="1:26" s="64" customFormat="1"/>
+      <c r="I49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="Z49" s="59"/>
+    </row>
+    <row r="50" spans="1:26" s="59" customFormat="1"/>
     <row r="51" spans="1:26" ht="23.4" thickBot="1">
-      <c r="A51" s="136" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="137"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="27"/>
+      <c r="A51" s="128" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="129"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="22"/>
       <c r="H51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="J51" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N51" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="J51" s="47" t="s">
+      <c r="O51" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="P51" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q51" s="82"/>
+      <c r="S51" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z51" s="59"/>
+    </row>
+    <row r="52" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A52" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="127"/>
+      <c r="E52" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="K51" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="N51" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="O51" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="P51" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q51" s="87"/>
-      <c r="S51" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z51" s="64"/>
-    </row>
-    <row r="52" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A52" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="135" t="s">
+      <c r="F52" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="135"/>
-      <c r="E52" s="47" t="s">
+      <c r="G52" s="82"/>
+      <c r="H52" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="91">
+        <v>0.02</v>
+      </c>
+      <c r="J52" s="91"/>
+      <c r="K52" s="93">
+        <f>J52*I52</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="N52" s="91">
+        <v>0.02</v>
+      </c>
+      <c r="O52" s="92"/>
+      <c r="P52" s="93">
+        <f>O52*0.02</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="S52" s="126"/>
+      <c r="T52" s="126"/>
+      <c r="U52" s="126"/>
+      <c r="V52" s="126"/>
+      <c r="W52" s="126"/>
+      <c r="X52" s="126"/>
+      <c r="Z52" s="59"/>
+    </row>
+    <row r="53" spans="1:26" ht="23.1" customHeight="1">
+      <c r="A53" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="87"/>
-      <c r="H52" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="I52" s="104">
-        <v>0.02</v>
-      </c>
-      <c r="J52" s="104"/>
-      <c r="K52" s="106">
-        <f>J52*I52</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="N52" s="104">
-        <v>0.02</v>
-      </c>
-      <c r="O52" s="105"/>
-      <c r="P52" s="106">
-        <f>O52*0.02</f>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="156" t="s">
-        <v>100</v>
-      </c>
-      <c r="S52" s="134"/>
-      <c r="T52" s="134"/>
-      <c r="U52" s="134"/>
-      <c r="V52" s="134"/>
-      <c r="W52" s="134"/>
-      <c r="X52" s="134"/>
-      <c r="Z52" s="64"/>
-    </row>
-    <row r="53" spans="1:26" ht="23.1" customHeight="1">
-      <c r="A53" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="50">
+      <c r="B53" s="45">
         <f>I58</f>
         <v>0.1</v>
       </c>
-      <c r="C53" s="143" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="143"/>
-      <c r="E53" s="50">
+      <c r="C53" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="133"/>
+      <c r="E53" s="45">
         <v>0.1</v>
       </c>
-      <c r="F53" s="51">
+      <c r="F53" s="46">
         <f>K58</f>
         <v>0</v>
       </c>
       <c r="G53" s="7"/>
-      <c r="H53" s="71" t="s">
-        <v>28</v>
+      <c r="H53" s="66" t="s">
+        <v>27</v>
       </c>
       <c r="I53" s="1">
         <v>0.02</v>
       </c>
       <c r="J53" s="7"/>
-      <c r="K53" s="73">
-        <f t="shared" ref="K53:K56" si="5">J53*I53</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="71" t="s">
-        <v>102</v>
+      <c r="K53" s="68">
+        <f t="shared" ref="K53:K56" si="4">J53*I53</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="66" t="s">
+        <v>92</v>
       </c>
       <c r="N53" s="1">
         <v>0.02</v>
       </c>
       <c r="O53" s="7"/>
-      <c r="P53" s="73">
+      <c r="P53" s="68">
         <f>O53*0.02</f>
         <v>0</v>
       </c>
       <c r="Q53" s="7"/>
-      <c r="R53" s="156"/>
-      <c r="S53" s="134"/>
-      <c r="T53" s="134"/>
-      <c r="U53" s="134"/>
-      <c r="V53" s="134"/>
-      <c r="W53" s="134"/>
-      <c r="X53" s="134"/>
-      <c r="Z53" s="64"/>
+      <c r="R53" s="143"/>
+      <c r="S53" s="126"/>
+      <c r="T53" s="126"/>
+      <c r="U53" s="126"/>
+      <c r="V53" s="126"/>
+      <c r="W53" s="126"/>
+      <c r="X53" s="126"/>
+      <c r="Z53" s="59"/>
     </row>
     <row r="54" spans="1:26" ht="23.1" customHeight="1">
-      <c r="A54" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" s="53"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="54">
+      <c r="A54" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="49">
         <v>0.01</v>
       </c>
-      <c r="F54" s="55">
+      <c r="C54" s="140"/>
+      <c r="D54" s="141"/>
+      <c r="E54" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="F54" s="50">
         <f>C54*E54</f>
         <v>0</v>
       </c>
       <c r="G54" s="7"/>
-      <c r="H54" s="71" t="s">
-        <v>33</v>
+      <c r="H54" s="66" t="s">
+        <v>32</v>
       </c>
       <c r="I54" s="1">
         <v>0.02</v>
       </c>
       <c r="J54" s="7"/>
-      <c r="K54" s="73">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="71" t="s">
-        <v>104</v>
+      <c r="K54" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="66" t="s">
+        <v>94</v>
       </c>
       <c r="N54" s="1">
         <v>0.02</v>
       </c>
       <c r="O54" s="7"/>
-      <c r="P54" s="73">
-        <f t="shared" ref="P54:P56" si="6">O54*0.02</f>
+      <c r="P54" s="68">
+        <f t="shared" ref="P54:P56" si="5">O54*0.02</f>
         <v>0</v>
       </c>
       <c r="Q54" s="7"/>
-      <c r="R54" s="157" t="s">
-        <v>105</v>
-      </c>
-      <c r="S54" s="158"/>
-      <c r="T54" s="158"/>
-      <c r="U54" s="158"/>
-      <c r="V54" s="158"/>
-      <c r="W54" s="158"/>
-      <c r="X54" s="158"/>
-      <c r="Z54" s="64"/>
+      <c r="R54" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="S54" s="145"/>
+      <c r="T54" s="145"/>
+      <c r="U54" s="145"/>
+      <c r="V54" s="145"/>
+      <c r="W54" s="145"/>
+      <c r="X54" s="145"/>
+      <c r="Z54" s="59"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="131"/>
-      <c r="E55" s="54">
+      <c r="A55" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="49">
         <v>0.01</v>
       </c>
-      <c r="F55" s="55">
+      <c r="C55" s="124"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="F55" s="50">
         <f>C55*E55</f>
         <v>0</v>
       </c>
       <c r="G55" s="7"/>
-      <c r="H55" s="71" t="s">
-        <v>36</v>
+      <c r="H55" s="66" t="s">
+        <v>35</v>
       </c>
       <c r="I55" s="1">
         <v>0.02</v>
       </c>
       <c r="J55" s="7"/>
-      <c r="K55" s="73">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="71" t="s">
-        <v>107</v>
+      <c r="K55" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="66" t="s">
+        <v>97</v>
       </c>
       <c r="N55" s="1">
         <v>0.02</v>
       </c>
       <c r="O55" s="7"/>
-      <c r="P55" s="73">
-        <f t="shared" si="6"/>
+      <c r="P55" s="68">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q55" s="7"/>
-      <c r="R55" s="157"/>
-      <c r="S55" s="158"/>
-      <c r="T55" s="158"/>
-      <c r="U55" s="158"/>
-      <c r="V55" s="158"/>
-      <c r="W55" s="158"/>
-      <c r="X55" s="158"/>
-      <c r="Z55" s="64"/>
+      <c r="R55" s="144"/>
+      <c r="S55" s="145"/>
+      <c r="T55" s="145"/>
+      <c r="U55" s="145"/>
+      <c r="V55" s="145"/>
+      <c r="W55" s="145"/>
+      <c r="X55" s="145"/>
+      <c r="Z55" s="59"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="54">
+      <c r="A56" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="49">
         <v>0.08</v>
       </c>
-      <c r="F56" s="55">
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="F56" s="50">
         <f>C56*0.06+D56*0.02</f>
         <v>0</v>
       </c>
       <c r="G56" s="7"/>
-      <c r="H56" s="71" t="s">
-        <v>39</v>
+      <c r="H56" s="66" t="s">
+        <v>38</v>
       </c>
       <c r="I56" s="1">
         <v>0.02</v>
       </c>
       <c r="J56" s="7"/>
-      <c r="K56" s="73">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="71" t="s">
-        <v>109</v>
+      <c r="K56" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="66" t="s">
+        <v>99</v>
       </c>
       <c r="N56" s="1">
         <v>0.02</v>
       </c>
       <c r="O56" s="7"/>
-      <c r="P56" s="73">
-        <f t="shared" si="6"/>
+      <c r="P56" s="68">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q56" s="7"/>
-      <c r="R56" s="159"/>
-      <c r="S56" s="151"/>
-      <c r="T56" s="151"/>
-      <c r="U56" s="151"/>
-      <c r="V56" s="151"/>
-      <c r="W56" s="151"/>
-      <c r="X56" s="151"/>
-      <c r="Z56" s="64"/>
+      <c r="R56" s="146"/>
+      <c r="S56" s="113"/>
+      <c r="T56" s="113"/>
+      <c r="U56" s="113"/>
+      <c r="V56" s="113"/>
+      <c r="W56" s="113"/>
+      <c r="X56" s="113"/>
+      <c r="Z56" s="59"/>
     </row>
     <row r="57" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A57" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="54">
+      <c r="A57" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="49">
         <f>N58</f>
         <v>0.1</v>
       </c>
-      <c r="C57" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" s="131"/>
-      <c r="E57" s="54">
+      <c r="C57" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="124"/>
+      <c r="E57" s="49">
         <v>0.1</v>
       </c>
-      <c r="F57" s="55">
+      <c r="F57" s="50">
         <f>P58</f>
         <v>0</v>
       </c>
       <c r="G57" s="7"/>
-      <c r="H57" s="60" t="s">
-        <v>42</v>
+      <c r="H57" s="55" t="s">
+        <v>41</v>
       </c>
       <c r="I57" s="1">
         <v>0.02</v>
       </c>
-      <c r="J57" s="78"/>
-      <c r="K57" s="63">
+      <c r="J57" s="73"/>
+      <c r="K57" s="58">
         <f>J57*0.02</f>
         <v>0</v>
       </c>
-      <c r="M57" s="71" t="s">
-        <v>110</v>
+      <c r="M57" s="66" t="s">
+        <v>100</v>
       </c>
       <c r="N57" s="1">
         <v>0.02</v>
       </c>
-      <c r="O57" s="78"/>
-      <c r="P57" s="63">
+      <c r="O57" s="73"/>
+      <c r="P57" s="58">
         <f>O57*0.02</f>
         <v>0</v>
       </c>
       <c r="Q57" s="7"/>
-      <c r="R57" s="159"/>
-      <c r="S57" s="151"/>
-      <c r="T57" s="151"/>
-      <c r="U57" s="151"/>
-      <c r="V57" s="151"/>
-      <c r="W57" s="151"/>
-      <c r="X57" s="151"/>
-      <c r="Z57" s="64"/>
+      <c r="R57" s="146"/>
+      <c r="S57" s="113"/>
+      <c r="T57" s="113"/>
+      <c r="U57" s="113"/>
+      <c r="V57" s="113"/>
+      <c r="W57" s="113"/>
+      <c r="X57" s="113"/>
+      <c r="Z57" s="59"/>
     </row>
     <row r="58" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A58" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" s="54">
+      <c r="A58" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="49">
         <v>0.35</v>
       </c>
-      <c r="C58" s="149"/>
-      <c r="D58" s="149"/>
-      <c r="E58" s="54">
+      <c r="C58" s="138"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="49">
         <v>0.35</v>
       </c>
-      <c r="F58" s="55">
+      <c r="F58" s="50">
         <f>C58*E58</f>
         <v>0</v>
       </c>
       <c r="G58" s="7"/>
-      <c r="H58" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="I58" s="80">
+      <c r="H58" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" s="75">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(I52:I57),-5))</f>
         <v>0.1</v>
       </c>
-      <c r="J58" s="107"/>
-      <c r="K58" s="80">
+      <c r="J58" s="94"/>
+      <c r="K58" s="75">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(K52:K57),-5))</f>
         <v>0</v>
       </c>
-      <c r="M58" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="N58" s="80">
+      <c r="M58" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="N58" s="75">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(N52:N57),-5))</f>
         <v>0.1</v>
       </c>
-      <c r="O58" s="107"/>
-      <c r="P58" s="80">
+      <c r="O58" s="94"/>
+      <c r="P58" s="75">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(P52:P57),-5))</f>
         <v>0</v>
       </c>
       <c r="Q58" s="7"/>
-      <c r="Z58" s="64"/>
+      <c r="Z58" s="59"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" s="57"/>
-      <c r="C59" s="150"/>
-      <c r="D59" s="150"/>
-      <c r="E59" s="58">
+      <c r="A59" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="52"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="53">
         <v>0.35</v>
       </c>
-      <c r="F59" s="59">
+      <c r="F59" s="54">
         <f>C59*E59</f>
         <v>0</v>
       </c>
       <c r="G59" s="7"/>
-      <c r="R59" s="151"/>
-      <c r="S59" s="151"/>
-      <c r="T59" s="151"/>
-      <c r="U59" s="151"/>
-      <c r="V59" s="151"/>
-      <c r="W59" s="151"/>
-      <c r="X59" s="151"/>
-      <c r="Z59" s="64"/>
+      <c r="R59" s="113"/>
+      <c r="S59" s="113"/>
+      <c r="T59" s="113"/>
+      <c r="U59" s="113"/>
+      <c r="V59" s="113"/>
+      <c r="W59" s="113"/>
+      <c r="X59" s="113"/>
+      <c r="Z59" s="59"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="61">
+      <c r="A60" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="56">
         <f>SUM(B53:B59)</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C60" s="130"/>
-      <c r="D60" s="130"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="63">
+        <v>0.65</v>
+      </c>
+      <c r="C60" s="123"/>
+      <c r="D60" s="123"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="58">
         <f>SUM(F53:F59)</f>
         <v>0</v>
       </c>
       <c r="G60" s="7"/>
-      <c r="R60" s="151"/>
-      <c r="S60" s="151"/>
-      <c r="T60" s="151"/>
-      <c r="U60" s="151"/>
-      <c r="V60" s="151"/>
-      <c r="W60" s="151"/>
-      <c r="X60" s="151"/>
-      <c r="Z60" s="64"/>
-    </row>
-    <row r="61" spans="1:26" s="64" customFormat="1" ht="16.2" thickBot="1"/>
+      <c r="R60" s="113"/>
+      <c r="S60" s="113"/>
+      <c r="T60" s="113"/>
+      <c r="U60" s="113"/>
+      <c r="V60" s="113"/>
+      <c r="W60" s="113"/>
+      <c r="X60" s="113"/>
+      <c r="Z60" s="59"/>
+    </row>
+    <row r="61" spans="1:26" s="59" customFormat="1" ht="16.2" thickBot="1"/>
     <row r="62" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A62" s="136" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-      <c r="G62" s="87"/>
+      <c r="A62" s="128" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="129"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="129"/>
+      <c r="F62" s="129"/>
+      <c r="G62" s="82"/>
       <c r="H62" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I62" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="J62" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="I62" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="M62" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="N62" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="O62" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="P62" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q62" s="82"/>
+      <c r="Z62" s="59"/>
+    </row>
+    <row r="63" spans="1:26" ht="16.2" thickBot="1">
+      <c r="A63" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="127"/>
+      <c r="E63" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="K62" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="M62" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="N62" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="O62" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="P62" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q62" s="87"/>
-      <c r="Z62" s="64"/>
-    </row>
-    <row r="63" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A63" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="135" t="s">
+      <c r="F63" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="135"/>
-      <c r="E63" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" s="87"/>
-      <c r="H63" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="I63" s="50">
+      <c r="G63" s="82"/>
+      <c r="H63" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="I63" s="45">
         <v>0.03</v>
       </c>
-      <c r="J63" s="123"/>
-      <c r="K63" s="51">
-        <f t="shared" ref="K63:K69" si="7">J63*0.03</f>
-        <v>0</v>
-      </c>
-      <c r="M63" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="N63" s="104">
+      <c r="J63" s="110"/>
+      <c r="K63" s="46">
+        <f t="shared" ref="K63:K69" si="6">J63*0.03</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="N63" s="91">
         <v>0.03</v>
       </c>
-      <c r="P63" s="73">
-        <f t="shared" ref="P63:P64" si="8">O63*0.03</f>
+      <c r="P63" s="68">
+        <f t="shared" ref="P63:P64" si="7">O63*0.03</f>
         <v>0</v>
       </c>
       <c r="Q63" s="7"/>
-      <c r="Z63" s="64"/>
+      <c r="Z63" s="59"/>
     </row>
     <row r="64" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A64" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="B64" s="74">
+      <c r="A64" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="69">
         <f>N73</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="C64" s="143" t="s">
-        <v>116</v>
-      </c>
-      <c r="D64" s="143"/>
-      <c r="E64" s="50">
+      <c r="C64" s="133" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="133"/>
+      <c r="E64" s="45">
         <v>0.3</v>
       </c>
-      <c r="F64" s="51">
+      <c r="F64" s="46">
         <f>P73</f>
         <v>0</v>
       </c>
       <c r="G64" s="7"/>
-      <c r="H64" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="I64" s="54">
+      <c r="H64" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="I64" s="49">
         <v>0.03</v>
       </c>
-      <c r="J64" s="123"/>
-      <c r="K64" s="55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="71" t="s">
-        <v>117</v>
+      <c r="J64" s="110"/>
+      <c r="K64" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="66" t="s">
+        <v>107</v>
       </c>
       <c r="N64" s="1">
         <v>0.03</v>
       </c>
-      <c r="P64" s="73">
-        <f t="shared" si="8"/>
+      <c r="P64" s="68">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q64" s="7"/>
-      <c r="Z64" s="64"/>
+      <c r="Z64" s="59"/>
     </row>
     <row r="65" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A65" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="76">
+      <c r="A65" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="71">
         <f>I70</f>
         <v>0.15</v>
       </c>
-      <c r="C65" s="131" t="s">
-        <v>118</v>
-      </c>
-      <c r="D65" s="131"/>
-      <c r="E65" s="54">
+      <c r="C65" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="124"/>
+      <c r="E65" s="49">
         <v>0.15</v>
       </c>
-      <c r="F65" s="55">
+      <c r="F65" s="50">
         <f>K70</f>
         <v>0</v>
       </c>
       <c r="G65" s="7"/>
-      <c r="H65" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="I65" s="54">
+      <c r="H65" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="I65" s="49">
         <v>0.03</v>
       </c>
-      <c r="J65" s="123"/>
-      <c r="K65" s="55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="71" t="s">
-        <v>119</v>
+      <c r="J65" s="110"/>
+      <c r="K65" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="66" t="s">
+        <v>109</v>
       </c>
       <c r="N65" s="1">
         <v>0.03</v>
       </c>
-      <c r="P65" s="73">
+      <c r="P65" s="68">
         <f>O65*0.03</f>
         <v>0</v>
       </c>
       <c r="Q65" s="7"/>
-      <c r="Z65" s="64"/>
+      <c r="Z65" s="59"/>
     </row>
     <row r="66" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A66" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="76">
+      <c r="A66" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="71">
         <v>0.25</v>
       </c>
-      <c r="C66" s="131"/>
-      <c r="D66" s="131"/>
-      <c r="E66" s="54">
+      <c r="C66" s="124"/>
+      <c r="D66" s="124"/>
+      <c r="E66" s="49">
         <v>0.25</v>
       </c>
-      <c r="F66" s="55">
+      <c r="F66" s="50">
         <f>C66*E66</f>
         <v>0</v>
       </c>
       <c r="G66" s="7"/>
-      <c r="H66" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="I66" s="54">
+      <c r="H66" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="I66" s="49">
         <v>0.03</v>
       </c>
-      <c r="J66" s="123"/>
-      <c r="K66" s="55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="71" t="s">
-        <v>120</v>
+      <c r="J66" s="110"/>
+      <c r="K66" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="66" t="s">
+        <v>110</v>
       </c>
       <c r="N66" s="1">
         <v>0.03</v>
       </c>
-      <c r="P66" s="73">
+      <c r="P66" s="68">
         <f>O66*0.03</f>
         <v>0</v>
       </c>
       <c r="Q66" s="7"/>
-      <c r="Z66" s="64"/>
+      <c r="Z66" s="59"/>
     </row>
     <row r="67" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A67" s="108" t="s">
-        <v>93</v>
-      </c>
-      <c r="B67" s="109"/>
-      <c r="C67" s="144"/>
-      <c r="D67" s="144"/>
-      <c r="E67" s="110">
+      <c r="A67" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="96"/>
+      <c r="C67" s="134"/>
+      <c r="D67" s="134"/>
+      <c r="E67" s="97">
         <v>0.3</v>
       </c>
-      <c r="F67" s="111"/>
+      <c r="F67" s="98">
+        <f>C67*E67</f>
+        <v>0</v>
+      </c>
       <c r="G67" s="7"/>
-      <c r="H67" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="I67" s="54">
+      <c r="H67" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="I67" s="49">
         <v>0.03</v>
       </c>
-      <c r="J67" s="123"/>
-      <c r="K67" s="55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="71" t="s">
-        <v>121</v>
+      <c r="J67" s="110"/>
+      <c r="K67" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="66" t="s">
+        <v>111</v>
       </c>
       <c r="N67" s="1">
         <v>0.03</v>
       </c>
-      <c r="P67" s="73">
-        <f t="shared" ref="P67:P72" si="9">O67*0.03</f>
+      <c r="P67" s="68">
+        <f t="shared" ref="P67:P72" si="8">O67*0.03</f>
         <v>0</v>
       </c>
       <c r="Q67" s="7"/>
-      <c r="Z67" s="64"/>
+      <c r="Z67" s="59"/>
     </row>
     <row r="68" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A68" s="112" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" s="113">
+      <c r="A68" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="100">
         <f>SUM(B64:B67)</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="C68" s="145"/>
-      <c r="D68" s="145"/>
-      <c r="E68" s="114"/>
-      <c r="F68" s="115">
+      <c r="C68" s="135"/>
+      <c r="D68" s="135"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="102">
         <f>SUM(F64:F67)</f>
         <v>0</v>
       </c>
       <c r="G68" s="7"/>
-      <c r="H68" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="I68" s="54">
+      <c r="H68" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="I68" s="49">
         <v>0.03</v>
       </c>
-      <c r="J68" s="123"/>
-      <c r="K68" s="55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="71" t="s">
-        <v>122</v>
+      <c r="J68" s="110"/>
+      <c r="K68" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="66" t="s">
+        <v>112</v>
       </c>
       <c r="N68" s="1">
         <v>0.03</v>
       </c>
-      <c r="P68" s="73">
-        <f t="shared" si="9"/>
+      <c r="P68" s="68">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q68" s="7"/>
-      <c r="Z68" s="64"/>
+      <c r="Z68" s="59"/>
     </row>
     <row r="69" spans="1:26" ht="16.2" thickBot="1">
-      <c r="H69" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="I69" s="54">
+      <c r="H69" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="I69" s="49">
         <v>0.03</v>
       </c>
-      <c r="J69" s="123"/>
-      <c r="K69" s="59">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="71" t="s">
-        <v>124</v>
+      <c r="J69" s="110"/>
+      <c r="K69" s="54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="66" t="s">
+        <v>114</v>
       </c>
       <c r="N69" s="1">
         <v>0.03</v>
       </c>
-      <c r="P69" s="73">
-        <f t="shared" si="9"/>
+      <c r="P69" s="68">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q69" s="7"/>
-      <c r="Z69" s="64"/>
+      <c r="Z69" s="59"/>
     </row>
     <row r="70" spans="1:26" ht="16.2" thickBot="1">
-      <c r="H70" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="I70" s="116">
+      <c r="H70" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" s="103">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(I63:I69),-5))</f>
         <v>0.15</v>
       </c>
-      <c r="J70" s="78"/>
-      <c r="K70" s="116">
+      <c r="J70" s="73"/>
+      <c r="K70" s="103">
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(K63:K69),-5))</f>
         <v>0</v>
       </c>
-      <c r="M70" s="71" t="s">
-        <v>125</v>
+      <c r="M70" s="66" t="s">
+        <v>115</v>
       </c>
       <c r="N70" s="1">
         <v>0.03</v>
       </c>
-      <c r="P70" s="73">
-        <f t="shared" si="9"/>
+      <c r="P70" s="68">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q70" s="7"/>
-      <c r="Z70" s="64"/>
+      <c r="Z70" s="59"/>
     </row>
     <row r="71" spans="1:26">
-      <c r="M71" s="71" t="s">
-        <v>126</v>
+      <c r="M71" s="66" t="s">
+        <v>116</v>
       </c>
       <c r="N71" s="1">
         <v>0.03</v>
       </c>
-      <c r="P71" s="73">
-        <f t="shared" si="9"/>
+      <c r="P71" s="68">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q71" s="7"/>
-      <c r="Z71" s="64"/>
+      <c r="Z71" s="59"/>
     </row>
     <row r="72" spans="1:26" ht="16.2" thickBot="1">
-      <c r="M72" s="60" t="s">
-        <v>127</v>
+      <c r="M72" s="55" t="s">
+        <v>117</v>
       </c>
       <c r="N72" s="1">
         <v>0.03</v>
       </c>
-      <c r="P72" s="63">
-        <f t="shared" si="9"/>
+      <c r="P72" s="58">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q72" s="7"/>
-      <c r="Z72" s="64"/>
+      <c r="Z72" s="59"/>
     </row>
     <row r="73" spans="1:26">
       <c r="M73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N73" s="1">
         <f>SUM(N63:N72)</f>
@@ -3916,12 +3680,11 @@
         <v>0</v>
       </c>
       <c r="Q73" s="7"/>
-      <c r="Z73" s="64"/>
-    </row>
-    <row r="74" spans="1:26" s="64" customFormat="1"/>
+      <c r="Z73" s="59"/>
+    </row>
+    <row r="74" spans="1:26" s="59" customFormat="1"/>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="C21:D21"/>
+  <mergeCells count="55">
     <mergeCell ref="R59:X60"/>
     <mergeCell ref="R52:X53"/>
     <mergeCell ref="R54:X55"/>
@@ -3931,7 +3694,6 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C57:D57"/>
@@ -3941,7 +3703,7 @@
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A51:F51"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C54:D54"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="C66:D66"/>
@@ -3963,23 +3725,25 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="W15:W16"/>
     <mergeCell ref="W19:W20"/>
     <mergeCell ref="W21:W22"/>
     <mergeCell ref="W23:W24"/>
     <mergeCell ref="Q15:V16"/>
     <mergeCell ref="W17:W18"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F42 F45" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/GPAcalculator/SEMESTER 1 MARKINGS.xlsx
+++ b/GPAcalculator/SEMESTER 1 MARKINGS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Project\GPAcalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66421BF1-6FBD-43CF-9AA2-AF7431FA1BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567F139F-2163-48BB-B18E-4BD6F1DF177F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="675" windowWidth="29040" windowHeight="15720" xr2:uid="{DFF6C743-F59C-B24B-B33E-8C4CB8C302DE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DFF6C743-F59C-B24B-B33E-8C4CB8C302DE}"/>
   </bookViews>
   <sheets>
     <sheet name="TOTAL" sheetId="6" r:id="rId1"/>
@@ -1187,116 +1187,116 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B6EF2D-BB0E-BD49-8BD6-7B85E3395827}">
   <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
@@ -1656,29 +1656,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
+      <c r="A1" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
       <c r="Z1" s="59"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
       <c r="Z2" s="59"/>
     </row>
     <row r="3" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
       <c r="Z3" s="59"/>
     </row>
     <row r="4" spans="1:26" ht="16.2" thickBot="1">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="B7" s="64">
         <f>$B$32</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C7" s="64">
         <f>$F$32</f>
@@ -1809,14 +1809,14 @@
     </row>
     <row r="12" spans="1:26" s="59" customFormat="1" ht="16.2" thickBot="1"/>
     <row r="13" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A13" s="128" t="s">
+      <c r="A13" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
       <c r="H13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1838,14 +1838,14 @@
       <c r="P13" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="Q13" s="121" t="s">
+      <c r="Q13" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="121"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="121"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="121"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="137"/>
+      <c r="V13" s="137"/>
       <c r="Z13" s="59"/>
     </row>
     <row r="14" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
@@ -1855,10 +1855,10 @@
       <c r="B14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="127"/>
+      <c r="D14" s="120"/>
       <c r="E14" s="39" t="s">
         <v>15</v>
       </c>
@@ -1884,12 +1884,12 @@
         <f>(O14)*(0.15/8)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="121"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="121"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
       <c r="Z14" s="59"/>
     </row>
     <row r="15" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
@@ -1900,10 +1900,10 @@
         <f>N24</f>
         <v>0.15</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="132"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="45">
         <v>0.15</v>
       </c>
@@ -1929,15 +1929,15 @@
         <f t="shared" ref="P15:P23" si="0">(O15)*(0.15/8)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="120" t="s">
+      <c r="Q15" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="R15" s="121"/>
-      <c r="S15" s="121"/>
-      <c r="T15" s="121"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="119" t="s">
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="146" t="s">
         <v>29</v>
       </c>
       <c r="Z15" s="59"/>
@@ -1949,8 +1949,8 @@
       <c r="B16" s="72">
         <v>0.15</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="112"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="143"/>
       <c r="E16" s="49">
         <v>0.15</v>
       </c>
@@ -1977,13 +1977,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="121"/>
-      <c r="S16" s="121"/>
-      <c r="T16" s="121"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="121"/>
-      <c r="W16" s="119"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="146"/>
       <c r="Z16" s="59"/>
     </row>
     <row r="17" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
@@ -1993,8 +1993,8 @@
       <c r="B17" s="72">
         <v>0.2</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="112"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="143"/>
       <c r="E17" s="49">
         <v>0.2</v>
       </c>
@@ -2021,15 +2021,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="120" t="s">
+      <c r="Q17" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="121"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="121"/>
-      <c r="U17" s="121"/>
-      <c r="V17" s="121"/>
-      <c r="W17" s="119" t="s">
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="146" t="s">
         <v>29</v>
       </c>
       <c r="Z17" s="59"/>
@@ -2039,8 +2039,8 @@
         <v>37</v>
       </c>
       <c r="B18" s="72"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="112"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="143"/>
       <c r="E18" s="49">
         <v>0.35</v>
       </c>
@@ -2059,13 +2059,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="121"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="121"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="121"/>
-      <c r="W18" s="119"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="146"/>
       <c r="Z18" s="59"/>
     </row>
     <row r="19" spans="1:26" ht="26.1" customHeight="1" thickBot="1">
@@ -2075,8 +2075,8 @@
       <c r="B19" s="77">
         <v>0.05</v>
       </c>
-      <c r="C19" s="147"/>
-      <c r="D19" s="148"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
       <c r="E19" s="78">
         <v>0.05</v>
       </c>
@@ -2085,13 +2085,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="80"/>
-      <c r="H19" s="115" t="s">
+      <c r="H19" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="116"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="144"/>
       <c r="M19" s="47" t="s">
         <v>41</v>
       </c>
@@ -2103,15 +2103,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="125" t="s">
+      <c r="Q19" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="R19" s="126"/>
-      <c r="S19" s="126"/>
-      <c r="T19" s="126"/>
-      <c r="U19" s="126"/>
-      <c r="V19" s="126"/>
-      <c r="W19" s="119"/>
+      <c r="R19" s="115"/>
+      <c r="S19" s="115"/>
+      <c r="T19" s="115"/>
+      <c r="U19" s="115"/>
+      <c r="V19" s="115"/>
+      <c r="W19" s="146"/>
       <c r="Z19" s="59"/>
     </row>
     <row r="20" spans="1:26" ht="17.100000000000001" customHeight="1" thickBot="1">
@@ -2121,8 +2121,8 @@
       <c r="B20" s="81">
         <v>0.1</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="143"/>
       <c r="E20" s="53">
         <v>0.1</v>
       </c>
@@ -2136,7 +2136,7 @@
       <c r="I20" s="113"/>
       <c r="J20" s="113"/>
       <c r="K20" s="113"/>
-      <c r="L20" s="114"/>
+      <c r="L20" s="148"/>
       <c r="M20" s="47" t="s">
         <v>45</v>
       </c>
@@ -2148,13 +2148,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="126"/>
-      <c r="S20" s="126"/>
-      <c r="T20" s="126"/>
-      <c r="U20" s="126"/>
-      <c r="V20" s="126"/>
-      <c r="W20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="115"/>
+      <c r="S20" s="115"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="115"/>
+      <c r="W20" s="146"/>
       <c r="Z20" s="59"/>
     </row>
     <row r="21" spans="1:26" ht="16.2" thickBot="1">
@@ -2165,8 +2165,8 @@
         <f>SUM(B15:B20)</f>
         <v>0.65</v>
       </c>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
       <c r="E21" s="56">
         <f>SUM(E15:E20)</f>
         <v>1</v>
@@ -2176,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="115" t="s">
+      <c r="H21" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="116"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="144"/>
       <c r="M21" s="47" t="s">
         <v>47</v>
       </c>
@@ -2194,15 +2194,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="125" t="s">
+      <c r="Q21" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="R21" s="126"/>
-      <c r="S21" s="126"/>
-      <c r="T21" s="126"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="126"/>
-      <c r="W21" s="119" t="s">
+      <c r="R21" s="115"/>
+      <c r="S21" s="115"/>
+      <c r="T21" s="115"/>
+      <c r="U21" s="115"/>
+      <c r="V21" s="115"/>
+      <c r="W21" s="146" t="s">
         <v>29</v>
       </c>
       <c r="Z21" s="59"/>
@@ -2219,13 +2219,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="126"/>
-      <c r="S22" s="126"/>
-      <c r="T22" s="126"/>
-      <c r="U22" s="126"/>
-      <c r="V22" s="126"/>
-      <c r="W22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="115"/>
+      <c r="S22" s="115"/>
+      <c r="T22" s="115"/>
+      <c r="U22" s="115"/>
+      <c r="V22" s="115"/>
+      <c r="W22" s="146"/>
       <c r="Z22" s="59"/>
     </row>
     <row r="23" spans="1:26" ht="16.2" thickBot="1">
@@ -2241,15 +2241,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="125" t="s">
+      <c r="Q23" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
-      <c r="T23" s="126"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="126"/>
-      <c r="W23" s="119" t="s">
+      <c r="R23" s="115"/>
+      <c r="S23" s="115"/>
+      <c r="T23" s="115"/>
+      <c r="U23" s="115"/>
+      <c r="V23" s="115"/>
+      <c r="W23" s="146" t="s">
         <v>29</v>
       </c>
       <c r="Z23" s="59"/>
@@ -2268,27 +2268,27 @@
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(P14:P23),-8))</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="126"/>
-      <c r="T24" s="126"/>
-      <c r="U24" s="126"/>
-      <c r="V24" s="126"/>
-      <c r="W24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="115"/>
+      <c r="S24" s="115"/>
+      <c r="T24" s="115"/>
+      <c r="U24" s="115"/>
+      <c r="V24" s="115"/>
+      <c r="W24" s="146"/>
       <c r="Z24" s="59"/>
     </row>
     <row r="25" spans="1:26" s="59" customFormat="1" ht="16.2" thickBot="1">
       <c r="F25" s="85"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="128" t="s">
+      <c r="A26" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="130"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="131"/>
       <c r="G26" s="22"/>
       <c r="H26" s="30" t="s">
         <v>53</v>
@@ -2324,8 +2324,8 @@
       <c r="B27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
       <c r="E27" s="22" t="s">
         <v>15</v>
       </c>
@@ -2366,10 +2366,10 @@
         <f>N37</f>
         <v>0.3</v>
       </c>
-      <c r="C28" s="117" t="s">
+      <c r="C28" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="117"/>
+      <c r="D28" s="145"/>
       <c r="E28" s="4">
         <v>0.3</v>
       </c>
@@ -2411,10 +2411,10 @@
         <f>I37</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="C29" s="136" t="s">
+      <c r="C29" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="136"/>
+      <c r="D29" s="121"/>
       <c r="E29" s="5">
         <v>0.4</v>
       </c>
@@ -2494,9 +2494,7 @@
       <c r="A31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="6">
-        <v>0.25</v>
-      </c>
+      <c r="B31" s="6"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="6">
@@ -2538,7 +2536,7 @@
       </c>
       <c r="B32" s="27">
         <f>SUM(B28:B31)</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -2706,12 +2704,12 @@
     </row>
     <row r="38" spans="1:26" s="59" customFormat="1"/>
     <row r="39" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A39" s="128" t="s">
+      <c r="A39" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="129"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
       <c r="Z39" s="59"/>
     </row>
     <row r="40" spans="1:26" ht="16.2" thickBot="1">
@@ -2721,10 +2719,10 @@
       <c r="B40" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="118" t="s">
+      <c r="C40" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="118"/>
+      <c r="D40" s="122"/>
       <c r="E40" s="39" t="s">
         <v>15</v>
       </c>
@@ -2740,8 +2738,8 @@
       <c r="B41" s="23">
         <v>0.1</v>
       </c>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
       <c r="E41" s="4">
         <v>0.1</v>
       </c>
@@ -2774,8 +2772,8 @@
       <c r="B43" s="16">
         <v>0.15</v>
       </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
       <c r="E43" s="5">
         <v>0.15</v>
       </c>
@@ -2792,8 +2790,8 @@
       <c r="B44" s="16">
         <v>0.15</v>
       </c>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
       <c r="E44" s="5">
         <v>0.15</v>
       </c>
@@ -2824,8 +2822,8 @@
         <v>86</v>
       </c>
       <c r="B46" s="18"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="123"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="128"/>
       <c r="E46" s="6">
         <v>0.25</v>
       </c>
@@ -2843,8 +2841,8 @@
         <f>SUM(B41:B46)</f>
         <v>0.75</v>
       </c>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
       <c r="E47" s="37"/>
       <c r="F47" s="28">
         <f>SUM(F41:F46)</f>
@@ -2862,14 +2860,14 @@
     </row>
     <row r="50" spans="1:26" s="59" customFormat="1"/>
     <row r="51" spans="1:26" ht="23.4" thickBot="1">
-      <c r="A51" s="128" t="s">
+      <c r="A51" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="129"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="130"/>
+      <c r="B51" s="130"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="131"/>
       <c r="G51" s="22"/>
       <c r="H51" s="8" t="s">
         <v>16</v>
@@ -2908,10 +2906,10 @@
       <c r="B52" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="127" t="s">
+      <c r="C52" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="127"/>
+      <c r="D52" s="120"/>
       <c r="E52" s="42" t="s">
         <v>15</v>
       </c>
@@ -2942,15 +2940,15 @@
         <v>0</v>
       </c>
       <c r="Q52" s="7"/>
-      <c r="R52" s="143" t="s">
+      <c r="R52" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="S52" s="126"/>
-      <c r="T52" s="126"/>
-      <c r="U52" s="126"/>
-      <c r="V52" s="126"/>
-      <c r="W52" s="126"/>
-      <c r="X52" s="126"/>
+      <c r="S52" s="115"/>
+      <c r="T52" s="115"/>
+      <c r="U52" s="115"/>
+      <c r="V52" s="115"/>
+      <c r="W52" s="115"/>
+      <c r="X52" s="115"/>
       <c r="Z52" s="59"/>
     </row>
     <row r="53" spans="1:26" ht="23.1" customHeight="1">
@@ -2961,10 +2959,10 @@
         <f>I58</f>
         <v>0.1</v>
       </c>
-      <c r="C53" s="133" t="s">
+      <c r="C53" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="133"/>
+      <c r="D53" s="132"/>
       <c r="E53" s="45">
         <v>0.1</v>
       </c>
@@ -2996,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q53" s="7"/>
-      <c r="R53" s="143"/>
-      <c r="S53" s="126"/>
-      <c r="T53" s="126"/>
-      <c r="U53" s="126"/>
-      <c r="V53" s="126"/>
-      <c r="W53" s="126"/>
-      <c r="X53" s="126"/>
+      <c r="R53" s="114"/>
+      <c r="S53" s="115"/>
+      <c r="T53" s="115"/>
+      <c r="U53" s="115"/>
+      <c r="V53" s="115"/>
+      <c r="W53" s="115"/>
+      <c r="X53" s="115"/>
       <c r="Z53" s="59"/>
     </row>
     <row r="54" spans="1:26" ht="23.1" customHeight="1">
@@ -3012,8 +3010,8 @@
       <c r="B54" s="49">
         <v>0.01</v>
       </c>
-      <c r="C54" s="140"/>
-      <c r="D54" s="141"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="134"/>
       <c r="E54" s="49">
         <v>0.01</v>
       </c>
@@ -3045,15 +3043,15 @@
         <v>0</v>
       </c>
       <c r="Q54" s="7"/>
-      <c r="R54" s="144" t="s">
+      <c r="R54" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="S54" s="145"/>
-      <c r="T54" s="145"/>
-      <c r="U54" s="145"/>
-      <c r="V54" s="145"/>
-      <c r="W54" s="145"/>
-      <c r="X54" s="145"/>
+      <c r="S54" s="117"/>
+      <c r="T54" s="117"/>
+      <c r="U54" s="117"/>
+      <c r="V54" s="117"/>
+      <c r="W54" s="117"/>
+      <c r="X54" s="117"/>
       <c r="Z54" s="59"/>
     </row>
     <row r="55" spans="1:26">
@@ -3063,8 +3061,8 @@
       <c r="B55" s="49">
         <v>0.01</v>
       </c>
-      <c r="C55" s="124"/>
-      <c r="D55" s="124"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
       <c r="E55" s="49">
         <v>0.01</v>
       </c>
@@ -3096,13 +3094,13 @@
         <v>0</v>
       </c>
       <c r="Q55" s="7"/>
-      <c r="R55" s="144"/>
-      <c r="S55" s="145"/>
-      <c r="T55" s="145"/>
-      <c r="U55" s="145"/>
-      <c r="V55" s="145"/>
-      <c r="W55" s="145"/>
-      <c r="X55" s="145"/>
+      <c r="R55" s="116"/>
+      <c r="S55" s="117"/>
+      <c r="T55" s="117"/>
+      <c r="U55" s="117"/>
+      <c r="V55" s="117"/>
+      <c r="W55" s="117"/>
+      <c r="X55" s="117"/>
       <c r="Z55" s="59"/>
     </row>
     <row r="56" spans="1:26">
@@ -3145,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="7"/>
-      <c r="R56" s="146"/>
+      <c r="R56" s="118"/>
       <c r="S56" s="113"/>
       <c r="T56" s="113"/>
       <c r="U56" s="113"/>
@@ -3162,10 +3160,10 @@
         <f>N58</f>
         <v>0.1</v>
       </c>
-      <c r="C57" s="124" t="s">
+      <c r="C57" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="124"/>
+      <c r="D57" s="125"/>
       <c r="E57" s="49">
         <v>0.1</v>
       </c>
@@ -3197,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="7"/>
-      <c r="R57" s="146"/>
+      <c r="R57" s="118"/>
       <c r="S57" s="113"/>
       <c r="T57" s="113"/>
       <c r="U57" s="113"/>
@@ -3213,8 +3211,8 @@
       <c r="B58" s="49">
         <v>0.35</v>
       </c>
-      <c r="C58" s="138"/>
-      <c r="D58" s="138"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="126"/>
       <c r="E58" s="49">
         <v>0.35</v>
       </c>
@@ -3255,8 +3253,8 @@
         <v>86</v>
       </c>
       <c r="B59" s="52"/>
-      <c r="C59" s="139"/>
-      <c r="D59" s="139"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="127"/>
       <c r="E59" s="53">
         <v>0.35</v>
       </c>
@@ -3282,8 +3280,8 @@
         <f>SUM(B53:B59)</f>
         <v>0.65</v>
       </c>
-      <c r="C60" s="123"/>
-      <c r="D60" s="123"/>
+      <c r="C60" s="128"/>
+      <c r="D60" s="128"/>
       <c r="E60" s="57"/>
       <c r="F60" s="58">
         <f>SUM(F53:F59)</f>
@@ -3301,14 +3299,14 @@
     </row>
     <row r="61" spans="1:26" s="59" customFormat="1" ht="16.2" thickBot="1"/>
     <row r="62" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A62" s="128" t="s">
+      <c r="A62" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="129"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="129"/>
-      <c r="F62" s="129"/>
+      <c r="B62" s="130"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
       <c r="G62" s="82"/>
       <c r="H62" s="8" t="s">
         <v>58</v>
@@ -3344,10 +3342,10 @@
       <c r="B63" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="127" t="s">
+      <c r="C63" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="127"/>
+      <c r="D63" s="120"/>
       <c r="E63" s="42" t="s">
         <v>15</v>
       </c>
@@ -3387,10 +3385,10 @@
         <f>N73</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="C64" s="133" t="s">
+      <c r="C64" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="133"/>
+      <c r="D64" s="132"/>
       <c r="E64" s="45">
         <v>0.3</v>
       </c>
@@ -3431,10 +3429,10 @@
         <f>I70</f>
         <v>0.15</v>
       </c>
-      <c r="C65" s="124" t="s">
+      <c r="C65" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="124"/>
+      <c r="D65" s="125"/>
       <c r="E65" s="49">
         <v>0.15</v>
       </c>
@@ -3474,8 +3472,8 @@
       <c r="B66" s="71">
         <v>0.25</v>
       </c>
-      <c r="C66" s="124"/>
-      <c r="D66" s="124"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="125"/>
       <c r="E66" s="49">
         <v>0.25</v>
       </c>
@@ -3513,8 +3511,8 @@
         <v>86</v>
       </c>
       <c r="B67" s="96"/>
-      <c r="C67" s="134"/>
-      <c r="D67" s="134"/>
+      <c r="C67" s="135"/>
+      <c r="D67" s="135"/>
       <c r="E67" s="97">
         <v>0.3</v>
       </c>
@@ -3555,8 +3553,8 @@
         <f>SUM(B64:B67)</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="C68" s="135"/>
-      <c r="D68" s="135"/>
+      <c r="C68" s="136"/>
+      <c r="D68" s="136"/>
       <c r="E68" s="101"/>
       <c r="F68" s="102">
         <f>SUM(F64:F67)</f>
@@ -3685,30 +3683,21 @@
     <row r="74" spans="1:26" s="59" customFormat="1"/>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="R59:X60"/>
-    <mergeCell ref="R52:X53"/>
-    <mergeCell ref="R54:X55"/>
-    <mergeCell ref="R56:X57"/>
-    <mergeCell ref="Q23:V24"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="Q15:V16"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:L20"/>
     <mergeCell ref="Q13:V14"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:C3"/>
@@ -3725,21 +3714,30 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="Q15:V16"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="R59:X60"/>
+    <mergeCell ref="R52:X53"/>
+    <mergeCell ref="R54:X55"/>
+    <mergeCell ref="R56:X57"/>
+    <mergeCell ref="Q23:V24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/GPAcalculator/SEMESTER 1 MARKINGS.xlsx
+++ b/GPAcalculator/SEMESTER 1 MARKINGS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Project\GPAcalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567F139F-2163-48BB-B18E-4BD6F1DF177F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41ABCDB-3D48-4467-AF0B-8A69386D5E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DFF6C743-F59C-B24B-B33E-8C4CB8C302DE}"/>
   </bookViews>
@@ -1190,14 +1190,104 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1205,96 +1295,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B6EF2D-BB0E-BD49-8BD6-7B85E3395827}">
   <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
@@ -1656,29 +1656,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
+      <c r="A1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
       <c r="Z1" s="59"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="138"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
       <c r="Z2" s="59"/>
     </row>
     <row r="3" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
       <c r="Z3" s="59"/>
     </row>
     <row r="4" spans="1:26" ht="16.2" thickBot="1">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="B5" s="64">
         <f>$B$21</f>
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C5" s="64">
         <f>$F$21</f>
@@ -1809,14 +1809,14 @@
     </row>
     <row r="12" spans="1:26" s="59" customFormat="1" ht="16.2" thickBot="1"/>
     <row r="13" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="133"/>
       <c r="H13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1838,14 +1838,14 @@
       <c r="P13" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="Q13" s="137" t="s">
+      <c r="Q13" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="137"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="137"/>
-      <c r="U13" s="137"/>
-      <c r="V13" s="137"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="119"/>
       <c r="Z13" s="59"/>
     </row>
     <row r="14" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
@@ -1855,10 +1855,10 @@
       <c r="B14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="120"/>
+      <c r="D14" s="130"/>
       <c r="E14" s="39" t="s">
         <v>15</v>
       </c>
@@ -1884,12 +1884,12 @@
         <f>(O14)*(0.15/8)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="137"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="137"/>
-      <c r="V14" s="137"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
       <c r="Z14" s="59"/>
     </row>
     <row r="15" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
@@ -1900,10 +1900,10 @@
         <f>N24</f>
         <v>0.15</v>
       </c>
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="141"/>
+      <c r="D15" s="135"/>
       <c r="E15" s="45">
         <v>0.15</v>
       </c>
@@ -1929,15 +1929,15 @@
         <f t="shared" ref="P15:P23" si="0">(O15)*(0.15/8)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="139" t="s">
+      <c r="Q15" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="R15" s="137"/>
-      <c r="S15" s="137"/>
-      <c r="T15" s="137"/>
-      <c r="U15" s="137"/>
-      <c r="V15" s="137"/>
-      <c r="W15" s="146" t="s">
+      <c r="R15" s="119"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="119"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="119"/>
+      <c r="W15" s="117" t="s">
         <v>29</v>
       </c>
       <c r="Z15" s="59"/>
@@ -1949,8 +1949,8 @@
       <c r="B16" s="72">
         <v>0.15</v>
       </c>
-      <c r="C16" s="142"/>
-      <c r="D16" s="143"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="49">
         <v>0.15</v>
       </c>
@@ -1977,13 +1977,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="139"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="137"/>
-      <c r="U16" s="137"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="146"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="117"/>
       <c r="Z16" s="59"/>
     </row>
     <row r="17" spans="1:26" ht="18.899999999999999" customHeight="1" thickBot="1">
@@ -1993,8 +1993,8 @@
       <c r="B17" s="72">
         <v>0.2</v>
       </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="143"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="122"/>
       <c r="E17" s="49">
         <v>0.2</v>
       </c>
@@ -2021,15 +2021,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="139" t="s">
+      <c r="Q17" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="137"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="146" t="s">
+      <c r="R17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="119"/>
+      <c r="W17" s="117" t="s">
         <v>29</v>
       </c>
       <c r="Z17" s="59"/>
@@ -2038,9 +2038,11 @@
       <c r="A18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="143"/>
+      <c r="B18" s="49">
+        <v>0.35</v>
+      </c>
+      <c r="C18" s="121"/>
+      <c r="D18" s="122"/>
       <c r="E18" s="49">
         <v>0.35</v>
       </c>
@@ -2059,13 +2061,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="139"/>
-      <c r="R18" s="137"/>
-      <c r="S18" s="137"/>
-      <c r="T18" s="137"/>
-      <c r="U18" s="137"/>
-      <c r="V18" s="137"/>
-      <c r="W18" s="146"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="119"/>
+      <c r="W18" s="117"/>
       <c r="Z18" s="59"/>
     </row>
     <row r="19" spans="1:26" ht="26.1" customHeight="1" thickBot="1">
@@ -2085,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="80"/>
-      <c r="H19" s="124" t="s">
+      <c r="H19" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="124"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="144"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="114"/>
       <c r="M19" s="47" t="s">
         <v>41</v>
       </c>
@@ -2103,15 +2105,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="119" t="s">
+      <c r="Q19" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="R19" s="115"/>
-      <c r="S19" s="115"/>
-      <c r="T19" s="115"/>
-      <c r="U19" s="115"/>
-      <c r="V19" s="115"/>
-      <c r="W19" s="146"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="129"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="129"/>
+      <c r="V19" s="129"/>
+      <c r="W19" s="117"/>
       <c r="Z19" s="59"/>
     </row>
     <row r="20" spans="1:26" ht="17.100000000000001" customHeight="1" thickBot="1">
@@ -2121,8 +2123,8 @@
       <c r="B20" s="81">
         <v>0.1</v>
       </c>
-      <c r="C20" s="142"/>
-      <c r="D20" s="143"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="122"/>
       <c r="E20" s="53">
         <v>0.1</v>
       </c>
@@ -2130,13 +2132,13 @@
         <f>C20*0.1</f>
         <v>0</v>
       </c>
-      <c r="H20" s="113" t="s">
+      <c r="H20" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="148"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="124"/>
       <c r="M20" s="47" t="s">
         <v>45</v>
       </c>
@@ -2148,13 +2150,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="115"/>
-      <c r="S20" s="115"/>
-      <c r="T20" s="115"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="115"/>
-      <c r="W20" s="146"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="129"/>
+      <c r="T20" s="129"/>
+      <c r="U20" s="129"/>
+      <c r="V20" s="129"/>
+      <c r="W20" s="117"/>
       <c r="Z20" s="59"/>
     </row>
     <row r="21" spans="1:26" ht="16.2" thickBot="1">
@@ -2163,10 +2165,10 @@
       </c>
       <c r="B21" s="73">
         <f>SUM(B15:B20)</f>
-        <v>0.65</v>
-      </c>
-      <c r="C21" s="147"/>
-      <c r="D21" s="147"/>
+        <v>1</v>
+      </c>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
       <c r="E21" s="56">
         <f>SUM(E15:E20)</f>
         <v>1</v>
@@ -2176,13 +2178,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="124" t="s">
+      <c r="H21" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="144"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="114"/>
       <c r="M21" s="47" t="s">
         <v>47</v>
       </c>
@@ -2194,15 +2196,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="119" t="s">
+      <c r="Q21" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="R21" s="115"/>
-      <c r="S21" s="115"/>
-      <c r="T21" s="115"/>
-      <c r="U21" s="115"/>
-      <c r="V21" s="115"/>
-      <c r="W21" s="146" t="s">
+      <c r="R21" s="129"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="129"/>
+      <c r="U21" s="129"/>
+      <c r="V21" s="129"/>
+      <c r="W21" s="117" t="s">
         <v>29</v>
       </c>
       <c r="Z21" s="59"/>
@@ -2219,13 +2221,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="115"/>
-      <c r="S22" s="115"/>
-      <c r="T22" s="115"/>
-      <c r="U22" s="115"/>
-      <c r="V22" s="115"/>
-      <c r="W22" s="146"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="129"/>
+      <c r="T22" s="129"/>
+      <c r="U22" s="129"/>
+      <c r="V22" s="129"/>
+      <c r="W22" s="117"/>
       <c r="Z22" s="59"/>
     </row>
     <row r="23" spans="1:26" ht="16.2" thickBot="1">
@@ -2241,15 +2243,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="119" t="s">
+      <c r="Q23" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="R23" s="115"/>
-      <c r="S23" s="115"/>
-      <c r="T23" s="115"/>
-      <c r="U23" s="115"/>
-      <c r="V23" s="115"/>
-      <c r="W23" s="146" t="s">
+      <c r="R23" s="129"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="129"/>
+      <c r="V23" s="129"/>
+      <c r="W23" s="117" t="s">
         <v>29</v>
       </c>
       <c r="Z23" s="59"/>
@@ -2268,27 +2270,27 @@
         <f>SUM(_xlfn.TAKE(_xlfn._xlws.SORT(P14:P23),-8))</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="115"/>
-      <c r="S24" s="115"/>
-      <c r="T24" s="115"/>
-      <c r="U24" s="115"/>
-      <c r="V24" s="115"/>
-      <c r="W24" s="146"/>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="129"/>
+      <c r="U24" s="129"/>
+      <c r="V24" s="129"/>
+      <c r="W24" s="117"/>
       <c r="Z24" s="59"/>
     </row>
     <row r="25" spans="1:26" s="59" customFormat="1" ht="16.2" thickBot="1">
       <c r="F25" s="85"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="129" t="s">
+      <c r="A26" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="130"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="131"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="133"/>
       <c r="G26" s="22"/>
       <c r="H26" s="30" t="s">
         <v>53</v>
@@ -2324,8 +2326,8 @@
       <c r="B27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
       <c r="E27" s="22" t="s">
         <v>15</v>
       </c>
@@ -2366,10 +2368,10 @@
         <f>N37</f>
         <v>0.3</v>
       </c>
-      <c r="C28" s="145" t="s">
+      <c r="C28" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="145"/>
+      <c r="D28" s="115"/>
       <c r="E28" s="4">
         <v>0.3</v>
       </c>
@@ -2411,10 +2413,10 @@
         <f>I37</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="C29" s="121" t="s">
+      <c r="C29" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="121"/>
+      <c r="D29" s="139"/>
       <c r="E29" s="5">
         <v>0.4</v>
       </c>
@@ -2704,12 +2706,12 @@
     </row>
     <row r="38" spans="1:26" s="59" customFormat="1"/>
     <row r="39" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A39" s="129" t="s">
+      <c r="A39" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
+      <c r="B39" s="132"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="132"/>
       <c r="Z39" s="59"/>
     </row>
     <row r="40" spans="1:26" ht="16.2" thickBot="1">
@@ -2719,10 +2721,10 @@
       <c r="B40" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="122" t="s">
+      <c r="C40" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="122"/>
+      <c r="D40" s="116"/>
       <c r="E40" s="39" t="s">
         <v>15</v>
       </c>
@@ -2738,8 +2740,8 @@
       <c r="B41" s="23">
         <v>0.1</v>
       </c>
-      <c r="C41" s="123"/>
-      <c r="D41" s="123"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
       <c r="E41" s="4">
         <v>0.1</v>
       </c>
@@ -2772,8 +2774,8 @@
       <c r="B43" s="16">
         <v>0.15</v>
       </c>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
       <c r="E43" s="5">
         <v>0.15</v>
       </c>
@@ -2790,8 +2792,8 @@
       <c r="B44" s="16">
         <v>0.15</v>
       </c>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
       <c r="E44" s="5">
         <v>0.15</v>
       </c>
@@ -2822,8 +2824,8 @@
         <v>86</v>
       </c>
       <c r="B46" s="18"/>
-      <c r="C46" s="128"/>
-      <c r="D46" s="128"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="126"/>
       <c r="E46" s="6">
         <v>0.25</v>
       </c>
@@ -2841,8 +2843,8 @@
         <f>SUM(B41:B46)</f>
         <v>0.75</v>
       </c>
-      <c r="C47" s="122"/>
-      <c r="D47" s="122"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
       <c r="E47" s="37"/>
       <c r="F47" s="28">
         <f>SUM(F41:F46)</f>
@@ -2860,14 +2862,14 @@
     </row>
     <row r="50" spans="1:26" s="59" customFormat="1"/>
     <row r="51" spans="1:26" ht="23.4" thickBot="1">
-      <c r="A51" s="129" t="s">
+      <c r="A51" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="130"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="130"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="131"/>
+      <c r="B51" s="132"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="133"/>
       <c r="G51" s="22"/>
       <c r="H51" s="8" t="s">
         <v>16</v>
@@ -2906,10 +2908,10 @@
       <c r="B52" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="120" t="s">
+      <c r="C52" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="120"/>
+      <c r="D52" s="130"/>
       <c r="E52" s="42" t="s">
         <v>15</v>
       </c>
@@ -2940,15 +2942,15 @@
         <v>0</v>
       </c>
       <c r="Q52" s="7"/>
-      <c r="R52" s="114" t="s">
+      <c r="R52" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="S52" s="115"/>
-      <c r="T52" s="115"/>
-      <c r="U52" s="115"/>
-      <c r="V52" s="115"/>
-      <c r="W52" s="115"/>
-      <c r="X52" s="115"/>
+      <c r="S52" s="129"/>
+      <c r="T52" s="129"/>
+      <c r="U52" s="129"/>
+      <c r="V52" s="129"/>
+      <c r="W52" s="129"/>
+      <c r="X52" s="129"/>
       <c r="Z52" s="59"/>
     </row>
     <row r="53" spans="1:26" ht="23.1" customHeight="1">
@@ -2959,10 +2961,10 @@
         <f>I58</f>
         <v>0.1</v>
       </c>
-      <c r="C53" s="132" t="s">
+      <c r="C53" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="132"/>
+      <c r="D53" s="136"/>
       <c r="E53" s="45">
         <v>0.1</v>
       </c>
@@ -2994,13 +2996,13 @@
         <v>0</v>
       </c>
       <c r="Q53" s="7"/>
-      <c r="R53" s="114"/>
-      <c r="S53" s="115"/>
-      <c r="T53" s="115"/>
-      <c r="U53" s="115"/>
-      <c r="V53" s="115"/>
-      <c r="W53" s="115"/>
-      <c r="X53" s="115"/>
+      <c r="R53" s="145"/>
+      <c r="S53" s="129"/>
+      <c r="T53" s="129"/>
+      <c r="U53" s="129"/>
+      <c r="V53" s="129"/>
+      <c r="W53" s="129"/>
+      <c r="X53" s="129"/>
       <c r="Z53" s="59"/>
     </row>
     <row r="54" spans="1:26" ht="23.1" customHeight="1">
@@ -3010,8 +3012,8 @@
       <c r="B54" s="49">
         <v>0.01</v>
       </c>
-      <c r="C54" s="133"/>
-      <c r="D54" s="134"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="144"/>
       <c r="E54" s="49">
         <v>0.01</v>
       </c>
@@ -3043,15 +3045,15 @@
         <v>0</v>
       </c>
       <c r="Q54" s="7"/>
-      <c r="R54" s="116" t="s">
+      <c r="R54" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="S54" s="117"/>
-      <c r="T54" s="117"/>
-      <c r="U54" s="117"/>
-      <c r="V54" s="117"/>
-      <c r="W54" s="117"/>
-      <c r="X54" s="117"/>
+      <c r="S54" s="147"/>
+      <c r="T54" s="147"/>
+      <c r="U54" s="147"/>
+      <c r="V54" s="147"/>
+      <c r="W54" s="147"/>
+      <c r="X54" s="147"/>
       <c r="Z54" s="59"/>
     </row>
     <row r="55" spans="1:26">
@@ -3061,8 +3063,8 @@
       <c r="B55" s="49">
         <v>0.01</v>
       </c>
-      <c r="C55" s="125"/>
-      <c r="D55" s="125"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="127"/>
       <c r="E55" s="49">
         <v>0.01</v>
       </c>
@@ -3094,13 +3096,13 @@
         <v>0</v>
       </c>
       <c r="Q55" s="7"/>
-      <c r="R55" s="116"/>
-      <c r="S55" s="117"/>
-      <c r="T55" s="117"/>
-      <c r="U55" s="117"/>
-      <c r="V55" s="117"/>
-      <c r="W55" s="117"/>
-      <c r="X55" s="117"/>
+      <c r="R55" s="146"/>
+      <c r="S55" s="147"/>
+      <c r="T55" s="147"/>
+      <c r="U55" s="147"/>
+      <c r="V55" s="147"/>
+      <c r="W55" s="147"/>
+      <c r="X55" s="147"/>
       <c r="Z55" s="59"/>
     </row>
     <row r="56" spans="1:26">
@@ -3143,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="Q56" s="7"/>
-      <c r="R56" s="118"/>
-      <c r="S56" s="113"/>
-      <c r="T56" s="113"/>
-      <c r="U56" s="113"/>
-      <c r="V56" s="113"/>
-      <c r="W56" s="113"/>
-      <c r="X56" s="113"/>
+      <c r="R56" s="148"/>
+      <c r="S56" s="123"/>
+      <c r="T56" s="123"/>
+      <c r="U56" s="123"/>
+      <c r="V56" s="123"/>
+      <c r="W56" s="123"/>
+      <c r="X56" s="123"/>
       <c r="Z56" s="59"/>
     </row>
     <row r="57" spans="1:26" ht="16.2" thickBot="1">
@@ -3160,10 +3162,10 @@
         <f>N58</f>
         <v>0.1</v>
       </c>
-      <c r="C57" s="125" t="s">
+      <c r="C57" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="125"/>
+      <c r="D57" s="127"/>
       <c r="E57" s="49">
         <v>0.1</v>
       </c>
@@ -3195,13 +3197,13 @@
         <v>0</v>
       </c>
       <c r="Q57" s="7"/>
-      <c r="R57" s="118"/>
-      <c r="S57" s="113"/>
-      <c r="T57" s="113"/>
-      <c r="U57" s="113"/>
-      <c r="V57" s="113"/>
-      <c r="W57" s="113"/>
-      <c r="X57" s="113"/>
+      <c r="R57" s="148"/>
+      <c r="S57" s="123"/>
+      <c r="T57" s="123"/>
+      <c r="U57" s="123"/>
+      <c r="V57" s="123"/>
+      <c r="W57" s="123"/>
+      <c r="X57" s="123"/>
       <c r="Z57" s="59"/>
     </row>
     <row r="58" spans="1:26" ht="16.2" thickBot="1">
@@ -3211,8 +3213,8 @@
       <c r="B58" s="49">
         <v>0.35</v>
       </c>
-      <c r="C58" s="126"/>
-      <c r="D58" s="126"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="141"/>
       <c r="E58" s="49">
         <v>0.35</v>
       </c>
@@ -3253,8 +3255,8 @@
         <v>86</v>
       </c>
       <c r="B59" s="52"/>
-      <c r="C59" s="127"/>
-      <c r="D59" s="127"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="142"/>
       <c r="E59" s="53">
         <v>0.35</v>
       </c>
@@ -3263,13 +3265,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="7"/>
-      <c r="R59" s="113"/>
-      <c r="S59" s="113"/>
-      <c r="T59" s="113"/>
-      <c r="U59" s="113"/>
-      <c r="V59" s="113"/>
-      <c r="W59" s="113"/>
-      <c r="X59" s="113"/>
+      <c r="R59" s="123"/>
+      <c r="S59" s="123"/>
+      <c r="T59" s="123"/>
+      <c r="U59" s="123"/>
+      <c r="V59" s="123"/>
+      <c r="W59" s="123"/>
+      <c r="X59" s="123"/>
       <c r="Z59" s="59"/>
     </row>
     <row r="60" spans="1:26">
@@ -3280,33 +3282,33 @@
         <f>SUM(B53:B59)</f>
         <v>0.65</v>
       </c>
-      <c r="C60" s="128"/>
-      <c r="D60" s="128"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="126"/>
       <c r="E60" s="57"/>
       <c r="F60" s="58">
         <f>SUM(F53:F59)</f>
         <v>0</v>
       </c>
       <c r="G60" s="7"/>
-      <c r="R60" s="113"/>
-      <c r="S60" s="113"/>
-      <c r="T60" s="113"/>
-      <c r="U60" s="113"/>
-      <c r="V60" s="113"/>
-      <c r="W60" s="113"/>
-      <c r="X60" s="113"/>
+      <c r="R60" s="123"/>
+      <c r="S60" s="123"/>
+      <c r="T60" s="123"/>
+      <c r="U60" s="123"/>
+      <c r="V60" s="123"/>
+      <c r="W60" s="123"/>
+      <c r="X60" s="123"/>
       <c r="Z60" s="59"/>
     </row>
     <row r="61" spans="1:26" s="59" customFormat="1" ht="16.2" thickBot="1"/>
     <row r="62" spans="1:26" ht="16.2" thickBot="1">
-      <c r="A62" s="129" t="s">
+      <c r="A62" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="130"/>
-      <c r="C62" s="130"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
+      <c r="B62" s="132"/>
+      <c r="C62" s="132"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="132"/>
       <c r="G62" s="82"/>
       <c r="H62" s="8" t="s">
         <v>58</v>
@@ -3342,10 +3344,10 @@
       <c r="B63" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="120" t="s">
+      <c r="C63" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="120"/>
+      <c r="D63" s="130"/>
       <c r="E63" s="42" t="s">
         <v>15</v>
       </c>
@@ -3385,10 +3387,10 @@
         <f>N73</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="C64" s="132" t="s">
+      <c r="C64" s="136" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="132"/>
+      <c r="D64" s="136"/>
       <c r="E64" s="45">
         <v>0.3</v>
       </c>
@@ -3429,10 +3431,10 @@
         <f>I70</f>
         <v>0.15</v>
       </c>
-      <c r="C65" s="125" t="s">
+      <c r="C65" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="125"/>
+      <c r="D65" s="127"/>
       <c r="E65" s="49">
         <v>0.15</v>
       </c>
@@ -3472,8 +3474,8 @@
       <c r="B66" s="71">
         <v>0.25</v>
       </c>
-      <c r="C66" s="125"/>
-      <c r="D66" s="125"/>
+      <c r="C66" s="127"/>
+      <c r="D66" s="127"/>
       <c r="E66" s="49">
         <v>0.25</v>
       </c>
@@ -3511,8 +3513,8 @@
         <v>86</v>
       </c>
       <c r="B67" s="96"/>
-      <c r="C67" s="135"/>
-      <c r="D67" s="135"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="137"/>
       <c r="E67" s="97">
         <v>0.3</v>
       </c>
@@ -3553,8 +3555,8 @@
         <f>SUM(B64:B67)</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="C68" s="136"/>
-      <c r="D68" s="136"/>
+      <c r="C68" s="138"/>
+      <c r="D68" s="138"/>
       <c r="E68" s="101"/>
       <c r="F68" s="102">
         <f>SUM(F64:F67)</f>
@@ -3683,21 +3685,30 @@
     <row r="74" spans="1:26" s="59" customFormat="1"/>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="Q15:V16"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="R59:X60"/>
+    <mergeCell ref="R52:X53"/>
+    <mergeCell ref="R54:X55"/>
+    <mergeCell ref="R56:X57"/>
+    <mergeCell ref="Q23:V24"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
     <mergeCell ref="Q13:V14"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:C3"/>
@@ -3714,30 +3725,21 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="R59:X60"/>
-    <mergeCell ref="R52:X53"/>
-    <mergeCell ref="R54:X55"/>
-    <mergeCell ref="R56:X57"/>
-    <mergeCell ref="Q23:V24"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="Q15:V16"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
